--- a/Yeezus/output/data.xlsx
+++ b/Yeezus/output/data.xlsx
@@ -13,10 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="Template" r:id="rId1" sheetId="1"/>
-    <sheet name="FCFS-1" r:id="rId6" sheetId="2"/>
-    <sheet name="FCFS-4" r:id="rId7" sheetId="3"/>
-    <sheet name="Priority-1" r:id="rId8" sheetId="4"/>
-    <sheet name="Priority-4" r:id="rId9" sheetId="5"/>
+    <sheet name="FCFS-0" r:id="rId6" sheetId="2"/>
+    <sheet name="FCFS-1" r:id="rId7" sheetId="3"/>
+    <sheet name="FCFS-4" r:id="rId8" sheetId="4"/>
+    <sheet name="Priority-0" r:id="rId9" sheetId="5"/>
+    <sheet name="Priority-1" r:id="rId10" sheetId="6"/>
+    <sheet name="Priority-4" r:id="rId11" sheetId="7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="11">
   <si>
     <t>Process ID:</t>
   </si>
@@ -812,10 +814,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>46.0</v>
+        <v>14.0</v>
       </c>
       <c r="C2" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="D2">
         <f>$B$2+$C$2</f>
@@ -825,15 +827,6 @@
       </c>
       <c r="F2" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>7.0</v>
       </c>
     </row>
     <row r="3">
@@ -841,10 +834,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>57.0</v>
+        <v>22.0</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D3">
         <f>$B$3+$C$3</f>
@@ -854,15 +847,6 @@
       </c>
       <c r="F3" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <f>AVERAGE($B$2:$B$31)</f>
-      </c>
-      <c r="J3">
-        <f>AVERAGE($C$2:$C$31)</f>
       </c>
     </row>
     <row r="4">
@@ -870,7 +854,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>62.0</v>
+        <v>26.0</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -883,15 +867,6 @@
       </c>
       <c r="F4" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +874,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>64.0</v>
+        <v>28.0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D5">
         <f>$B$5+$C$5</f>
@@ -912,15 +887,6 @@
       </c>
       <c r="F5" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -928,10 +894,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>65.0</v>
+        <v>31.0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D6">
         <f>$B$6+$C$6</f>
@@ -941,15 +907,6 @@
       </c>
       <c r="F6" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -957,10 +914,10 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>67.0</v>
+        <v>35.0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D7">
         <f>$B$7+$C$7</f>
@@ -970,15 +927,6 @@
       </c>
       <c r="F7" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -986,7 +934,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>70.0</v>
+        <v>36.0</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -999,15 +947,6 @@
       </c>
       <c r="F8" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1015,7 +954,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>71.0</v>
+        <v>38.0</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -1028,15 +967,6 @@
       </c>
       <c r="F9" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1044,10 +974,10 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>72.0</v>
+        <v>39.0</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D10">
         <f>$B$10+$C$10</f>
@@ -1057,15 +987,6 @@
       </c>
       <c r="F10" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1073,10 +994,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>74.0</v>
+        <v>40.0</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D11">
         <f>$B$11+$C$11</f>
@@ -1086,15 +1007,6 @@
       </c>
       <c r="F11" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1102,10 +1014,10 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>76.0</v>
+        <v>42.0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D12">
         <f>$B$12+$C$12</f>
@@ -1116,22 +1028,13 @@
       <c r="F12" t="n">
         <v>12.0</v>
       </c>
-      <c r="H12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>77.0</v>
+        <v>43.0</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -1144,15 +1047,6 @@
       </c>
       <c r="F13" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1160,10 +1054,10 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>79.0</v>
+        <v>44.0</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D14">
         <f>$B$14+$C$14</f>
@@ -1173,15 +1067,6 @@
       </c>
       <c r="F14" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1189,10 +1074,10 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>81.0</v>
+        <v>45.0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D15">
         <f>$B$15+$C$15</f>
@@ -1202,15 +1087,6 @@
       </c>
       <c r="F15" t="n">
         <v>10.0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1218,10 +1094,10 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>82.0</v>
+        <v>46.0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D16">
         <f>$B$16+$C$16</f>
@@ -1231,15 +1107,6 @@
       </c>
       <c r="F16" t="n">
         <v>11.0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1247,7 +1114,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>84.0</v>
+        <v>47.0</v>
       </c>
       <c r="C17" t="n">
         <v>0.0</v>
@@ -1260,15 +1127,6 @@
       </c>
       <c r="F17" t="n">
         <v>5.0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1276,7 +1134,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>84.0</v>
+        <v>47.0</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
@@ -1289,15 +1147,6 @@
       </c>
       <c r="F18" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1305,10 +1154,10 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>86.0</v>
+        <v>48.0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D19">
         <f>$B$19+$C$19</f>
@@ -1325,10 +1174,10 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>87.0</v>
+        <v>49.0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="D20">
         <f>$B$20+$C$20</f>
@@ -1345,7 +1194,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>92.0</v>
+        <v>50.0</v>
       </c>
       <c r="C21" t="n">
         <v>1.0</v>
@@ -1365,10 +1214,10 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>94.0</v>
+        <v>52.0</v>
       </c>
       <c r="C22" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D22">
         <f>$B$22+$C$22</f>
@@ -1385,7 +1234,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>96.0</v>
+        <v>53.0</v>
       </c>
       <c r="C23" t="n">
         <v>0.0</v>
@@ -1405,10 +1254,10 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>97.0</v>
+        <v>54.0</v>
       </c>
       <c r="C24" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="D24">
         <f>$B$24+$C$24</f>
@@ -1425,10 +1274,10 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>101.0</v>
+        <v>54.0</v>
       </c>
       <c r="C25" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D25">
         <f>$B$25+$C$25</f>
@@ -1445,7 +1294,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>103.0</v>
+        <v>55.0</v>
       </c>
       <c r="C26" t="n">
         <v>0.0</v>
@@ -1465,7 +1314,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>104.0</v>
+        <v>56.0</v>
       </c>
       <c r="C27" t="n">
         <v>0.0</v>
@@ -1485,10 +1334,10 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>104.0</v>
+        <v>56.0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D28">
         <f>$B$28+$C$28</f>
@@ -1505,7 +1354,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>105.0</v>
+        <v>57.0</v>
       </c>
       <c r="C29" t="n">
         <v>1.0</v>
@@ -1525,7 +1374,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>107.0</v>
+        <v>59.0</v>
       </c>
       <c r="C30" t="n">
         <v>1.0</v>
@@ -1545,7 +1394,7 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>108.0</v>
+        <v>59.0</v>
       </c>
       <c r="C31" t="n">
         <v>0.0</v>
@@ -1644,7 +1493,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.0</v>
+        <v>48.0</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -1662,7 +1511,7 @@
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.0</v>
+        <v>20.0</v>
       </c>
       <c r="J2" t="n">
         <v>2.0</v>
@@ -1673,7 +1522,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>2.0</v>
+        <v>49.0</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -1687,14 +1536,14 @@
       <c r="F3" t="n">
         <v>12.0</v>
       </c>
-      <c r="H3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.0</v>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <f>AVERAGE($B$2:$B$31)</f>
+      </c>
+      <c r="J3">
+        <f>AVERAGE($C$2:$C$31)</f>
       </c>
     </row>
     <row r="4">
@@ -1702,10 +1551,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>2.0</v>
+        <v>51.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4">
         <f>$B$4+$C$4</f>
@@ -1716,14 +1565,14 @@
       <c r="F4" t="n">
         <v>12.0</v>
       </c>
-      <c r="H4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.0</v>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1731,10 +1580,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>2.0</v>
+        <v>51.0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D5">
         <f>$B$5+$C$5</f>
@@ -1745,14 +1594,14 @@
       <c r="F5" t="n">
         <v>12.0</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.0</v>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1760,10 +1609,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>3.0</v>
+        <v>52.0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D6">
         <f>$B$6+$C$6</f>
@@ -1775,13 +1624,13 @@
         <v>12.0</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <f>AVERAGE($B$2:$B$31)</f>
-      </c>
-      <c r="J6">
-        <f>AVERAGE($C$2:$C$31)</f>
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1789,10 +1638,10 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>3.0</v>
+        <v>52.0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D7">
         <f>$B$7+$C$7</f>
@@ -1818,10 +1667,10 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>3.0</v>
+        <v>53.0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D8">
         <f>$B$8+$C$8</f>
@@ -1847,7 +1696,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>4.0</v>
+        <v>54.0</v>
       </c>
       <c r="C9" t="n">
         <v>0.0</v>
@@ -1876,7 +1725,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>4.0</v>
+        <v>54.0</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -1905,10 +1754,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>4.0</v>
+        <v>55.0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D11">
         <f>$B$11+$C$11</f>
@@ -1934,10 +1783,10 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>4.0</v>
+        <v>56.0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D12">
         <f>$B$12+$C$12</f>
@@ -1963,10 +1812,10 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>4.0</v>
+        <v>57.0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D13">
         <f>$B$13+$C$13</f>
@@ -1992,7 +1841,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>5.0</v>
+        <v>58.0</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -2021,7 +1870,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>5.0</v>
+        <v>58.0</v>
       </c>
       <c r="C15" t="n">
         <v>0.0</v>
@@ -2050,10 +1899,10 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>5.0</v>
+        <v>58.0</v>
       </c>
       <c r="C16" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D16">
         <f>$B$16+$C$16</f>
@@ -2079,7 +1928,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>6.0</v>
+        <v>59.0</v>
       </c>
       <c r="C17" t="n">
         <v>0.0</v>
@@ -2108,10 +1957,10 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>6.0</v>
+        <v>59.0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D18">
         <f>$B$18+$C$18</f>
@@ -2137,10 +1986,10 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>6.0</v>
+        <v>60.0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D19">
         <f>$B$19+$C$19</f>
@@ -2150,15 +1999,6 @@
       </c>
       <c r="F19" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2166,10 +2006,10 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>6.0</v>
+        <v>61.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D20">
         <f>$B$20+$C$20</f>
@@ -2179,15 +2019,6 @@
       </c>
       <c r="F20" t="n">
         <v>10.0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -2195,10 +2026,10 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>7.0</v>
+        <v>61.0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D21">
         <f>$B$21+$C$21</f>
@@ -2208,15 +2039,6 @@
       </c>
       <c r="F21" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -2224,10 +2046,10 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>7.0</v>
+        <v>62.0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D22">
         <f>$B$22+$C$22</f>
@@ -2244,10 +2066,10 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>7.0</v>
+        <v>63.0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D23">
         <f>$B$23+$C$23</f>
@@ -2264,7 +2086,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>7.0</v>
+        <v>64.0</v>
       </c>
       <c r="C24" t="n">
         <v>0.0</v>
@@ -2284,10 +2106,10 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>8.0</v>
+        <v>64.0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D25">
         <f>$B$25+$C$25</f>
@@ -2304,7 +2126,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>8.0</v>
+        <v>65.0</v>
       </c>
       <c r="C26" t="n">
         <v>0.0</v>
@@ -2324,7 +2146,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>8.0</v>
+        <v>66.0</v>
       </c>
       <c r="C27" t="n">
         <v>0.0</v>
@@ -2344,7 +2166,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>9.0</v>
+        <v>66.0</v>
       </c>
       <c r="C28" t="n">
         <v>0.0</v>
@@ -2364,10 +2186,10 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>9.0</v>
+        <v>67.0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D29">
         <f>$B$29+$C$29</f>
@@ -2384,7 +2206,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>9.0</v>
+        <v>67.0</v>
       </c>
       <c r="C30" t="n">
         <v>0.0</v>
@@ -2404,10 +2226,10 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>9.0</v>
+        <v>68.0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D31">
         <f>$B$31+$C$31</f>
@@ -2503,7 +2325,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>22.0</v>
+        <v>1.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
@@ -2521,7 +2343,7 @@
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>25.0</v>
+        <v>5.0</v>
       </c>
       <c r="J2" t="n">
         <v>1.0</v>
@@ -2532,10 +2354,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
         <f>$B$3+$C$3</f>
@@ -2546,14 +2368,14 @@
       <c r="F3" t="n">
         <v>12.0</v>
       </c>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <f>AVERAGE($B$2:$B$31)</f>
-      </c>
-      <c r="J3">
-        <f>AVERAGE($C$2:$C$31)</f>
+      <c r="H3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -2561,10 +2383,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4">
         <f>$B$4+$C$4</f>
@@ -2575,14 +2397,14 @@
       <c r="F4" t="n">
         <v>12.0</v>
       </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
+      <c r="H4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -2590,7 +2412,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C5" t="n">
         <v>0.0</v>
@@ -2604,14 +2426,14 @@
       <c r="F5" t="n">
         <v>12.0</v>
       </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>10</v>
+      <c r="H5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -2619,7 +2441,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>19.0</v>
+        <v>1.0</v>
       </c>
       <c r="C6" t="n">
         <v>0.0</v>
@@ -2634,13 +2456,13 @@
         <v>12.0</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <f>AVERAGE($B$2:$B$31)</f>
+      </c>
+      <c r="J6">
+        <f>AVERAGE($C$2:$C$31)</f>
       </c>
     </row>
     <row r="7">
@@ -2648,10 +2470,10 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D7">
         <f>$B$7+$C$7</f>
@@ -2677,7 +2499,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c r="C8" t="n">
         <v>0.0</v>
@@ -2706,10 +2528,10 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D9">
         <f>$B$9+$C$9</f>
@@ -2735,7 +2557,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>23.0</v>
+        <v>2.0</v>
       </c>
       <c r="C10" t="n">
         <v>0.0</v>
@@ -2764,10 +2586,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D11">
         <f>$B$11+$C$11</f>
@@ -2793,7 +2615,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>20.0</v>
+        <v>2.0</v>
       </c>
       <c r="C12" t="n">
         <v>0.0</v>
@@ -2822,10 +2644,10 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D13">
         <f>$B$13+$C$13</f>
@@ -2851,10 +2673,10 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C14" t="n">
         <v>1.0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0</v>
       </c>
       <c r="D14">
         <f>$B$14+$C$14</f>
@@ -2880,7 +2702,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>23.0</v>
+        <v>3.0</v>
       </c>
       <c r="C15" t="n">
         <v>0.0</v>
@@ -2909,7 +2731,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -2938,7 +2760,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="C17" t="n">
         <v>0.0</v>
@@ -2967,10 +2789,10 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>16.0</v>
+        <v>3.0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D18">
         <f>$B$18+$C$18</f>
@@ -2996,7 +2818,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C19" t="n">
         <v>0.0</v>
@@ -3009,6 +2831,15 @@
       </c>
       <c r="F19" t="n">
         <v>12.0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -3016,7 +2847,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>25.0</v>
+        <v>4.0</v>
       </c>
       <c r="C20" t="n">
         <v>0.0</v>
@@ -3029,6 +2860,15 @@
       </c>
       <c r="F20" t="n">
         <v>10.0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -3036,7 +2876,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>24.0</v>
+        <v>4.0</v>
       </c>
       <c r="C21" t="n">
         <v>1.0</v>
@@ -3049,6 +2889,15 @@
       </c>
       <c r="F21" t="n">
         <v>12.0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -3056,10 +2905,10 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>17.0</v>
+        <v>4.0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D22">
         <f>$B$22+$C$22</f>
@@ -3076,7 +2925,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C23" t="n">
         <v>0.0</v>
@@ -3096,7 +2945,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
       <c r="C24" t="n">
         <v>0.0</v>
@@ -3116,7 +2965,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="C25" t="n">
         <v>1.0</v>
@@ -3136,7 +2985,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C26" t="n">
         <v>0.0</v>
@@ -3156,7 +3005,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>18.0</v>
+        <v>5.0</v>
       </c>
       <c r="C27" t="n">
         <v>0.0</v>
@@ -3179,7 +3028,7 @@
         <v>5.0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D28">
         <f>$B$28+$C$28</f>
@@ -3196,7 +3045,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
       <c r="C29" t="n">
         <v>0.0</v>
@@ -3216,10 +3065,10 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>26.0</v>
+        <v>6.0</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D30">
         <f>$B$30+$C$30</f>
@@ -3236,7 +3085,7 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C31" t="n">
         <v>0.0</v>
@@ -3335,10 +3184,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D2">
         <f>$B$2+$C$2</f>
@@ -3348,15 +3197,6 @@
       </c>
       <c r="F2" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -3364,10 +3204,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
         <f>$B$3+$C$3</f>
@@ -3377,15 +3217,6 @@
       </c>
       <c r="F3" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -3393,10 +3224,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4">
         <f>$B$4+$C$4</f>
@@ -3406,15 +3237,6 @@
       </c>
       <c r="F4" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -3422,10 +3244,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="D5">
         <f>$B$5+$C$5</f>
@@ -3435,15 +3257,6 @@
       </c>
       <c r="F5" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -3454,7 +3267,7 @@
         <v>12.0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D6">
         <f>$B$6+$C$6</f>
@@ -3464,15 +3277,6 @@
       </c>
       <c r="F6" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <f>AVERAGE($B$2:$B$31)</f>
-      </c>
-      <c r="J6">
-        <f>AVERAGE($C$2:$C$31)</f>
       </c>
     </row>
     <row r="7">
@@ -3480,10 +3284,10 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="D7">
         <f>$B$7+$C$7</f>
@@ -3493,15 +3297,6 @@
       </c>
       <c r="F7" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -3509,7 +3304,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C8" t="n">
         <v>0.0</v>
@@ -3522,15 +3317,6 @@
       </c>
       <c r="F8" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -3538,10 +3324,10 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D9">
         <f>$B$9+$C$9</f>
@@ -3551,15 +3337,6 @@
       </c>
       <c r="F9" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -3567,10 +3344,10 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D10">
         <f>$B$10+$C$10</f>
@@ -3580,15 +3357,6 @@
       </c>
       <c r="F10" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -3596,10 +3364,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D11">
         <f>$B$11+$C$11</f>
@@ -3609,15 +3377,6 @@
       </c>
       <c r="F11" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -3625,10 +3384,10 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D12">
         <f>$B$12+$C$12</f>
@@ -3639,25 +3398,16 @@
       <c r="F12" t="n">
         <v>12.0</v>
       </c>
-      <c r="H12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D13">
         <f>$B$13+$C$13</f>
@@ -3667,15 +3417,6 @@
       </c>
       <c r="F13" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -3686,7 +3427,7 @@
         <v>1.0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D14">
         <f>$B$14+$C$14</f>
@@ -3696,15 +3437,6 @@
       </c>
       <c r="F14" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -3712,10 +3444,10 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D15">
         <f>$B$15+$C$15</f>
@@ -3725,15 +3457,6 @@
       </c>
       <c r="F15" t="n">
         <v>10.0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -3741,7 +3464,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C16" t="n">
         <v>0.0</v>
@@ -3754,15 +3477,6 @@
       </c>
       <c r="F16" t="n">
         <v>11.0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -3770,7 +3484,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C17" t="n">
         <v>0.0</v>
@@ -3783,15 +3497,6 @@
       </c>
       <c r="F17" t="n">
         <v>5.0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -3799,10 +3504,10 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D18">
         <f>$B$18+$C$18</f>
@@ -3812,15 +3517,6 @@
       </c>
       <c r="F18" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -3831,7 +3527,7 @@
         <v>1.0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D19">
         <f>$B$19+$C$19</f>
@@ -3841,15 +3537,6 @@
       </c>
       <c r="F19" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -3857,10 +3544,10 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D20">
         <f>$B$20+$C$20</f>
@@ -3870,15 +3557,6 @@
       </c>
       <c r="F20" t="n">
         <v>10.0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -3886,10 +3564,10 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>13.0</v>
+        <v>20.0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D21">
         <f>$B$21+$C$21</f>
@@ -3899,15 +3577,6 @@
       </c>
       <c r="F21" t="n">
         <v>12.0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -3918,7 +3587,7 @@
         <v>11.0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D22">
         <f>$B$22+$C$22</f>
@@ -3938,7 +3607,7 @@
         <v>2.0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D23">
         <f>$B$23+$C$23</f>
@@ -3955,7 +3624,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C24" t="n">
         <v>0.0</v>
@@ -3975,10 +3644,10 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="C25" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="D25">
         <f>$B$25+$C$25</f>
@@ -3995,7 +3664,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C26" t="n">
         <v>0.0</v>
@@ -4015,10 +3684,10 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D27">
         <f>$B$27+$C$27</f>
@@ -4035,10 +3704,10 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D28">
         <f>$B$28+$C$28</f>
@@ -4055,10 +3724,10 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D29">
         <f>$B$29+$C$29</f>
@@ -4075,10 +3744,10 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D30">
         <f>$B$30+$C$30</f>
@@ -4095,10 +3764,1701 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D31">
+        <f>$B$31+$C$31</f>
+      </c>
+      <c r="E31" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <f>AVERAGE($B$2:$B$31)</f>
+      </c>
+      <c r="C32">
+        <f>AVERAGE($C$2:$C$31)</f>
+      </c>
+      <c r="D32">
+        <f>AVERAGE($D$2:$D$31)</f>
+      </c>
+      <c r="E32">
+        <f>AVERAGE($E$2:$E$31)</f>
+      </c>
+      <c r="F32">
+        <f>AVERAGE($F$2:$F$31)</f>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="false" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2">
+        <f>$B$2+$C$2</f>
+      </c>
+      <c r="E2" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3">
+        <f>$B$3+$C$3</f>
+      </c>
+      <c r="E3" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <f>AVERAGE($B$2:$B$31)</f>
+      </c>
+      <c r="J3">
+        <f>AVERAGE($C$2:$C$31)</f>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3.0</v>
       </c>
+      <c r="B4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <f>$B$4+$C$4</f>
+      </c>
+      <c r="E4" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <f>$B$5+$C$5</f>
+      </c>
+      <c r="E5" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <f>$B$6+$C$6</f>
+      </c>
+      <c r="E6" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7">
+        <f>$B$7+$C$7</f>
+      </c>
+      <c r="E7" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8">
+        <f>$B$8+$C$8</f>
+      </c>
+      <c r="E8" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9">
+        <f>$B$9+$C$9</f>
+      </c>
+      <c r="E9" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10">
+        <f>$B$10+$C$10</f>
+      </c>
+      <c r="E10" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D11">
+        <f>$B$11+$C$11</f>
+      </c>
+      <c r="E11" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D12">
+        <f>$B$12+$C$12</f>
+      </c>
+      <c r="E12" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13">
+        <f>$B$13+$C$13</f>
+      </c>
+      <c r="E13" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D14">
+        <f>$B$14+$C$14</f>
+      </c>
+      <c r="E14" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15">
+        <f>$B$15+$C$15</f>
+      </c>
+      <c r="E15" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16">
+        <f>$B$16+$C$16</f>
+      </c>
+      <c r="E16" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17">
+        <f>$B$17+$C$17</f>
+      </c>
+      <c r="E17" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D18">
+        <f>$B$18+$C$18</f>
+      </c>
+      <c r="E18" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D19">
+        <f>$B$19+$C$19</f>
+      </c>
+      <c r="E19" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D20">
+        <f>$B$20+$C$20</f>
+      </c>
+      <c r="E20" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D21">
+        <f>$B$21+$C$21</f>
+      </c>
+      <c r="E21" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22">
+        <f>$B$22+$C$22</f>
+      </c>
+      <c r="E22" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D23">
+        <f>$B$23+$C$23</f>
+      </c>
+      <c r="E23" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D24">
+        <f>$B$24+$C$24</f>
+      </c>
+      <c r="E24" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25">
+        <f>$B$25+$C$25</f>
+      </c>
+      <c r="E25" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D26">
+        <f>$B$26+$C$26</f>
+      </c>
+      <c r="E26" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D27">
+        <f>$B$27+$C$27</f>
+      </c>
+      <c r="E27" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D28">
+        <f>$B$28+$C$28</f>
+      </c>
+      <c r="E28" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D29">
+        <f>$B$29+$C$29</f>
+      </c>
+      <c r="E29" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D30">
+        <f>$B$30+$C$30</f>
+      </c>
+      <c r="E30" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>6.0</v>
+      </c>
       <c r="C31" t="n">
         <v>0.0</v>
+      </c>
+      <c r="D31">
+        <f>$B$31+$C$31</f>
+      </c>
+      <c r="E31" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <f>AVERAGE($B$2:$B$31)</f>
+      </c>
+      <c r="C32">
+        <f>AVERAGE($C$2:$C$31)</f>
+      </c>
+      <c r="D32">
+        <f>AVERAGE($D$2:$D$31)</f>
+      </c>
+      <c r="E32">
+        <f>AVERAGE($E$2:$E$31)</f>
+      </c>
+      <c r="F32">
+        <f>AVERAGE($F$2:$F$31)</f>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="false" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2">
+        <f>$B$2+$C$2</f>
+      </c>
+      <c r="E2" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3">
+        <f>$B$3+$C$3</f>
+      </c>
+      <c r="E3" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <f>$B$4+$C$4</f>
+      </c>
+      <c r="E4" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <f>$B$5+$C$5</f>
+      </c>
+      <c r="E5" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <f>$B$6+$C$6</f>
+      </c>
+      <c r="E6" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <f>AVERAGE($B$2:$B$31)</f>
+      </c>
+      <c r="J6">
+        <f>AVERAGE($C$2:$C$31)</f>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7">
+        <f>$B$7+$C$7</f>
+      </c>
+      <c r="E7" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8">
+        <f>$B$8+$C$8</f>
+      </c>
+      <c r="E8" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D9">
+        <f>$B$9+$C$9</f>
+      </c>
+      <c r="E9" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10">
+        <f>$B$10+$C$10</f>
+      </c>
+      <c r="E10" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D11">
+        <f>$B$11+$C$11</f>
+      </c>
+      <c r="E11" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D12">
+        <f>$B$12+$C$12</f>
+      </c>
+      <c r="E12" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D13">
+        <f>$B$13+$C$13</f>
+      </c>
+      <c r="E13" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14">
+        <f>$B$14+$C$14</f>
+      </c>
+      <c r="E14" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15">
+        <f>$B$15+$C$15</f>
+      </c>
+      <c r="E15" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16">
+        <f>$B$16+$C$16</f>
+      </c>
+      <c r="E16" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17">
+        <f>$B$17+$C$17</f>
+      </c>
+      <c r="E17" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D18">
+        <f>$B$18+$C$18</f>
+      </c>
+      <c r="E18" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D19">
+        <f>$B$19+$C$19</f>
+      </c>
+      <c r="E19" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20">
+        <f>$B$20+$C$20</f>
+      </c>
+      <c r="E20" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D21">
+        <f>$B$21+$C$21</f>
+      </c>
+      <c r="E21" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22">
+        <f>$B$22+$C$22</f>
+      </c>
+      <c r="E22" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D23">
+        <f>$B$23+$C$23</f>
+      </c>
+      <c r="E23" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D24">
+        <f>$B$24+$C$24</f>
+      </c>
+      <c r="E24" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D25">
+        <f>$B$25+$C$25</f>
+      </c>
+      <c r="E25" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D26">
+        <f>$B$26+$C$26</f>
+      </c>
+      <c r="E26" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D27">
+        <f>$B$27+$C$27</f>
+      </c>
+      <c r="E27" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D28">
+        <f>$B$28+$C$28</f>
+      </c>
+      <c r="E28" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D29">
+        <f>$B$29+$C$29</f>
+      </c>
+      <c r="E29" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D30">
+        <f>$B$30+$C$30</f>
+      </c>
+      <c r="E30" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.0</v>
       </c>
       <c r="D31">
         <f>$B$31+$C$31</f>

--- a/Yeezus/output/data.xlsx
+++ b/Yeezus/output/data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="14">
   <si>
     <t>Process ID:</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>Idle Time (ms):</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>% of RAM</t>
+  </si>
+  <si>
+    <t>% of Cache</t>
   </si>
   <si>
     <t/>
@@ -147,7 +156,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="Process_Table" id="1" name="Process_Table" ref="A1:F32" totalsRowCount="1">
   <autoFilter ref="A1:F32"/>
-  <tableColumns count="6">
+  <tableColumns count="9">
     <tableColumn id="1" name="Process ID:" totalsRowDxfId="0" totalsRowLabel="Average"/>
     <tableColumn id="2" name="Wait Time (ms):" totalsRowFunction="custom">
       <totalsRowFormula>AVERAGE(Process_Table[Wait Time (ms):])</totalsRowFormula>
@@ -165,14 +174,21 @@
     <tableColumn id="6" name="I/O Count:" totalsRowFunction="custom">
       <totalsRowFormula>AVERAGE(Process_Table[I/O Count:])</totalsRowFormula>
     </tableColumn>
+    <tableColumn id="8" name="CPU"/>
+    <tableColumn id="9" name="% of Cache" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(Process_Table[% of Cache])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" name="% of RAM" totalsRowFunction="custom">
+      <totalsRowFormula>AVERAGE(Process_Table[% of RAM])</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="CPU_Table" id="2" insertRow="1" name="CPU_Table" ref="H1:J6" totalsRowCount="1">
-  <autoFilter ref="H1:J6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="CPU_Table" id="2" insertRow="1" name="CPU_Table" ref="K1:M6" totalsRowCount="1">
+  <autoFilter ref="K1:M6"/>
   <tableColumns count="3">
     <tableColumn id="1" name="CPU ID:" totalsRowLabel="Average"/>
     <tableColumn id="2" name="Busy Time (ms):" totalsRowFunction="custom">
@@ -483,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,13 +512,16 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,208 +540,217 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
       <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D2">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D3">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" t="e">
-        <f>AVERAGE(Template!I2:I2)</f>
+      <c r="L3" t="e">
+        <f>AVERAGE(Template!L2:L2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J3" t="e">
-        <f>AVERAGE(Template!J2:J2)</f>
+      <c r="M3" t="e">
+        <f>AVERAGE(Template!M2:M2)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D4">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D5">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D6">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D7">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D8">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D9">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D10">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D11">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D12">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D13">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D14">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D15">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D16">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D17">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D18">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D19">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D20">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D21">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D22">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D23">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D24">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D25">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D26">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D27">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D28">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D29">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D30">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D31">
         <f>Template!C2:C31+Template!B2:B31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -744,6 +772,14 @@
       </c>
       <c r="F32" t="e">
         <f>AVERAGE(Template!F2:F31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" t="e">
+        <f>AVERAGE(Template!H2:H31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" t="e">
+        <f>AVERAGE(Template!I2:I31)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -759,10 +795,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,13 +808,16 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -797,13 +836,22 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
       <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -812,10 +860,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="C2" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="D2">
         <f>$B$2+$C$2</f>
@@ -826,14 +874,23 @@
       <c r="F2" t="n">
         <v>12.0</v>
       </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
       <c r="H2" t="n">
-        <v>0.0</v>
+        <v>0.67</v>
       </c>
       <c r="I2" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>7.0</v>
+        <v>0.0654296875</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
@@ -844,7 +901,7 @@
         <v>57.0</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D3">
         <f>$B$3+$C$3</f>
@@ -855,14 +912,23 @@
       <c r="F3" t="n">
         <v>12.0</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K3" t="s">
         <v>4</v>
       </c>
-      <c r="I3">
-        <f>AVERAGE($B$2:$B$31)</f>
-      </c>
-      <c r="J3">
-        <f>AVERAGE($C$2:$C$31)</f>
+      <c r="L3">
+        <f>AVERAGE($L$2:$L$2)</f>
+      </c>
+      <c r="M3">
+        <f>AVERAGE($M$2:$M$2)</f>
       </c>
     </row>
     <row r="4">
@@ -870,10 +936,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>62.0</v>
+        <v>60.0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D4">
         <f>$B$4+$C$4</f>
@@ -884,14 +950,23 @@
       <c r="F4" t="n">
         <v>12.0</v>
       </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -913,14 +988,23 @@
       <c r="F5" t="n">
         <v>12.0</v>
       </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>10</v>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -928,7 +1012,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -942,14 +1026,23 @@
       <c r="F6" t="n">
         <v>12.0</v>
       </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" t="s">
-        <v>10</v>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -957,7 +1050,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -971,14 +1064,23 @@
       <c r="F7" t="n">
         <v>12.0</v>
       </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" t="s">
-        <v>10</v>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -1000,14 +1102,23 @@
       <c r="F8" t="n">
         <v>12.0</v>
       </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" t="s">
-        <v>10</v>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -1015,10 +1126,10 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D9">
         <f>$B$9+$C$9</f>
@@ -1029,14 +1140,23 @@
       <c r="F9" t="n">
         <v>12.0</v>
       </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" t="s">
-        <v>10</v>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -1044,10 +1164,10 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>72.0</v>
+        <v>74.0</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D10">
         <f>$B$10+$C$10</f>
@@ -1058,14 +1178,23 @@
       <c r="F10" t="n">
         <v>12.0</v>
       </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" t="s">
-        <v>10</v>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -1073,10 +1202,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>74.0</v>
+        <v>76.0</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D11">
         <f>$B$11+$C$11</f>
@@ -1087,14 +1216,23 @@
       <c r="F11" t="n">
         <v>12.0</v>
       </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" t="s">
-        <v>10</v>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -1102,10 +1240,10 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>76.0</v>
+        <v>79.0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D12">
         <f>$B$12+$C$12</f>
@@ -1116,14 +1254,23 @@
       <c r="F12" t="n">
         <v>12.0</v>
       </c>
-      <c r="H12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" t="s">
-        <v>10</v>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0654296875</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1131,10 +1278,10 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>77.0</v>
+        <v>82.0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D13">
         <f>$B$13+$C$13</f>
@@ -1145,14 +1292,23 @@
       <c r="F13" t="n">
         <v>12.0</v>
       </c>
-      <c r="H13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" t="s">
-        <v>10</v>
+      <c r="G13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -1160,10 +1316,10 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>79.0</v>
+        <v>84.0</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D14">
         <f>$B$14+$C$14</f>
@@ -1174,14 +1330,23 @@
       <c r="F14" t="n">
         <v>12.0</v>
       </c>
-      <c r="H14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" t="s">
-        <v>10</v>
+      <c r="G14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -1189,10 +1354,10 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>81.0</v>
+        <v>85.0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D15">
         <f>$B$15+$C$15</f>
@@ -1203,14 +1368,23 @@
       <c r="F15" t="n">
         <v>10.0</v>
       </c>
-      <c r="H15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" t="s">
-        <v>10</v>
+      <c r="G15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -1218,7 +1392,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>82.0</v>
+        <v>86.0</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -1232,14 +1406,23 @@
       <c r="F16" t="n">
         <v>11.0</v>
       </c>
-      <c r="H16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" t="s">
-        <v>10</v>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -1247,7 +1430,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>84.0</v>
+        <v>87.0</v>
       </c>
       <c r="C17" t="n">
         <v>0.0</v>
@@ -1261,14 +1444,23 @@
       <c r="F17" t="n">
         <v>5.0</v>
       </c>
-      <c r="H17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" t="s">
-        <v>10</v>
+      <c r="G17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -1276,7 +1468,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>84.0</v>
+        <v>88.0</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
@@ -1290,14 +1482,23 @@
       <c r="F18" t="n">
         <v>12.0</v>
       </c>
-      <c r="H18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" t="s">
-        <v>10</v>
+      <c r="G18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -1305,7 +1506,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
@@ -1318,6 +1519,15 @@
       </c>
       <c r="F19" t="n">
         <v>12.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.06640625</v>
       </c>
     </row>
     <row r="20">
@@ -1325,10 +1535,10 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>87.0</v>
+        <v>92.0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="D20">
         <f>$B$20+$C$20</f>
@@ -1338,6 +1548,15 @@
       </c>
       <c r="F20" t="n">
         <v>10.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.0703125</v>
       </c>
     </row>
     <row r="21">
@@ -1345,7 +1564,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>92.0</v>
+        <v>93.0</v>
       </c>
       <c r="C21" t="n">
         <v>1.0</v>
@@ -1358,6 +1577,15 @@
       </c>
       <c r="F21" t="n">
         <v>12.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.06640625</v>
       </c>
     </row>
     <row r="22">
@@ -1365,10 +1593,10 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>94.0</v>
+        <v>95.0</v>
       </c>
       <c r="C22" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D22">
         <f>$B$22+$C$22</f>
@@ -1378,6 +1606,15 @@
       </c>
       <c r="F22" t="n">
         <v>13.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0615234375</v>
       </c>
     </row>
     <row r="23">
@@ -1388,7 +1625,7 @@
         <v>96.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D23">
         <f>$B$23+$C$23</f>
@@ -1398,6 +1635,15 @@
       </c>
       <c r="F23" t="n">
         <v>12.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0703125</v>
       </c>
     </row>
     <row r="24">
@@ -1405,10 +1651,10 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>97.0</v>
+        <v>99.0</v>
       </c>
       <c r="C24" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="D24">
         <f>$B$24+$C$24</f>
@@ -1418,6 +1664,15 @@
       </c>
       <c r="F24" t="n">
         <v>11.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0654296875</v>
       </c>
     </row>
     <row r="25">
@@ -1425,7 +1680,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>101.0</v>
+        <v>100.0</v>
       </c>
       <c r="C25" t="n">
         <v>2.0</v>
@@ -1438,6 +1693,15 @@
       </c>
       <c r="F25" t="n">
         <v>12.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.06640625</v>
       </c>
     </row>
     <row r="26">
@@ -1445,7 +1709,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>103.0</v>
+        <v>102.0</v>
       </c>
       <c r="C26" t="n">
         <v>0.0</v>
@@ -1458,6 +1722,15 @@
       </c>
       <c r="F26" t="n">
         <v>7.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0654296875</v>
       </c>
     </row>
     <row r="27">
@@ -1465,7 +1738,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>104.0</v>
+        <v>103.0</v>
       </c>
       <c r="C27" t="n">
         <v>0.0</v>
@@ -1478,6 +1751,15 @@
       </c>
       <c r="F27" t="n">
         <v>8.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0615234375</v>
       </c>
     </row>
     <row r="28">
@@ -1499,13 +1781,22 @@
       <c r="F28" t="n">
         <v>12.0</v>
       </c>
+      <c r="G28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0654296875</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>105.0</v>
+        <v>106.0</v>
       </c>
       <c r="C29" t="n">
         <v>1.0</v>
@@ -1518,6 +1809,15 @@
       </c>
       <c r="F29" t="n">
         <v>12.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0703125</v>
       </c>
     </row>
     <row r="30">
@@ -1539,6 +1839,15 @@
       <c r="F30" t="n">
         <v>12.0</v>
       </c>
+      <c r="G30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.06640625</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1559,6 +1868,15 @@
       <c r="F31" t="n">
         <v>11.0</v>
       </c>
+      <c r="G31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0615234375</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -1578,6 +1896,12 @@
       </c>
       <c r="F32">
         <f>AVERAGE($F$2:$F$31)</f>
+      </c>
+      <c r="H32">
+        <f>AVERAGE($H$2:$H$31)</f>
+      </c>
+      <c r="I32">
+        <f>AVERAGE($I$2:$I$31)</f>
       </c>
     </row>
   </sheetData>
@@ -1591,10 +1915,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1604,13 +1928,16 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1629,13 +1956,22 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
       <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1658,13 +1994,22 @@
       <c r="F2" t="n">
         <v>12.0</v>
       </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
       <c r="H2" t="n">
-        <v>0.0</v>
+        <v>0.67</v>
       </c>
       <c r="I2" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J2" t="n">
+        <v>0.0654296875</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="M2" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -1676,7 +2021,7 @@
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D3">
         <f>$B$3+$C$3</f>
@@ -1687,14 +2032,23 @@
       <c r="F3" t="n">
         <v>12.0</v>
       </c>
+      <c r="G3" t="n">
+        <v>1.0</v>
+      </c>
       <c r="H3" t="n">
-        <v>1.0</v>
+        <v>0.72</v>
       </c>
       <c r="I3" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.0</v>
+        <v>0.0703125</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -1705,7 +2059,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D4">
         <f>$B$4+$C$4</f>
@@ -1716,14 +2070,23 @@
       <c r="F4" t="n">
         <v>12.0</v>
       </c>
+      <c r="G4" t="n">
+        <v>2.0</v>
+      </c>
       <c r="H4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K4" t="n">
         <v>2.0</v>
       </c>
-      <c r="I4" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.0</v>
+      <c r="L4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -1734,7 +2097,7 @@
         <v>2.0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D5">
         <f>$B$5+$C$5</f>
@@ -1745,14 +2108,23 @@
       <c r="F5" t="n">
         <v>12.0</v>
       </c>
+      <c r="G5" t="n">
+        <v>3.0</v>
+      </c>
       <c r="H5" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K5" t="n">
         <v>3.0</v>
       </c>
-      <c r="I5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.0</v>
+      <c r="L5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1774,14 +2146,23 @@
       <c r="F6" t="n">
         <v>12.0</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K6" t="s">
         <v>4</v>
       </c>
-      <c r="I6">
-        <f>AVERAGE($B$2:$B$31)</f>
-      </c>
-      <c r="J6">
-        <f>AVERAGE($C$2:$C$31)</f>
+      <c r="L6">
+        <f>AVERAGE($L$2:$L$5)</f>
+      </c>
+      <c r="M6">
+        <f>AVERAGE($M$2:$M$5)</f>
       </c>
     </row>
     <row r="7">
@@ -1789,7 +2170,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -1803,14 +2184,23 @@
       <c r="F7" t="n">
         <v>12.0</v>
       </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" t="s">
-        <v>10</v>
+      <c r="G7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -1818,7 +2208,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -1832,14 +2222,23 @@
       <c r="F8" t="n">
         <v>12.0</v>
       </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" t="s">
-        <v>10</v>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -1847,7 +2246,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C9" t="n">
         <v>0.0</v>
@@ -1861,14 +2260,23 @@
       <c r="F9" t="n">
         <v>12.0</v>
       </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" t="s">
-        <v>10</v>
+      <c r="G9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -1876,7 +2284,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -1890,14 +2298,23 @@
       <c r="F10" t="n">
         <v>12.0</v>
       </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" t="s">
-        <v>10</v>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -1905,7 +2322,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -1919,14 +2336,23 @@
       <c r="F11" t="n">
         <v>12.0</v>
       </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" t="s">
-        <v>10</v>
+      <c r="G11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -1934,10 +2360,10 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D12">
         <f>$B$12+$C$12</f>
@@ -1948,14 +2374,23 @@
       <c r="F12" t="n">
         <v>12.0</v>
       </c>
-      <c r="H12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" t="s">
-        <v>10</v>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0654296875</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1963,7 +2398,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -1977,14 +2412,23 @@
       <c r="F13" t="n">
         <v>12.0</v>
       </c>
-      <c r="H13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" t="s">
-        <v>10</v>
+      <c r="G13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -1992,7 +2436,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -2006,14 +2450,23 @@
       <c r="F14" t="n">
         <v>12.0</v>
       </c>
-      <c r="H14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" t="s">
-        <v>10</v>
+      <c r="G14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -2021,7 +2474,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="C15" t="n">
         <v>0.0</v>
@@ -2035,14 +2488,23 @@
       <c r="F15" t="n">
         <v>10.0</v>
       </c>
-      <c r="H15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" t="s">
-        <v>10</v>
+      <c r="G15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -2050,10 +2512,10 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="C16" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D16">
         <f>$B$16+$C$16</f>
@@ -2064,14 +2526,23 @@
       <c r="F16" t="n">
         <v>11.0</v>
       </c>
-      <c r="H16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" t="s">
-        <v>10</v>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -2079,7 +2550,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C17" t="n">
         <v>0.0</v>
@@ -2093,14 +2564,23 @@
       <c r="F17" t="n">
         <v>5.0</v>
       </c>
-      <c r="H17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" t="s">
-        <v>10</v>
+      <c r="G17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -2108,7 +2588,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
@@ -2122,14 +2602,23 @@
       <c r="F18" t="n">
         <v>12.0</v>
       </c>
-      <c r="H18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" t="s">
-        <v>10</v>
+      <c r="G18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -2137,10 +2626,10 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D19">
         <f>$B$19+$C$19</f>
@@ -2151,14 +2640,23 @@
       <c r="F19" t="n">
         <v>12.0</v>
       </c>
-      <c r="H19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" t="s">
-        <v>10</v>
+      <c r="G19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -2166,10 +2664,10 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D20">
         <f>$B$20+$C$20</f>
@@ -2180,14 +2678,23 @@
       <c r="F20" t="n">
         <v>10.0</v>
       </c>
-      <c r="H20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" t="s">
-        <v>10</v>
+      <c r="G20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -2209,14 +2716,23 @@
       <c r="F21" t="n">
         <v>12.0</v>
       </c>
-      <c r="H21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" t="s">
-        <v>10</v>
+      <c r="G21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -2224,10 +2740,10 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D22">
         <f>$B$22+$C$22</f>
@@ -2237,6 +2753,15 @@
       </c>
       <c r="F22" t="n">
         <v>13.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0615234375</v>
       </c>
     </row>
     <row r="23">
@@ -2244,10 +2769,10 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D23">
         <f>$B$23+$C$23</f>
@@ -2257,6 +2782,15 @@
       </c>
       <c r="F23" t="n">
         <v>12.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0703125</v>
       </c>
     </row>
     <row r="24">
@@ -2264,10 +2798,10 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D24">
         <f>$B$24+$C$24</f>
@@ -2277,6 +2811,15 @@
       </c>
       <c r="F24" t="n">
         <v>11.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0654296875</v>
       </c>
     </row>
     <row r="25">
@@ -2298,16 +2841,25 @@
       <c r="F25" t="n">
         <v>12.0</v>
       </c>
+      <c r="G25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.06640625</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D26">
         <f>$B$26+$C$26</f>
@@ -2317,6 +2869,15 @@
       </c>
       <c r="F26" t="n">
         <v>7.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0654296875</v>
       </c>
     </row>
     <row r="27">
@@ -2324,7 +2885,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C27" t="n">
         <v>0.0</v>
@@ -2337,6 +2898,15 @@
       </c>
       <c r="F27" t="n">
         <v>8.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0615234375</v>
       </c>
     </row>
     <row r="28">
@@ -2358,6 +2928,15 @@
       <c r="F28" t="n">
         <v>12.0</v>
       </c>
+      <c r="G28" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0654296875</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2378,6 +2957,15 @@
       <c r="F29" t="n">
         <v>12.0</v>
       </c>
+      <c r="G29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0703125</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2387,7 +2975,7 @@
         <v>9.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D30">
         <f>$B$30+$C$30</f>
@@ -2397,6 +2985,15 @@
       </c>
       <c r="F30" t="n">
         <v>12.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.06640625</v>
       </c>
     </row>
     <row r="31">
@@ -2418,6 +3015,15 @@
       <c r="F31" t="n">
         <v>11.0</v>
       </c>
+      <c r="G31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0615234375</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -2437,6 +3043,12 @@
       </c>
       <c r="F32">
         <f>AVERAGE($F$2:$F$31)</f>
+      </c>
+      <c r="H32">
+        <f>AVERAGE($H$2:$H$31)</f>
+      </c>
+      <c r="I32">
+        <f>AVERAGE($I$2:$I$31)</f>
       </c>
     </row>
   </sheetData>
@@ -2450,10 +3062,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2463,13 +3075,16 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2488,13 +3103,22 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
       <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2503,7 +3127,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>22.0</v>
+        <v>19.0</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
@@ -2517,13 +3141,22 @@
       <c r="F2" t="n">
         <v>12.0</v>
       </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
       <c r="H2" t="n">
-        <v>0.0</v>
+        <v>0.67</v>
       </c>
       <c r="I2" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="J2" t="n">
+        <v>0.0654296875</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="M2" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2532,10 +3165,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
         <f>$B$3+$C$3</f>
@@ -2546,14 +3179,23 @@
       <c r="F3" t="n">
         <v>12.0</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K3" t="s">
         <v>4</v>
       </c>
-      <c r="I3">
-        <f>AVERAGE($B$2:$B$31)</f>
-      </c>
-      <c r="J3">
-        <f>AVERAGE($C$2:$C$31)</f>
+      <c r="L3">
+        <f>AVERAGE($L$2:$L$2)</f>
+      </c>
+      <c r="M3">
+        <f>AVERAGE($M$2:$M$2)</f>
       </c>
     </row>
     <row r="4">
@@ -2564,7 +3206,7 @@
         <v>11.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4">
         <f>$B$4+$C$4</f>
@@ -2575,14 +3217,23 @@
       <c r="F4" t="n">
         <v>12.0</v>
       </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -2604,14 +3255,23 @@
       <c r="F5" t="n">
         <v>12.0</v>
       </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>10</v>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -2619,7 +3279,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>19.0</v>
+        <v>16.0</v>
       </c>
       <c r="C6" t="n">
         <v>0.0</v>
@@ -2633,14 +3293,23 @@
       <c r="F6" t="n">
         <v>12.0</v>
       </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" t="s">
-        <v>10</v>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -2648,10 +3317,10 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D7">
         <f>$B$7+$C$7</f>
@@ -2662,14 +3331,23 @@
       <c r="F7" t="n">
         <v>12.0</v>
       </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" t="s">
-        <v>10</v>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -2677,7 +3355,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C8" t="n">
         <v>0.0</v>
@@ -2691,14 +3369,23 @@
       <c r="F8" t="n">
         <v>12.0</v>
       </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" t="s">
-        <v>10</v>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -2709,7 +3396,7 @@
         <v>0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D9">
         <f>$B$9+$C$9</f>
@@ -2720,14 +3407,23 @@
       <c r="F9" t="n">
         <v>12.0</v>
       </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" t="s">
-        <v>10</v>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -2735,7 +3431,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>23.0</v>
+        <v>19.0</v>
       </c>
       <c r="C10" t="n">
         <v>0.0</v>
@@ -2749,14 +3445,23 @@
       <c r="F10" t="n">
         <v>12.0</v>
       </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" t="s">
-        <v>10</v>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -2764,7 +3469,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C11" t="n">
         <v>0.0</v>
@@ -2778,14 +3483,23 @@
       <c r="F11" t="n">
         <v>12.0</v>
       </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" t="s">
-        <v>10</v>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -2793,7 +3507,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
       <c r="C12" t="n">
         <v>0.0</v>
@@ -2807,14 +3521,23 @@
       <c r="F12" t="n">
         <v>12.0</v>
       </c>
-      <c r="H12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" t="s">
-        <v>10</v>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0654296875</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -2822,7 +3545,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C13" t="n">
         <v>0.0</v>
@@ -2836,14 +3559,23 @@
       <c r="F13" t="n">
         <v>12.0</v>
       </c>
-      <c r="H13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" t="s">
-        <v>10</v>
+      <c r="G13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -2851,7 +3583,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -2865,14 +3597,23 @@
       <c r="F14" t="n">
         <v>12.0</v>
       </c>
-      <c r="H14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" t="s">
-        <v>10</v>
+      <c r="G14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -2880,7 +3621,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
       <c r="C15" t="n">
         <v>0.0</v>
@@ -2894,14 +3635,23 @@
       <c r="F15" t="n">
         <v>10.0</v>
       </c>
-      <c r="H15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" t="s">
-        <v>10</v>
+      <c r="G15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -2909,10 +3659,10 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D16">
         <f>$B$16+$C$16</f>
@@ -2923,14 +3673,23 @@
       <c r="F16" t="n">
         <v>11.0</v>
       </c>
-      <c r="H16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" t="s">
-        <v>10</v>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -2938,7 +3697,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C17" t="n">
         <v>0.0</v>
@@ -2952,14 +3711,23 @@
       <c r="F17" t="n">
         <v>5.0</v>
       </c>
-      <c r="H17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" t="s">
-        <v>10</v>
+      <c r="G17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -2967,10 +3735,10 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D18">
         <f>$B$18+$C$18</f>
@@ -2981,14 +3749,23 @@
       <c r="F18" t="n">
         <v>12.0</v>
       </c>
-      <c r="H18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" t="s">
-        <v>10</v>
+      <c r="G18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -2996,7 +3773,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C19" t="n">
         <v>0.0</v>
@@ -3009,6 +3786,15 @@
       </c>
       <c r="F19" t="n">
         <v>12.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.06640625</v>
       </c>
     </row>
     <row r="20">
@@ -3016,7 +3802,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="C20" t="n">
         <v>0.0</v>
@@ -3029,6 +3815,15 @@
       </c>
       <c r="F20" t="n">
         <v>10.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.0703125</v>
       </c>
     </row>
     <row r="21">
@@ -3036,10 +3831,10 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D21">
         <f>$B$21+$C$21</f>
@@ -3049,6 +3844,15 @@
       </c>
       <c r="F21" t="n">
         <v>12.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.06640625</v>
       </c>
     </row>
     <row r="22">
@@ -3056,10 +3860,10 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D22">
         <f>$B$22+$C$22</f>
@@ -3069,6 +3873,15 @@
       </c>
       <c r="F22" t="n">
         <v>13.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0615234375</v>
       </c>
     </row>
     <row r="23">
@@ -3076,10 +3889,10 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C23" t="n">
         <v>3.0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0</v>
       </c>
       <c r="D23">
         <f>$B$23+$C$23</f>
@@ -3089,6 +3902,15 @@
       </c>
       <c r="F23" t="n">
         <v>12.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0703125</v>
       </c>
     </row>
     <row r="24">
@@ -3096,7 +3918,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="C24" t="n">
         <v>0.0</v>
@@ -3109,6 +3931,15 @@
       </c>
       <c r="F24" t="n">
         <v>11.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0654296875</v>
       </c>
     </row>
     <row r="25">
@@ -3116,10 +3947,10 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D25">
         <f>$B$25+$C$25</f>
@@ -3129,6 +3960,15 @@
       </c>
       <c r="F25" t="n">
         <v>12.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.06640625</v>
       </c>
     </row>
     <row r="26">
@@ -3136,7 +3976,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C26" t="n">
         <v>0.0</v>
@@ -3149,6 +3989,15 @@
       </c>
       <c r="F26" t="n">
         <v>7.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0654296875</v>
       </c>
     </row>
     <row r="27">
@@ -3156,7 +4005,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="C27" t="n">
         <v>0.0</v>
@@ -3169,6 +4018,15 @@
       </c>
       <c r="F27" t="n">
         <v>8.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0615234375</v>
       </c>
     </row>
     <row r="28">
@@ -3176,10 +4034,10 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D28">
         <f>$B$28+$C$28</f>
@@ -3189,6 +4047,15 @@
       </c>
       <c r="F28" t="n">
         <v>12.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0654296875</v>
       </c>
     </row>
     <row r="29">
@@ -3196,7 +4063,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
       <c r="C29" t="n">
         <v>0.0</v>
@@ -3209,6 +4076,15 @@
       </c>
       <c r="F29" t="n">
         <v>12.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0703125</v>
       </c>
     </row>
     <row r="30">
@@ -3216,10 +4092,10 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D30">
         <f>$B$30+$C$30</f>
@@ -3229,6 +4105,15 @@
       </c>
       <c r="F30" t="n">
         <v>12.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.06640625</v>
       </c>
     </row>
     <row r="31">
@@ -3236,7 +4121,7 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C31" t="n">
         <v>0.0</v>
@@ -3249,6 +4134,15 @@
       </c>
       <c r="F31" t="n">
         <v>11.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0615234375</v>
       </c>
     </row>
     <row r="32">
@@ -3269,6 +4163,12 @@
       </c>
       <c r="F32">
         <f>AVERAGE($F$2:$F$31)</f>
+      </c>
+      <c r="H32">
+        <f>AVERAGE($H$2:$H$31)</f>
+      </c>
+      <c r="I32">
+        <f>AVERAGE($I$2:$I$31)</f>
       </c>
     </row>
   </sheetData>
@@ -3282,10 +4182,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3295,13 +4195,16 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3320,13 +4223,22 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
       <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3335,10 +4247,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D2">
         <f>$B$2+$C$2</f>
@@ -3349,13 +4261,22 @@
       <c r="F2" t="n">
         <v>12.0</v>
       </c>
+      <c r="G2" t="n">
+        <v>3.0</v>
+      </c>
       <c r="H2" t="n">
-        <v>0.0</v>
+        <v>0.67</v>
       </c>
       <c r="I2" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="J2" t="n">
+        <v>0.0654296875</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M2" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -3364,10 +4285,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D3">
         <f>$B$3+$C$3</f>
@@ -3378,14 +4299,23 @@
       <c r="F3" t="n">
         <v>12.0</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
       <c r="H3" t="n">
-        <v>1.0</v>
+        <v>0.72</v>
       </c>
       <c r="I3" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.0</v>
+        <v>0.0703125</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -3393,10 +4323,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4">
         <f>$B$4+$C$4</f>
@@ -3407,13 +4337,22 @@
       <c r="F4" t="n">
         <v>12.0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
       <c r="H4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K4" t="n">
         <v>2.0</v>
       </c>
-      <c r="I4" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M4" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -3422,10 +4361,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="D5">
         <f>$B$5+$C$5</f>
@@ -3436,14 +4375,23 @@
       <c r="F5" t="n">
         <v>12.0</v>
       </c>
+      <c r="G5" t="n">
+        <v>3.0</v>
+      </c>
       <c r="H5" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K5" t="n">
         <v>3.0</v>
       </c>
-      <c r="I5" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.0</v>
+      <c r="L5" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -3451,7 +4399,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -3465,14 +4413,23 @@
       <c r="F6" t="n">
         <v>12.0</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K6" t="s">
         <v>4</v>
       </c>
-      <c r="I6">
-        <f>AVERAGE($B$2:$B$31)</f>
-      </c>
-      <c r="J6">
-        <f>AVERAGE($C$2:$C$31)</f>
+      <c r="L6">
+        <f>AVERAGE($L$2:$L$5)</f>
+      </c>
+      <c r="M6">
+        <f>AVERAGE($M$2:$M$5)</f>
       </c>
     </row>
     <row r="7">
@@ -3480,10 +4437,10 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="D7">
         <f>$B$7+$C$7</f>
@@ -3494,14 +4451,23 @@
       <c r="F7" t="n">
         <v>12.0</v>
       </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" t="s">
-        <v>10</v>
+      <c r="G7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -3509,10 +4475,10 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D8">
         <f>$B$8+$C$8</f>
@@ -3523,14 +4489,23 @@
       <c r="F8" t="n">
         <v>12.0</v>
       </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" t="s">
-        <v>10</v>
+      <c r="G8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -3538,10 +4513,10 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D9">
         <f>$B$9+$C$9</f>
@@ -3552,14 +4527,23 @@
       <c r="F9" t="n">
         <v>12.0</v>
       </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" t="s">
-        <v>10</v>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -3567,10 +4551,10 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D10">
         <f>$B$10+$C$10</f>
@@ -3581,14 +4565,23 @@
       <c r="F10" t="n">
         <v>12.0</v>
       </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" t="s">
-        <v>10</v>
+      <c r="G10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -3596,10 +4589,10 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D11">
         <f>$B$11+$C$11</f>
@@ -3610,14 +4603,23 @@
       <c r="F11" t="n">
         <v>12.0</v>
       </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" t="s">
-        <v>10</v>
+      <c r="G11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -3625,7 +4627,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -3639,14 +4641,23 @@
       <c r="F12" t="n">
         <v>12.0</v>
       </c>
-      <c r="H12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" t="s">
-        <v>10</v>
+      <c r="G12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0654296875</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -3654,10 +4665,10 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D13">
         <f>$B$13+$C$13</f>
@@ -3668,14 +4679,23 @@
       <c r="F13" t="n">
         <v>12.0</v>
       </c>
-      <c r="H13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" t="s">
-        <v>10</v>
+      <c r="G13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -3683,10 +4703,10 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D14">
         <f>$B$14+$C$14</f>
@@ -3697,14 +4717,23 @@
       <c r="F14" t="n">
         <v>12.0</v>
       </c>
-      <c r="H14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" t="s">
-        <v>10</v>
+      <c r="G14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -3712,10 +4741,10 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D15">
         <f>$B$15+$C$15</f>
@@ -3726,14 +4755,23 @@
       <c r="F15" t="n">
         <v>10.0</v>
       </c>
-      <c r="H15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" t="s">
-        <v>10</v>
+      <c r="G15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -3741,7 +4779,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="C16" t="n">
         <v>0.0</v>
@@ -3755,14 +4793,23 @@
       <c r="F16" t="n">
         <v>11.0</v>
       </c>
-      <c r="H16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" t="s">
-        <v>10</v>
+      <c r="G16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -3770,7 +4817,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C17" t="n">
         <v>0.0</v>
@@ -3784,14 +4831,23 @@
       <c r="F17" t="n">
         <v>5.0</v>
       </c>
-      <c r="H17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" t="s">
-        <v>10</v>
+      <c r="G17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -3799,7 +4855,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
@@ -3813,14 +4869,23 @@
       <c r="F18" t="n">
         <v>12.0</v>
       </c>
-      <c r="H18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" t="s">
-        <v>10</v>
+      <c r="G18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -3828,10 +4893,10 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D19">
         <f>$B$19+$C$19</f>
@@ -3842,14 +4907,23 @@
       <c r="F19" t="n">
         <v>12.0</v>
       </c>
-      <c r="H19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" t="s">
-        <v>10</v>
+      <c r="G19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -3857,10 +4931,10 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D20">
         <f>$B$20+$C$20</f>
@@ -3871,14 +4945,23 @@
       <c r="F20" t="n">
         <v>10.0</v>
       </c>
-      <c r="H20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" t="s">
-        <v>10</v>
+      <c r="G20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -3886,10 +4969,10 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D21">
         <f>$B$21+$C$21</f>
@@ -3900,14 +4983,23 @@
       <c r="F21" t="n">
         <v>12.0</v>
       </c>
-      <c r="H21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" t="s">
-        <v>10</v>
+      <c r="G21" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -3915,10 +5007,10 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D22">
         <f>$B$22+$C$22</f>
@@ -3928,6 +5020,15 @@
       </c>
       <c r="F22" t="n">
         <v>13.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0615234375</v>
       </c>
     </row>
     <row r="23">
@@ -3935,7 +5036,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C23" t="n">
         <v>1.0</v>
@@ -3948,6 +5049,15 @@
       </c>
       <c r="F23" t="n">
         <v>12.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0703125</v>
       </c>
     </row>
     <row r="24">
@@ -3955,10 +5065,10 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D24">
         <f>$B$24+$C$24</f>
@@ -3968,6 +5078,15 @@
       </c>
       <c r="F24" t="n">
         <v>11.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0654296875</v>
       </c>
     </row>
     <row r="25">
@@ -3975,10 +5094,10 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="C25" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="D25">
         <f>$B$25+$C$25</f>
@@ -3988,6 +5107,15 @@
       </c>
       <c r="F25" t="n">
         <v>12.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.06640625</v>
       </c>
     </row>
     <row r="26">
@@ -3995,7 +5123,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C26" t="n">
         <v>0.0</v>
@@ -4008,6 +5136,15 @@
       </c>
       <c r="F26" t="n">
         <v>7.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0654296875</v>
       </c>
     </row>
     <row r="27">
@@ -4015,10 +5152,10 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D27">
         <f>$B$27+$C$27</f>
@@ -4028,6 +5165,15 @@
       </c>
       <c r="F27" t="n">
         <v>8.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0615234375</v>
       </c>
     </row>
     <row r="28">
@@ -4035,10 +5181,10 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C28" t="n">
         <v>2.0</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1.0</v>
       </c>
       <c r="D28">
         <f>$B$28+$C$28</f>
@@ -4048,6 +5194,15 @@
       </c>
       <c r="F28" t="n">
         <v>12.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0654296875</v>
       </c>
     </row>
     <row r="29">
@@ -4055,7 +5210,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C29" t="n">
         <v>1.0</v>
@@ -4068,6 +5223,15 @@
       </c>
       <c r="F29" t="n">
         <v>12.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0703125</v>
       </c>
     </row>
     <row r="30">
@@ -4075,10 +5239,10 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D30">
         <f>$B$30+$C$30</f>
@@ -4088,6 +5252,15 @@
       </c>
       <c r="F30" t="n">
         <v>12.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.06640625</v>
       </c>
     </row>
     <row r="31">
@@ -4095,7 +5268,7 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C31" t="n">
         <v>0.0</v>
@@ -4108,6 +5281,15 @@
       </c>
       <c r="F31" t="n">
         <v>11.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0615234375</v>
       </c>
     </row>
     <row r="32">
@@ -4128,6 +5310,12 @@
       </c>
       <c r="F32">
         <f>AVERAGE($F$2:$F$31)</f>
+      </c>
+      <c r="H32">
+        <f>AVERAGE($H$2:$H$31)</f>
+      </c>
+      <c r="I32">
+        <f>AVERAGE($I$2:$I$31)</f>
       </c>
     </row>
   </sheetData>

--- a/Yeezus/output/data.xlsx
+++ b/Yeezus/output/data.xlsx
@@ -17,6 +17,8 @@
     <sheet name="FCFS-4" r:id="rId7" sheetId="3"/>
     <sheet name="Priority-1" r:id="rId8" sheetId="4"/>
     <sheet name="Priority-4" r:id="rId9" sheetId="5"/>
+    <sheet name="SJF-1" r:id="rId10" sheetId="6"/>
+    <sheet name="SJF-4" r:id="rId11" sheetId="7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37715" uniqueCount="368">
   <si>
     <t>Process ID:</t>
   </si>
@@ -70,6 +72,1887 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 544
+CPU: 1 received 744
+CPU: 2 received 771
+CPU: 3 received 323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 895
+CPU: 1 received 326
+CPU: 2 received 463
+CPU: 3 received 403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 628
+CPU: 1 received 597
+CPU: 2 received 356
+CPU: 3 received 197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 777
+CPU: 1 received 332
+CPU: 2 received 231
+CPU: 3 received 236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 487
+CPU: 1 received 397
+CPU: 2 received 217
+CPU: 3 received 220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1093
+CPU: 1 received 406
+CPU: 2 received 371
+CPU: 3 received 297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 435
+CPU: 1 received 334
+CPU: 2 received 222
+CPU: 3 received 255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 668
+CPU: 1 received 399
+CPU: 2 received 375
+CPU: 3 received 384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 515
+CPU: 1 received 334
+CPU: 2 received 243
+CPU: 3 received 189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 640
+CPU: 1 received 408
+CPU: 2 received 269
+CPU: 3 received 335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 694
+CPU: 1 received 336
+CPU: 2 received 291
+CPU: 3 received 252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 489
+CPU: 1 received 254
+CPU: 2 received 241
+CPU: 3 received 259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 688
+CPU: 1 received 414
+CPU: 2 received 305
+CPU: 3 received 409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 641
+CPU: 1 received 383
+CPU: 2 received 225
+CPU: 3 received 218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 491
+CPU: 1 received 327
+CPU: 2 received 207
+CPU: 3 received 231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 607
+CPU: 1 received 471
+CPU: 2 received 328
+CPU: 3 received 341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 746
+CPU: 1 received 358
+CPU: 2 received 220
+CPU: 3 received 164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 461
+CPU: 1 received 300
+CPU: 2 received 266
+CPU: 3 received 261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 430
+CPU: 1 received 299
+CPU: 2 received 277
+CPU: 3 received 294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 419
+CPU: 1 received 270
+CPU: 2 received 227
+CPU: 3 received 221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 554
+CPU: 1 received 353
+CPU: 2 received 228
+CPU: 3 received 236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 579
+CPU: 1 received 268
+CPU: 2 received 210
+CPU: 3 received 209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 420
+CPU: 1 received 337
+CPU: 2 received 287
+CPU: 3 received 303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 347
+CPU: 1 received 264
+CPU: 2 received 226
+CPU: 3 received 211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 456
+CPU: 1 received 294
+CPU: 2 received 238
+CPU: 3 received 209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 491
+CPU: 1 received 369
+CPU: 2 received 187
+CPU: 3 received 189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 563
+CPU: 1 received 407
+CPU: 2 received 352
+CPU: 3 received 323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 703
+CPU: 1 received 409
+CPU: 2 received 299
+CPU: 3 received 274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 749
+CPU: 1 received 450
+CPU: 2 received 338
+CPU: 3 received 468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 593
+CPU: 1 received 312
+CPU: 2 received 267
+CPU: 3 received 233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 917
+CPU: 1 received 320
+CPU: 2 received 310
+CPU: 3 received 302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 666
+CPU: 1 received 463
+CPU: 2 received 456
+CPU: 3 received 250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 643
+CPU: 1 received 362
+CPU: 2 received 268
+CPU: 3 received 222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 488
+CPU: 1 received 412
+CPU: 2 received 246
+CPU: 3 received 192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 695
+CPU: 1 received 444
+CPU: 2 received 363
+CPU: 3 received 342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 798
+CPU: 1 received 399
+CPU: 2 received 373
+CPU: 3 received 284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 936
+CPU: 1 received 507
+CPU: 2 received 378
+CPU: 3 received 267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 602
+CPU: 1 received 273
+CPU: 2 received 292
+CPU: 3 received 210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 390
+CPU: 1 received 542
+CPU: 2 received 512
+CPU: 3 received 159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 807
+CPU: 1 received 409
+CPU: 2 received 356
+CPU: 3 received 323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 346
+CPU: 1 received 294
+CPU: 2 received 239
+CPU: 3 received 170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 664
+CPU: 1 received 362
+CPU: 2 received 262
+CPU: 3 received 328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 486
+CPU: 1 received 348
+CPU: 2 received 308
+CPU: 3 received 259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 625
+CPU: 1 received 354
+CPU: 2 received 296
+CPU: 3 received 239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 620
+CPU: 1 received 376
+CPU: 2 received 275
+CPU: 3 received 230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 424
+CPU: 1 received 318
+CPU: 2 received 240
+CPU: 3 received 211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 459
+CPU: 1 received 436
+CPU: 2 received 324
+CPU: 3 received 312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 512
+CPU: 1 received 281
+CPU: 2 received 252
+CPU: 3 received 231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 500
+CPU: 1 received 397
+CPU: 2 received 342
+CPU: 3 received 205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 591
+CPU: 1 received 322
+CPU: 2 received 285
+CPU: 3 received 338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 577
+CPU: 1 received 341
+CPU: 2 received 329
+CPU: 3 received 276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 495
+CPU: 1 received 289
+CPU: 2 received 251
+CPU: 3 received 213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 574
+CPU: 1 received 549
+CPU: 2 received 298
+CPU: 3 received 188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 608
+CPU: 1 received 429
+CPU: 2 received 352
+CPU: 3 received 311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 758
+CPU: 1 received 376
+CPU: 2 received 299
+CPU: 3 received 354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1079
+CPU: 1 received 495
+CPU: 2 received 483
+CPU: 3 received 336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 684
+CPU: 1 received 419
+CPU: 2 received 313
+CPU: 3 received 306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 589
+CPU: 1 received 432
+CPU: 2 received 277
+CPU: 3 received 259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1264
+CPU: 1 received 920
+CPU: 2 received 606
+CPU: 3 received 245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 613
+CPU: 1 received 304
+CPU: 2 received 297
+CPU: 3 received 215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 798
+CPU: 1 received 394
+CPU: 2 received 167
+CPU: 3 received 339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 549
+CPU: 1 received 258
+CPU: 2 received 247
+CPU: 3 received 318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 437
+CPU: 1 received 447
+CPU: 2 received 394
+CPU: 3 received 178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1001
+CPU: 1 received 426
+CPU: 2 received 382
+CPU: 3 received 438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 426
+CPU: 1 received 268
+CPU: 2 received 205
+CPU: 3 received 198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 607
+CPU: 1 received 283
+CPU: 2 received 305
+CPU: 3 received 289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 613
+CPU: 1 received 431
+CPU: 2 received 297
+CPU: 3 received 263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 584
+CPU: 1 received 388
+CPU: 2 received 263
+CPU: 3 received 288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 592
+CPU: 1 received 290
+CPU: 2 received 253
+CPU: 3 received 259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 612
+CPU: 1 received 480
+CPU: 2 received 415
+CPU: 3 received 190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 615
+CPU: 1 received 446
+CPU: 2 received 473
+CPU: 3 received 305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 536
+CPU: 1 received 365
+CPU: 2 received 313
+CPU: 3 received 260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 616
+CPU: 1 received 517
+CPU: 2 received 383
+CPU: 3 received 318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 542
+CPU: 1 received 341
+CPU: 2 received 360
+CPU: 3 received 355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 450
+CPU: 1 received 291
+CPU: 2 received 227
+CPU: 3 received 240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 466
+CPU: 1 received 471
+CPU: 2 received 284
+CPU: 3 received 275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 369
+CPU: 1 received 256
+CPU: 2 received 892
+CPU: 3 received 682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 448
+CPU: 1 received 274
+CPU: 2 received 224
+CPU: 3 received 221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 775
+CPU: 1 received 402
+CPU: 2 received 262
+CPU: 3 received 209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 495
+CPU: 1 received 367
+CPU: 2 received 243
+CPU: 3 received 247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 518
+CPU: 1 received 357
+CPU: 2 received 341
+CPU: 3 received 303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 270
+CPU: 1 received 255
+CPU: 2 received 208
+CPU: 3 received 153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 509
+CPU: 1 received 308
+CPU: 2 received 210
+CPU: 3 received 220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 610
+CPU: 1 received 378
+CPU: 2 received 257
+CPU: 3 received 243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 499
+CPU: 1 received 285
+CPU: 2 received 230
+CPU: 3 received 199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 619
+CPU: 1 received 371
+CPU: 2 received 214
+CPU: 3 received 257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 2057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 517
+CPU: 1 received 313
+CPU: 2 received 247
+CPU: 3 received 255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 667
+CPU: 1 received 348
+CPU: 2 received 389
+CPU: 3 received 334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 537
+CPU: 1 received 318
+CPU: 2 received 317
+CPU: 3 received 244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 776
+CPU: 1 received 290
+CPU: 2 received 346
+CPU: 3 received 309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 793
+CPU: 1 received 379
+CPU: 2 received 352
+CPU: 3 received 377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 558
+CPU: 1 received 338
+CPU: 2 received 301
+CPU: 3 received 311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 344
+CPU: 1 received 221
+CPU: 2 received 190
+CPU: 3 received 173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 184
+CPU: 1 received 723
+CPU: 2 received 576
+CPU: 3 received 157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 594
+CPU: 1 received 454
+CPU: 2 received 292
+CPU: 3 received 353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 564
+CPU: 1 received 427
+CPU: 2 received 308
+CPU: 3 received 231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 677
+CPU: 1 received 476
+CPU: 2 received 321
+CPU: 3 received 185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 605
+CPU: 1 received 429
+CPU: 2 received 316
+CPU: 3 received 286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 384
+CPU: 1 received 343
+CPU: 2 received 286
+CPU: 3 received 207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 497
+CPU: 1 received 538
+CPU: 2 received 431
+CPU: 3 received 221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 462
+CPU: 1 received 476
+CPU: 2 received 420
+CPU: 3 received 186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 650
+CPU: 1 received 433
+CPU: 2 received 410
+CPU: 3 received 371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 2051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 519
+CPU: 1 received 262
+CPU: 2 received 217
+CPU: 3 received 273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 461
+CPU: 1 received 320
+CPU: 2 received 231
+CPU: 3 received 203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 378
+CPU: 1 received 297
+CPU: 2 received 252
+CPU: 3 received 172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 515
+CPU: 1 received 288
+CPU: 2 received 337
+CPU: 3 received 404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 634
+CPU: 1 received 334
+CPU: 2 received 251
+CPU: 3 received 208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 896
+CPU: 1 received 465
+CPU: 2 received 336
+CPU: 3 received 235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 569
+CPU: 1 received 425
+CPU: 2 received 368
+CPU: 3 received 337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 659
+CPU: 1 received 451
+CPU: 2 received 300
+CPU: 3 received 274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1220
+CPU: 1 received 390
+CPU: 2 received 326
+CPU: 3 received 268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 599
+CPU: 1 received 158
+CPU: 2 received 789
+CPU: 3 received 711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 501
+CPU: 1 received 326
+CPU: 2 received 302
+CPU: 3 received 316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 2113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 777
+CPU: 1 received 424
+CPU: 2 received 332
+CPU: 3 received 287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 363
+CPU: 1 received 251
+CPU: 2 received 246
+CPU: 3 received 237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 521
+CPU: 1 received 294
+CPU: 2 received 319
+CPU: 3 received 411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 626
+CPU: 1 received 413
+CPU: 2 received 268
+CPU: 3 received 269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 613
+CPU: 1 received 400
+CPU: 2 received 330
+CPU: 3 received 276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 566
+CPU: 1 received 476
+CPU: 2 received 204
+CPU: 3 received 242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 895
+CPU: 1 received 423
+CPU: 2 received 169
+CPU: 3 received 131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 538
+CPU: 1 received 377
+CPU: 2 received 319
+CPU: 3 received 330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 630
+CPU: 1 received 376
+CPU: 2 received 312
+CPU: 3 received 286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 315
+CPU: 1 received 181
+CPU: 2 received 478
+CPU: 3 received 312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1162
+CPU: 1 received 356
+CPU: 2 received 266
+CPU: 3 received 174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 485
+CPU: 1 received 272
+CPU: 2 received 435
+CPU: 3 received 350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 2893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 432
+CPU: 1 received 299
+CPU: 2 received 255
+CPU: 3 received 255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 2106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 502
+CPU: 1 received 410
+CPU: 2 received 318
+CPU: 3 received 316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 601
+CPU: 1 received 342
+CPU: 2 received 268
+CPU: 3 received 256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 531
+CPU: 1 received 308
+CPU: 2 received 233
+CPU: 3 received 266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 2092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 275
+CPU: 1 received 1035
+CPU: 2 received 929
+CPU: 3 received 91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 580
+CPU: 1 received 410
+CPU: 2 received 321
+CPU: 3 received 308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 457
+CPU: 1 received 263
+CPU: 2 received 226
+CPU: 3 received 212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 409
+CPU: 1 received 294
+CPU: 2 received 251
+CPU: 3 received 208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1182
+CPU: 1 received 503
+CPU: 2 received 288
+CPU: 3 received 488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 2771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 554
+CPU: 1 received 323
+CPU: 2 received 286
+CPU: 3 received 323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 768
+CPU: 1 received 416
+CPU: 2 received 258
+CPU: 3 received 325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 459
+CPU: 1 received 393
+CPU: 2 received 327
+CPU: 3 received 188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 614
+CPU: 1 received 269
+CPU: 2 received 248
+CPU: 3 received 272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 647
+CPU: 1 received 421
+CPU: 2 received 289
+CPU: 3 received 269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 2334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 861
+CPU: 1 received 437
+CPU: 2 received 271
+CPU: 3 received 312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 699
+CPU: 1 received 440
+CPU: 2 received 320
+CPU: 3 received 316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 480
+CPU: 1 received 331
+CPU: 2 received 272
+CPU: 3 received 388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 601
+CPU: 1 received 303
+CPU: 2 received 304
+CPU: 3 received 335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 688
+CPU: 1 received 482
+CPU: 2 received 420
+CPU: 3 received 371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 532
+CPU: 1 received 348
+CPU: 2 received 214
+CPU: 3 received 299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 783
+CPU: 1 received 554
+CPU: 2 received 529
+CPU: 3 received 235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 594
+CPU: 1 received 403
+CPU: 2 received 356
+CPU: 3 received 312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 566
+CPU: 1 received 358
+CPU: 2 received 298
+CPU: 3 received 255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 513
+CPU: 1 received 270
+CPU: 2 received 246
+CPU: 3 received 235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 643
+CPU: 1 received 510
+CPU: 2 received 330
+CPU: 3 received 273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 680
+CPU: 1 received 449
+CPU: 2 received 349
+CPU: 3 received 319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 540
+CPU: 1 received 306
+CPU: 2 received 251
+CPU: 3 received 228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 568
+CPU: 1 received 293
+CPU: 2 received 396
+CPU: 3 received 220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 635
+CPU: 1 received 405
+CPU: 2 received 294
+CPU: 3 received 231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 432
+CPU: 1 received 322
+CPU: 2 received 204
+CPU: 3 received 241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1513</t>
   </si>
 </sst>
 </file>
@@ -187,8 +2070,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="CPU_Table" id="2" insertRow="1" name="CPU_Table" ref="K1:M6" totalsRowCount="1">
-  <autoFilter ref="K1:M6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="CPU_Table" id="2" insertRow="1" name="CPU_Table" ref="K1:M3" totalsRowCount="1">
+  <autoFilter ref="K1:M3"/>
   <tableColumns count="3">
     <tableColumn id="1" name="CPU ID:" totalsRowLabel="Average"/>
     <tableColumn id="2" name="Busy Time (ms):" totalsRowFunction="custom">
@@ -795,7 +2678,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
@@ -860,10 +2743,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>48.0</v>
+        <v>18.0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="D2">
         <f>$B$2+$C$2</f>
@@ -878,7 +2761,7 @@
         <v>0.0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.67</v>
+        <v>3.35</v>
       </c>
       <c r="I2" t="n">
         <v>0.0654296875</v>
@@ -887,10 +2770,13 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.0</v>
+        <v>80.0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.0</v>
+        <v>42.0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3">
@@ -898,10 +2784,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>57.0</v>
+        <v>32.0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="D3">
         <f>$B$3+$C$3</f>
@@ -916,7 +2802,7 @@
         <v>0.0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
         <v>0.0703125</v>
@@ -936,10 +2822,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>60.0</v>
+        <v>43.0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D4">
         <f>$B$4+$C$4</f>
@@ -954,7 +2840,7 @@
         <v>0.0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
         <v>0.06640625</v>
@@ -974,25 +2860,25 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>64.0</v>
+        <v>48.0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D5">
         <f>$B$5+$C$5</f>
       </c>
       <c r="E5" t="n">
-        <v>91.0</v>
+        <v>102.0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.0</v>
+        <v>23.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I5" t="n">
         <v>0.0615234375</v>
@@ -1012,25 +2898,25 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>66.0</v>
+        <v>51.0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D6">
         <f>$B$6+$C$6</f>
       </c>
       <c r="E6" t="n">
-        <v>151.0</v>
+        <v>167.0</v>
       </c>
       <c r="F6" t="n">
-        <v>12.0</v>
+        <v>28.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
         <v>0.0703125</v>
@@ -1050,7 +2936,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>68.0</v>
+        <v>57.0</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -1059,16 +2945,16 @@
         <f>$B$7+$C$7</f>
       </c>
       <c r="E7" t="n">
-        <v>141.0</v>
+        <v>143.0</v>
       </c>
       <c r="F7" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
         <v>0.06640625</v>
@@ -1088,25 +2974,25 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D8">
         <f>$B$8+$C$8</f>
       </c>
       <c r="E8" t="n">
-        <v>91.0</v>
+        <v>137.0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.0</v>
+        <v>58.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I8" t="n">
         <v>0.0615234375</v>
@@ -1126,25 +3012,25 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>72.0</v>
+        <v>64.0</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D9">
         <f>$B$9+$C$9</f>
       </c>
       <c r="E9" t="n">
-        <v>91.0</v>
+        <v>154.0</v>
       </c>
       <c r="F9" t="n">
-        <v>12.0</v>
+        <v>75.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I9" t="n">
         <v>0.0615234375</v>
@@ -1164,7 +3050,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>74.0</v>
+        <v>67.0</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -1173,16 +3059,16 @@
         <f>$B$10+$C$10</f>
       </c>
       <c r="E10" t="n">
-        <v>141.0</v>
+        <v>145.0</v>
       </c>
       <c r="F10" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
         <v>0.06640625</v>
@@ -1202,25 +3088,25 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>76.0</v>
+        <v>70.0</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="D11">
         <f>$B$11+$C$11</f>
       </c>
       <c r="E11" t="n">
-        <v>151.0</v>
+        <v>174.0</v>
       </c>
       <c r="F11" t="n">
-        <v>12.0</v>
+        <v>35.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
         <v>0.0703125</v>
@@ -1240,25 +3126,25 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>79.0</v>
+        <v>81.0</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D12">
         <f>$B$12+$C$12</f>
       </c>
       <c r="E12" t="n">
-        <v>140.0</v>
+        <v>142.0</v>
       </c>
       <c r="F12" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.67</v>
+        <v>3.35</v>
       </c>
       <c r="I12" t="n">
         <v>0.0654296875</v>
@@ -1278,7 +3164,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>82.0</v>
+        <v>88.0</v>
       </c>
       <c r="C13" t="n">
         <v>2.0</v>
@@ -1287,16 +3173,16 @@
         <f>$B$13+$C$13</f>
       </c>
       <c r="E13" t="n">
-        <v>152.0</v>
+        <v>157.0</v>
       </c>
       <c r="F13" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
         <v>0.0703125</v>
@@ -1316,10 +3202,10 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>84.0</v>
+        <v>90.0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D14">
         <f>$B$14+$C$14</f>
@@ -1334,7 +3220,7 @@
         <v>0.0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
         <v>0.06640625</v>
@@ -1354,25 +3240,25 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>85.0</v>
+        <v>93.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D15">
         <f>$B$15+$C$15</f>
       </c>
       <c r="E15" t="n">
-        <v>75.0</v>
+        <v>111.0</v>
       </c>
       <c r="F15" t="n">
-        <v>10.0</v>
+        <v>46.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I15" t="n">
         <v>0.0615234375</v>
@@ -1392,7 +3278,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>86.0</v>
+        <v>95.0</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -1410,7 +3296,7 @@
         <v>0.0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
         <v>0.06640625</v>
@@ -1430,25 +3316,25 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>87.0</v>
+        <v>97.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D17">
         <f>$B$17+$C$17</f>
       </c>
       <c r="E17" t="n">
-        <v>35.0</v>
+        <v>41.0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I17" t="n">
         <v>0.0615234375</v>
@@ -1468,10 +3354,10 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>88.0</v>
+        <v>99.0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D18">
         <f>$B$18+$C$18</f>
@@ -1486,7 +3372,7 @@
         <v>0.0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
         <v>0.0703125</v>
@@ -1506,10 +3392,10 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>90.0</v>
+        <v>101.0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D19">
         <f>$B$19+$C$19</f>
@@ -1524,7 +3410,7 @@
         <v>0.0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
         <v>0.06640625</v>
@@ -1535,7 +3421,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>92.0</v>
+        <v>106.0</v>
       </c>
       <c r="C20" t="n">
         <v>1.0</v>
@@ -1553,7 +3439,7 @@
         <v>0.0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
         <v>0.0703125</v>
@@ -1564,10 +3450,10 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>93.0</v>
+        <v>108.0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="D21">
         <f>$B$21+$C$21</f>
@@ -1582,7 +3468,7 @@
         <v>0.0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
         <v>0.06640625</v>
@@ -1593,25 +3479,25 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>95.0</v>
+        <v>114.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D22">
         <f>$B$22+$C$22</f>
       </c>
       <c r="E22" t="n">
-        <v>99.0</v>
+        <v>111.0</v>
       </c>
       <c r="F22" t="n">
-        <v>13.0</v>
+        <v>25.0</v>
       </c>
       <c r="G22" t="n">
         <v>0.0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I22" t="n">
         <v>0.0615234375</v>
@@ -1622,25 +3508,25 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>96.0</v>
+        <v>116.0</v>
       </c>
       <c r="C23" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D23">
         <f>$B$23+$C$23</f>
       </c>
       <c r="E23" t="n">
-        <v>151.0</v>
+        <v>152.0</v>
       </c>
       <c r="F23" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
         <v>0.0703125</v>
@@ -1651,7 +3537,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>99.0</v>
+        <v>118.0</v>
       </c>
       <c r="C24" t="n">
         <v>1.0</v>
@@ -1669,7 +3555,7 @@
         <v>0.0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.67</v>
+        <v>3.35</v>
       </c>
       <c r="I24" t="n">
         <v>0.0654296875</v>
@@ -1680,10 +3566,10 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>100.0</v>
+        <v>120.0</v>
       </c>
       <c r="C25" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D25">
         <f>$B$25+$C$25</f>
@@ -1698,7 +3584,7 @@
         <v>0.0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
         <v>0.06640625</v>
@@ -1709,7 +3595,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>102.0</v>
+        <v>123.0</v>
       </c>
       <c r="C26" t="n">
         <v>0.0</v>
@@ -1727,7 +3613,7 @@
         <v>0.0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.67</v>
+        <v>3.35</v>
       </c>
       <c r="I26" t="n">
         <v>0.0654296875</v>
@@ -1738,25 +3624,25 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>103.0</v>
+        <v>124.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D27">
         <f>$B$27+$C$27</f>
       </c>
       <c r="E27" t="n">
-        <v>59.0</v>
+        <v>76.0</v>
       </c>
       <c r="F27" t="n">
-        <v>8.0</v>
+        <v>25.0</v>
       </c>
       <c r="G27" t="n">
         <v>0.0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I27" t="n">
         <v>0.0615234375</v>
@@ -1767,7 +3653,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>104.0</v>
+        <v>126.0</v>
       </c>
       <c r="C28" t="n">
         <v>1.0</v>
@@ -1785,7 +3671,7 @@
         <v>0.0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.67</v>
+        <v>3.35</v>
       </c>
       <c r="I28" t="n">
         <v>0.0654296875</v>
@@ -1796,7 +3682,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>106.0</v>
+        <v>128.0</v>
       </c>
       <c r="C29" t="n">
         <v>1.0</v>
@@ -1814,7 +3700,7 @@
         <v>0.0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I29" t="n">
         <v>0.0703125</v>
@@ -1825,7 +3711,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>107.0</v>
+        <v>129.0</v>
       </c>
       <c r="C30" t="n">
         <v>1.0</v>
@@ -1834,16 +3720,16 @@
         <f>$B$30+$C$30</f>
       </c>
       <c r="E30" t="n">
-        <v>141.0</v>
+        <v>142.0</v>
       </c>
       <c r="F30" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="G30" t="n">
         <v>0.0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
         <v>0.06640625</v>
@@ -1854,25 +3740,25 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>108.0</v>
+        <v>131.0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D31">
         <f>$B$31+$C$31</f>
       </c>
       <c r="E31" t="n">
-        <v>83.0</v>
+        <v>129.0</v>
       </c>
       <c r="F31" t="n">
-        <v>11.0</v>
+        <v>57.0</v>
       </c>
       <c r="G31" t="n">
         <v>0.0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I31" t="n">
         <v>0.0615234375</v>
@@ -1915,7 +3801,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
@@ -1980,25 +3866,25 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C2" t="n">
         <v>2.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.0</v>
       </c>
       <c r="D2">
         <f>$B$2+$C$2</f>
       </c>
       <c r="E2" t="n">
-        <v>140.0</v>
+        <v>277.0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.0</v>
+        <v>28.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.67</v>
+        <v>3.35</v>
       </c>
       <c r="I2" t="n">
         <v>0.0654296875</v>
@@ -2007,10 +3893,13 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.0</v>
+        <v>23.0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.0</v>
+        <v>21.0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="3">
@@ -2018,25 +3907,25 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D3">
         <f>$B$3+$C$3</f>
       </c>
       <c r="E3" t="n">
-        <v>151.0</v>
+        <v>163.0</v>
       </c>
       <c r="F3" t="n">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
         <v>0.0703125</v>
@@ -2045,10 +3934,13 @@
         <v>1.0</v>
       </c>
       <c r="L3" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="4">
@@ -2056,25 +3948,25 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4">
         <f>$B$4+$C$4</f>
       </c>
       <c r="E4" t="n">
-        <v>141.0</v>
+        <v>156.0</v>
       </c>
       <c r="F4" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
         <v>0.06640625</v>
@@ -2083,10 +3975,13 @@
         <v>2.0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.0</v>
+        <v>31.0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="5">
@@ -2094,7 +3989,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -2103,16 +3998,16 @@
         <f>$B$5+$C$5</f>
       </c>
       <c r="E5" t="n">
-        <v>91.0</v>
+        <v>163.0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.0</v>
+        <v>70.0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I5" t="n">
         <v>0.0615234375</v>
@@ -2121,10 +4016,13 @@
         <v>3.0</v>
       </c>
       <c r="L5" t="n">
-        <v>7.0</v>
+        <v>16.0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.0</v>
+        <v>27.0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="6">
@@ -2132,25 +4030,25 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C6" t="n">
         <v>3.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.0</v>
       </c>
       <c r="D6">
         <f>$B$6+$C$6</f>
       </c>
       <c r="E6" t="n">
-        <v>151.0</v>
+        <v>213.0</v>
       </c>
       <c r="F6" t="n">
-        <v>12.0</v>
+        <v>44.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
         <v>0.0703125</v>
@@ -2170,25 +4068,25 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D7">
         <f>$B$7+$C$7</f>
       </c>
       <c r="E7" t="n">
-        <v>141.0</v>
+        <v>372.0</v>
       </c>
       <c r="F7" t="n">
-        <v>12.0</v>
+        <v>111.0</v>
       </c>
       <c r="G7" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
         <v>0.06640625</v>
@@ -2208,25 +4106,25 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D8">
         <f>$B$8+$C$8</f>
       </c>
       <c r="E8" t="n">
-        <v>91.0</v>
+        <v>117.0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.0</v>
+        <v>48.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I8" t="n">
         <v>0.0615234375</v>
@@ -2246,25 +4144,25 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D9">
         <f>$B$9+$C$9</f>
       </c>
       <c r="E9" t="n">
-        <v>91.0</v>
+        <v>180.0</v>
       </c>
       <c r="F9" t="n">
-        <v>12.0</v>
+        <v>74.0</v>
       </c>
       <c r="G9" t="n">
         <v>3.0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I9" t="n">
         <v>0.0615234375</v>
@@ -2284,25 +4182,25 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D10">
         <f>$B$10+$C$10</f>
       </c>
       <c r="E10" t="n">
-        <v>141.0</v>
+        <v>236.0</v>
       </c>
       <c r="F10" t="n">
-        <v>12.0</v>
+        <v>21.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
         <v>0.06640625</v>
@@ -2322,25 +4220,25 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D11">
         <f>$B$11+$C$11</f>
       </c>
       <c r="E11" t="n">
-        <v>151.0</v>
+        <v>311.0</v>
       </c>
       <c r="F11" t="n">
-        <v>12.0</v>
+        <v>22.0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
         <v>0.0703125</v>
@@ -2360,25 +4258,25 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>6.0</v>
+        <v>18.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D12">
         <f>$B$12+$C$12</f>
       </c>
       <c r="E12" t="n">
-        <v>140.0</v>
+        <v>146.0</v>
       </c>
       <c r="F12" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.67</v>
+        <v>3.35</v>
       </c>
       <c r="I12" t="n">
         <v>0.0654296875</v>
@@ -2398,25 +4296,25 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>6.0</v>
+        <v>19.0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D13">
         <f>$B$13+$C$13</f>
       </c>
       <c r="E13" t="n">
-        <v>152.0</v>
+        <v>59.0</v>
       </c>
       <c r="F13" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="G13" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
         <v>0.0703125</v>
@@ -2436,7 +4334,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>6.0</v>
+        <v>20.0</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -2445,16 +4343,16 @@
         <f>$B$14+$C$14</f>
       </c>
       <c r="E14" t="n">
-        <v>141.0</v>
+        <v>134.0</v>
       </c>
       <c r="F14" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
         <v>0.06640625</v>
@@ -2474,25 +4372,25 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>7.0</v>
+        <v>20.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D15">
         <f>$B$15+$C$15</f>
       </c>
       <c r="E15" t="n">
-        <v>75.0</v>
+        <v>131.0</v>
       </c>
       <c r="F15" t="n">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I15" t="n">
         <v>0.0615234375</v>
@@ -2512,25 +4410,25 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>7.0</v>
+        <v>22.0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D16">
         <f>$B$16+$C$16</f>
       </c>
       <c r="E16" t="n">
-        <v>128.0</v>
+        <v>144.0</v>
       </c>
       <c r="F16" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
         <v>0.06640625</v>
@@ -2550,25 +4448,25 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>7.0</v>
+        <v>23.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D17">
         <f>$B$17+$C$17</f>
       </c>
       <c r="E17" t="n">
-        <v>35.0</v>
+        <v>56.0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.0</v>
+        <v>19.0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I17" t="n">
         <v>0.0615234375</v>
@@ -2588,25 +4486,25 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>7.0</v>
+        <v>23.0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D18">
         <f>$B$18+$C$18</f>
       </c>
       <c r="E18" t="n">
-        <v>154.0</v>
+        <v>188.0</v>
       </c>
       <c r="F18" t="n">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="G18" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
         <v>0.0703125</v>
@@ -2626,25 +4524,25 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>7.0</v>
+        <v>24.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D19">
         <f>$B$19+$C$19</f>
       </c>
       <c r="E19" t="n">
-        <v>141.0</v>
+        <v>150.0</v>
       </c>
       <c r="F19" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
         <v>0.06640625</v>
@@ -2664,25 +4562,25 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>7.0</v>
+        <v>24.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D20">
         <f>$B$20+$C$20</f>
       </c>
       <c r="E20" t="n">
-        <v>121.0</v>
+        <v>188.0</v>
       </c>
       <c r="F20" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
         <v>0.0703125</v>
@@ -2702,7 +4600,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>7.0</v>
+        <v>25.0</v>
       </c>
       <c r="C21" t="n">
         <v>1.0</v>
@@ -2711,16 +4609,16 @@
         <f>$B$21+$C$21</f>
       </c>
       <c r="E21" t="n">
-        <v>141.0</v>
+        <v>153.0</v>
       </c>
       <c r="F21" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
         <v>0.06640625</v>
@@ -2740,25 +4638,25 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>8.0</v>
+        <v>27.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D22">
         <f>$B$22+$C$22</f>
       </c>
       <c r="E22" t="n">
-        <v>99.0</v>
+        <v>314.0</v>
       </c>
       <c r="F22" t="n">
-        <v>13.0</v>
+        <v>112.0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I22" t="n">
         <v>0.0615234375</v>
@@ -2769,25 +4667,25 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="C23" t="n">
         <v>8.0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0</v>
       </c>
       <c r="D23">
         <f>$B$23+$C$23</f>
       </c>
       <c r="E23" t="n">
-        <v>151.0</v>
+        <v>260.0</v>
       </c>
       <c r="F23" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
         <v>0.0703125</v>
@@ -2798,25 +4696,25 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>8.0</v>
+        <v>36.0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D24">
         <f>$B$24+$C$24</f>
       </c>
       <c r="E24" t="n">
-        <v>127.0</v>
+        <v>198.0</v>
       </c>
       <c r="F24" t="n">
-        <v>11.0</v>
+        <v>23.0</v>
       </c>
       <c r="G24" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.67</v>
+        <v>3.35</v>
       </c>
       <c r="I24" t="n">
         <v>0.0654296875</v>
@@ -2827,25 +4725,25 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>8.0</v>
+        <v>38.0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D25">
         <f>$B$25+$C$25</f>
       </c>
       <c r="E25" t="n">
-        <v>141.0</v>
+        <v>261.0</v>
       </c>
       <c r="F25" t="n">
-        <v>12.0</v>
+        <v>21.0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
         <v>0.06640625</v>
@@ -2856,7 +4754,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>9.0</v>
+        <v>38.0</v>
       </c>
       <c r="C26" t="n">
         <v>1.0</v>
@@ -2865,16 +4763,16 @@
         <f>$B$26+$C$26</f>
       </c>
       <c r="E26" t="n">
-        <v>75.0</v>
+        <v>84.0</v>
       </c>
       <c r="F26" t="n">
-        <v>7.0</v>
+        <v>16.0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.67</v>
+        <v>3.35</v>
       </c>
       <c r="I26" t="n">
         <v>0.0654296875</v>
@@ -2885,7 +4783,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>9.0</v>
+        <v>39.0</v>
       </c>
       <c r="C27" t="n">
         <v>0.0</v>
@@ -2894,16 +4792,16 @@
         <f>$B$27+$C$27</f>
       </c>
       <c r="E27" t="n">
-        <v>59.0</v>
+        <v>58.0</v>
       </c>
       <c r="F27" t="n">
-        <v>8.0</v>
+        <v>22.0</v>
       </c>
       <c r="G27" t="n">
         <v>2.0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I27" t="n">
         <v>0.0615234375</v>
@@ -2914,25 +4812,25 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>9.0</v>
+        <v>40.0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D28">
         <f>$B$28+$C$28</f>
       </c>
       <c r="E28" t="n">
-        <v>140.0</v>
+        <v>226.0</v>
       </c>
       <c r="F28" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.67</v>
+        <v>3.35</v>
       </c>
       <c r="I28" t="n">
         <v>0.0654296875</v>
@@ -2943,7 +4841,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>9.0</v>
+        <v>41.0</v>
       </c>
       <c r="C29" t="n">
         <v>1.0</v>
@@ -2952,16 +4850,16 @@
         <f>$B$29+$C$29</f>
       </c>
       <c r="E29" t="n">
-        <v>152.0</v>
+        <v>183.0</v>
       </c>
       <c r="F29" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I29" t="n">
         <v>0.0703125</v>
@@ -2972,7 +4870,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>9.0</v>
+        <v>42.0</v>
       </c>
       <c r="C30" t="n">
         <v>1.0</v>
@@ -2981,16 +4879,16 @@
         <f>$B$30+$C$30</f>
       </c>
       <c r="E30" t="n">
-        <v>141.0</v>
+        <v>223.0</v>
       </c>
       <c r="F30" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
         <v>0.06640625</v>
@@ -3001,7 +4899,7 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>9.0</v>
+        <v>43.0</v>
       </c>
       <c r="C31" t="n">
         <v>1.0</v>
@@ -3010,16 +4908,16 @@
         <f>$B$31+$C$31</f>
       </c>
       <c r="E31" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="F31" t="n">
         <v>83.0</v>
       </c>
-      <c r="F31" t="n">
-        <v>11.0</v>
-      </c>
       <c r="G31" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I31" t="n">
         <v>0.0615234375</v>
@@ -3062,7 +4960,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
@@ -3127,25 +5025,25 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>19.0</v>
+        <v>78.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2">
         <f>$B$2+$C$2</f>
       </c>
       <c r="E2" t="n">
-        <v>140.0</v>
+        <v>144.0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.67</v>
+        <v>3.35</v>
       </c>
       <c r="I2" t="n">
         <v>0.0654296875</v>
@@ -3154,10 +5052,13 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.0</v>
+        <v>54.0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.0</v>
+        <v>32.0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="3">
@@ -3165,10 +5066,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>13.0</v>
+        <v>55.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D3">
         <f>$B$3+$C$3</f>
@@ -3183,7 +5084,7 @@
         <v>0.0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
         <v>0.0703125</v>
@@ -3203,25 +5104,25 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>11.0</v>
+        <v>37.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D4">
         <f>$B$4+$C$4</f>
       </c>
       <c r="E4" t="n">
-        <v>141.0</v>
+        <v>171.0</v>
       </c>
       <c r="F4" t="n">
-        <v>12.0</v>
+        <v>42.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
         <v>0.06640625</v>
@@ -3241,25 +5142,25 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>12.0</v>
+        <v>46.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="D5">
         <f>$B$5+$C$5</f>
       </c>
       <c r="E5" t="n">
-        <v>91.0</v>
+        <v>215.0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.0</v>
+        <v>136.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I5" t="n">
         <v>0.0615234375</v>
@@ -3279,25 +5180,25 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>16.0</v>
+        <v>73.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D6">
         <f>$B$6+$C$6</f>
       </c>
       <c r="E6" t="n">
-        <v>151.0</v>
+        <v>160.0</v>
       </c>
       <c r="F6" t="n">
-        <v>12.0</v>
+        <v>21.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
         <v>0.0703125</v>
@@ -3317,25 +5218,25 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>9.0</v>
+        <v>33.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D7">
         <f>$B$7+$C$7</f>
       </c>
       <c r="E7" t="n">
-        <v>141.0</v>
+        <v>145.0</v>
       </c>
       <c r="F7" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
         <v>0.06640625</v>
@@ -3355,25 +5256,25 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>12.0</v>
+        <v>45.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D8">
         <f>$B$8+$C$8</f>
       </c>
       <c r="E8" t="n">
-        <v>91.0</v>
+        <v>203.0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.0</v>
+        <v>124.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I8" t="n">
         <v>0.0615234375</v>
@@ -3393,25 +5294,25 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="D9">
         <f>$B$9+$C$9</f>
       </c>
       <c r="E9" t="n">
-        <v>91.0</v>
+        <v>213.0</v>
       </c>
       <c r="F9" t="n">
-        <v>12.0</v>
+        <v>134.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I9" t="n">
         <v>0.0615234375</v>
@@ -3431,25 +5332,25 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>19.0</v>
+        <v>79.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D10">
         <f>$B$10+$C$10</f>
       </c>
       <c r="E10" t="n">
-        <v>141.0</v>
+        <v>144.0</v>
       </c>
       <c r="F10" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
         <v>0.06640625</v>
@@ -3469,25 +5370,25 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D11">
         <f>$B$11+$C$11</f>
       </c>
       <c r="E11" t="n">
-        <v>151.0</v>
+        <v>166.0</v>
       </c>
       <c r="F11" t="n">
-        <v>12.0</v>
+        <v>27.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
         <v>0.0703125</v>
@@ -3507,25 +5408,25 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>17.0</v>
+        <v>74.0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D12">
         <f>$B$12+$C$12</f>
       </c>
       <c r="E12" t="n">
-        <v>140.0</v>
+        <v>158.0</v>
       </c>
       <c r="F12" t="n">
-        <v>12.0</v>
+        <v>30.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.67</v>
+        <v>3.35</v>
       </c>
       <c r="I12" t="n">
         <v>0.0654296875</v>
@@ -3545,25 +5446,25 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>6.0</v>
+        <v>17.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D13">
         <f>$B$13+$C$13</f>
       </c>
       <c r="E13" t="n">
-        <v>152.0</v>
+        <v>164.0</v>
       </c>
       <c r="F13" t="n">
-        <v>12.0</v>
+        <v>24.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
         <v>0.0703125</v>
@@ -3583,25 +5484,25 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D14">
         <f>$B$14+$C$14</f>
       </c>
       <c r="E14" t="n">
-        <v>141.0</v>
+        <v>145.0</v>
       </c>
       <c r="F14" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
         <v>0.06640625</v>
@@ -3621,25 +5522,25 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>20.0</v>
+        <v>82.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D15">
         <f>$B$15+$C$15</f>
       </c>
       <c r="E15" t="n">
-        <v>75.0</v>
+        <v>110.0</v>
       </c>
       <c r="F15" t="n">
-        <v>10.0</v>
+        <v>45.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I15" t="n">
         <v>0.0615234375</v>
@@ -3659,25 +5560,25 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>12.0</v>
+        <v>50.0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D16">
         <f>$B$16+$C$16</f>
       </c>
       <c r="E16" t="n">
-        <v>128.0</v>
+        <v>129.0</v>
       </c>
       <c r="F16" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="G16" t="n">
         <v>0.0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
         <v>0.06640625</v>
@@ -3697,25 +5598,25 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>8.0</v>
+        <v>27.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D17">
         <f>$B$17+$C$17</f>
       </c>
       <c r="E17" t="n">
-        <v>35.0</v>
+        <v>125.0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.0</v>
+        <v>95.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I17" t="n">
         <v>0.0615234375</v>
@@ -3735,25 +5636,25 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>14.0</v>
+        <v>55.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D18">
         <f>$B$18+$C$18</f>
       </c>
       <c r="E18" t="n">
-        <v>154.0</v>
+        <v>155.0</v>
       </c>
       <c r="F18" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
         <v>0.0703125</v>
@@ -3773,25 +5674,25 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D19">
         <f>$B$19+$C$19</f>
       </c>
       <c r="E19" t="n">
-        <v>141.0</v>
+        <v>153.0</v>
       </c>
       <c r="F19" t="n">
-        <v>12.0</v>
+        <v>24.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
         <v>0.06640625</v>
@@ -3802,10 +5703,10 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>21.0</v>
+        <v>85.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D20">
         <f>$B$20+$C$20</f>
@@ -3820,7 +5721,7 @@
         <v>0.0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
         <v>0.0703125</v>
@@ -3831,25 +5732,25 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>20.0</v>
+        <v>81.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D21">
         <f>$B$21+$C$21</f>
       </c>
       <c r="E21" t="n">
-        <v>141.0</v>
+        <v>147.0</v>
       </c>
       <c r="F21" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="G21" t="n">
         <v>0.0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
         <v>0.06640625</v>
@@ -3860,25 +5761,25 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>15.0</v>
+        <v>66.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D22">
         <f>$B$22+$C$22</f>
       </c>
       <c r="E22" t="n">
-        <v>99.0</v>
+        <v>170.0</v>
       </c>
       <c r="F22" t="n">
-        <v>13.0</v>
+        <v>84.0</v>
       </c>
       <c r="G22" t="n">
         <v>0.0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I22" t="n">
         <v>0.0615234375</v>
@@ -3889,25 +5790,25 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="C23" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D23">
         <f>$B$23+$C$23</f>
       </c>
       <c r="E23" t="n">
-        <v>151.0</v>
+        <v>154.0</v>
       </c>
       <c r="F23" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
         <v>0.0703125</v>
@@ -3918,10 +5819,10 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>12.0</v>
+        <v>51.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D24">
         <f>$B$24+$C$24</f>
@@ -3936,7 +5837,7 @@
         <v>0.0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.67</v>
+        <v>3.35</v>
       </c>
       <c r="I24" t="n">
         <v>0.0654296875</v>
@@ -3947,25 +5848,25 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>10.0</v>
+        <v>33.0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D25">
         <f>$B$25+$C$25</f>
       </c>
       <c r="E25" t="n">
-        <v>141.0</v>
+        <v>156.0</v>
       </c>
       <c r="F25" t="n">
-        <v>12.0</v>
+        <v>27.0</v>
       </c>
       <c r="G25" t="n">
         <v>0.0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
         <v>0.06640625</v>
@@ -3976,25 +5877,25 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>7.0</v>
+        <v>16.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D26">
         <f>$B$26+$C$26</f>
       </c>
       <c r="E26" t="n">
-        <v>75.0</v>
+        <v>92.0</v>
       </c>
       <c r="F26" t="n">
-        <v>7.0</v>
+        <v>24.0</v>
       </c>
       <c r="G26" t="n">
         <v>0.0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.67</v>
+        <v>3.35</v>
       </c>
       <c r="I26" t="n">
         <v>0.0654296875</v>
@@ -4005,25 +5906,25 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>15.0</v>
+        <v>60.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="D27">
         <f>$B$27+$C$27</f>
       </c>
       <c r="E27" t="n">
-        <v>59.0</v>
+        <v>105.0</v>
       </c>
       <c r="F27" t="n">
-        <v>8.0</v>
+        <v>54.0</v>
       </c>
       <c r="G27" t="n">
         <v>0.0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I27" t="n">
         <v>0.0615234375</v>
@@ -4034,25 +5935,25 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D28">
         <f>$B$28+$C$28</f>
       </c>
       <c r="E28" t="n">
-        <v>140.0</v>
+        <v>202.0</v>
       </c>
       <c r="F28" t="n">
-        <v>12.0</v>
+        <v>74.0</v>
       </c>
       <c r="G28" t="n">
         <v>0.0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.67</v>
+        <v>3.35</v>
       </c>
       <c r="I28" t="n">
         <v>0.0654296875</v>
@@ -4063,10 +5964,10 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>17.0</v>
+        <v>75.0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D29">
         <f>$B$29+$C$29</f>
@@ -4081,7 +5982,7 @@
         <v>0.0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I29" t="n">
         <v>0.0703125</v>
@@ -4092,25 +5993,25 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>22.0</v>
+        <v>85.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D30">
         <f>$B$30+$C$30</f>
       </c>
       <c r="E30" t="n">
-        <v>141.0</v>
+        <v>157.0</v>
       </c>
       <c r="F30" t="n">
-        <v>12.0</v>
+        <v>28.0</v>
       </c>
       <c r="G30" t="n">
         <v>0.0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
         <v>0.06640625</v>
@@ -4121,25 +6022,25 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>8.0</v>
+        <v>26.0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="D31">
         <f>$B$31+$C$31</f>
       </c>
       <c r="E31" t="n">
-        <v>83.0</v>
+        <v>221.0</v>
       </c>
       <c r="F31" t="n">
-        <v>11.0</v>
+        <v>149.0</v>
       </c>
       <c r="G31" t="n">
         <v>0.0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I31" t="n">
         <v>0.0615234375</v>
@@ -4182,7 +6083,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
@@ -4247,25 +6148,25 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.0</v>
+        <v>31.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2">
         <f>$B$2+$C$2</f>
       </c>
       <c r="E2" t="n">
-        <v>140.0</v>
+        <v>141.0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.67</v>
+        <v>3.35</v>
       </c>
       <c r="I2" t="n">
         <v>0.0654296875</v>
@@ -4274,10 +6175,13 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.0</v>
+        <v>21.0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="3">
@@ -4285,7 +6189,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>8.0</v>
+        <v>21.0</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -4294,16 +6198,16 @@
         <f>$B$3+$C$3</f>
       </c>
       <c r="E3" t="n">
-        <v>151.0</v>
+        <v>209.0</v>
       </c>
       <c r="F3" t="n">
-        <v>12.0</v>
+        <v>33.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
         <v>0.0703125</v>
@@ -4312,10 +6216,13 @@
         <v>1.0</v>
       </c>
       <c r="L3" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="4">
@@ -4323,7 +6230,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -4332,16 +6239,16 @@
         <f>$B$4+$C$4</f>
       </c>
       <c r="E4" t="n">
-        <v>141.0</v>
+        <v>162.0</v>
       </c>
       <c r="F4" t="n">
-        <v>12.0</v>
+        <v>21.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
         <v>0.06640625</v>
@@ -4353,7 +6260,10 @@
         <v>10.0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.0</v>
+        <v>24.0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="5">
@@ -4361,7 +6271,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="C5" t="n">
         <v>0.0</v>
@@ -4370,16 +6280,16 @@
         <f>$B$5+$C$5</f>
       </c>
       <c r="E5" t="n">
-        <v>91.0</v>
+        <v>41.0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I5" t="n">
         <v>0.0615234375</v>
@@ -4388,10 +6298,13 @@
         <v>3.0</v>
       </c>
       <c r="L5" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.0</v>
+        <v>26.0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="6">
@@ -4399,10 +6312,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>9.0</v>
+        <v>28.0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D6">
         <f>$B$6+$C$6</f>
@@ -4414,10 +6327,10 @@
         <v>12.0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
         <v>0.0703125</v>
@@ -4437,25 +6350,25 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D7">
         <f>$B$7+$C$7</f>
       </c>
       <c r="E7" t="n">
-        <v>141.0</v>
+        <v>178.0</v>
       </c>
       <c r="F7" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="G7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
         <v>0.06640625</v>
@@ -4475,25 +6388,25 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>7.0</v>
+        <v>16.0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D8">
         <f>$B$8+$C$8</f>
       </c>
       <c r="E8" t="n">
-        <v>91.0</v>
+        <v>328.0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.0</v>
+        <v>135.0</v>
       </c>
       <c r="G8" t="n">
         <v>1.0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I8" t="n">
         <v>0.0615234375</v>
@@ -4513,25 +6426,25 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D9">
         <f>$B$9+$C$9</f>
       </c>
       <c r="E9" t="n">
-        <v>91.0</v>
+        <v>403.0</v>
       </c>
       <c r="F9" t="n">
-        <v>12.0</v>
+        <v>213.0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I9" t="n">
         <v>0.0615234375</v>
@@ -4551,25 +6464,25 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>11.0</v>
+        <v>31.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D10">
         <f>$B$10+$C$10</f>
       </c>
       <c r="E10" t="n">
-        <v>141.0</v>
+        <v>152.0</v>
       </c>
       <c r="F10" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="G10" t="n">
         <v>1.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
         <v>0.06640625</v>
@@ -4589,25 +6502,25 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="D11">
         <f>$B$11+$C$11</f>
       </c>
       <c r="E11" t="n">
-        <v>151.0</v>
+        <v>166.0</v>
       </c>
       <c r="F11" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
         <v>0.0703125</v>
@@ -4627,25 +6540,25 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>9.0</v>
+        <v>28.0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D12">
         <f>$B$12+$C$12</f>
       </c>
       <c r="E12" t="n">
-        <v>140.0</v>
+        <v>141.0</v>
       </c>
       <c r="F12" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="G12" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.67</v>
+        <v>3.35</v>
       </c>
       <c r="I12" t="n">
         <v>0.0654296875</v>
@@ -4665,25 +6578,25 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D13">
         <f>$B$13+$C$13</f>
       </c>
       <c r="E13" t="n">
-        <v>152.0</v>
+        <v>163.0</v>
       </c>
       <c r="F13" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="G13" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
         <v>0.0703125</v>
@@ -4703,25 +6616,25 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="D14">
         <f>$B$14+$C$14</f>
       </c>
       <c r="E14" t="n">
-        <v>141.0</v>
+        <v>142.0</v>
       </c>
       <c r="F14" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
         <v>0.06640625</v>
@@ -4741,25 +6654,25 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>11.0</v>
+        <v>31.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D15">
         <f>$B$15+$C$15</f>
       </c>
       <c r="E15" t="n">
-        <v>75.0</v>
+        <v>249.0</v>
       </c>
       <c r="F15" t="n">
-        <v>10.0</v>
+        <v>85.0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I15" t="n">
         <v>0.0615234375</v>
@@ -4779,25 +6692,25 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D16">
         <f>$B$16+$C$16</f>
       </c>
       <c r="E16" t="n">
-        <v>128.0</v>
+        <v>207.0</v>
       </c>
       <c r="F16" t="n">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
       <c r="G16" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
         <v>0.06640625</v>
@@ -4817,25 +6730,25 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D17">
         <f>$B$17+$C$17</f>
       </c>
       <c r="E17" t="n">
-        <v>35.0</v>
+        <v>116.0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.0</v>
+        <v>51.0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I17" t="n">
         <v>0.0615234375</v>
@@ -4855,7 +6768,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
@@ -4864,16 +6777,16 @@
         <f>$B$18+$C$18</f>
       </c>
       <c r="E18" t="n">
-        <v>154.0</v>
+        <v>160.0</v>
       </c>
       <c r="F18" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="G18" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
         <v>0.0703125</v>
@@ -4893,25 +6806,25 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="C19" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="D19">
         <f>$B$19+$C$19</f>
       </c>
       <c r="E19" t="n">
-        <v>141.0</v>
+        <v>148.0</v>
       </c>
       <c r="F19" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
         <v>0.06640625</v>
@@ -4931,25 +6844,25 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>11.0</v>
+        <v>33.0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D20">
         <f>$B$20+$C$20</f>
       </c>
       <c r="E20" t="n">
-        <v>121.0</v>
+        <v>209.0</v>
       </c>
       <c r="F20" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="G20" t="n">
         <v>2.0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
         <v>0.0703125</v>
@@ -4969,25 +6882,25 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>11.0</v>
+        <v>29.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D21">
         <f>$B$21+$C$21</f>
       </c>
       <c r="E21" t="n">
-        <v>141.0</v>
+        <v>147.0</v>
       </c>
       <c r="F21" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="G21" t="n">
         <v>3.0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
         <v>0.06640625</v>
@@ -5007,25 +6920,25 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>8.0</v>
+        <v>22.0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D22">
         <f>$B$22+$C$22</f>
       </c>
       <c r="E22" t="n">
-        <v>99.0</v>
+        <v>230.0</v>
       </c>
       <c r="F22" t="n">
-        <v>13.0</v>
+        <v>150.0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I22" t="n">
         <v>0.0615234375</v>
@@ -5036,7 +6949,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C23" t="n">
         <v>1.0</v>
@@ -5045,16 +6958,16 @@
         <f>$B$23+$C$23</f>
       </c>
       <c r="E23" t="n">
-        <v>151.0</v>
+        <v>165.0</v>
       </c>
       <c r="F23" t="n">
-        <v>12.0</v>
+        <v>21.0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
         <v>0.0703125</v>
@@ -5065,7 +6978,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="C24" t="n">
         <v>1.0</v>
@@ -5080,10 +6993,10 @@
         <v>11.0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.67</v>
+        <v>3.35</v>
       </c>
       <c r="I24" t="n">
         <v>0.0654296875</v>
@@ -5094,7 +7007,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="C25" t="n">
         <v>1.0</v>
@@ -5103,16 +7016,16 @@
         <f>$B$25+$C$25</f>
       </c>
       <c r="E25" t="n">
-        <v>141.0</v>
+        <v>147.0</v>
       </c>
       <c r="F25" t="n">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="G25" t="n">
         <v>2.0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
         <v>0.06640625</v>
@@ -5123,7 +7036,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="C26" t="n">
         <v>0.0</v>
@@ -5138,10 +7051,10 @@
         <v>7.0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.67</v>
+        <v>3.35</v>
       </c>
       <c r="I26" t="n">
         <v>0.0654296875</v>
@@ -5152,25 +7065,25 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>8.0</v>
+        <v>23.0</v>
       </c>
       <c r="C27" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D27">
         <f>$B$27+$C$27</f>
       </c>
       <c r="E27" t="n">
-        <v>59.0</v>
+        <v>297.0</v>
       </c>
       <c r="F27" t="n">
-        <v>8.0</v>
+        <v>193.0</v>
       </c>
       <c r="G27" t="n">
         <v>1.0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
       </c>
       <c r="I27" t="n">
         <v>0.0615234375</v>
@@ -5181,25 +7094,25 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="C28" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D28">
         <f>$B$28+$C$28</f>
       </c>
       <c r="E28" t="n">
-        <v>140.0</v>
+        <v>244.0</v>
       </c>
       <c r="F28" t="n">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
       <c r="G28" t="n">
         <v>1.0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.67</v>
+        <v>3.35</v>
       </c>
       <c r="I28" t="n">
         <v>0.0654296875</v>
@@ -5210,7 +7123,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>10.0</v>
+        <v>27.0</v>
       </c>
       <c r="C29" t="n">
         <v>1.0</v>
@@ -5225,10 +7138,10 @@
         <v>12.0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.72</v>
+        <v>3.6</v>
       </c>
       <c r="I29" t="n">
         <v>0.0703125</v>
@@ -5239,25 +7152,25 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>11.0</v>
+        <v>34.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D30">
         <f>$B$30+$C$30</f>
       </c>
       <c r="E30" t="n">
-        <v>141.0</v>
+        <v>284.0</v>
       </c>
       <c r="F30" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.68</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
         <v>0.06640625</v>
@@ -5268,25 +7181,2307 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D31">
         <f>$B$31+$C$31</f>
       </c>
       <c r="E31" t="n">
-        <v>83.0</v>
+        <v>202.0</v>
       </c>
       <c r="F31" t="n">
-        <v>11.0</v>
+        <v>104.0</v>
       </c>
       <c r="G31" t="n">
         <v>2.0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.63</v>
+        <v>3.15</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0615234375</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <f>AVERAGE($B$2:$B$31)</f>
+      </c>
+      <c r="C32">
+        <f>AVERAGE($C$2:$C$31)</f>
+      </c>
+      <c r="D32">
+        <f>AVERAGE($D$2:$D$31)</f>
+      </c>
+      <c r="E32">
+        <f>AVERAGE($E$2:$E$31)</f>
+      </c>
+      <c r="F32">
+        <f>AVERAGE($F$2:$F$31)</f>
+      </c>
+      <c r="H32">
+        <f>AVERAGE($H$2:$H$31)</f>
+      </c>
+      <c r="I32">
+        <f>AVERAGE($I$2:$I$31)</f>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O32"/>
+  <sheetViews>
+    <sheetView tabSelected="false" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D2">
+        <f>$B$2+$C$2</f>
+      </c>
+      <c r="E2" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0654296875</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D3">
+        <f>$B$3+$C$3</f>
+      </c>
+      <c r="E3" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <f>AVERAGE($L$2:$L$2)</f>
+      </c>
+      <c r="M3">
+        <f>AVERAGE($M$2:$M$2)</f>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D4">
+        <f>$B$4+$C$4</f>
+      </c>
+      <c r="E4" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D5">
+        <f>$B$5+$C$5</f>
+      </c>
+      <c r="E5" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <f>$B$6+$C$6</f>
+      </c>
+      <c r="E6" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D7">
+        <f>$B$7+$C$7</f>
+      </c>
+      <c r="E7" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D8">
+        <f>$B$8+$C$8</f>
+      </c>
+      <c r="E8" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D9">
+        <f>$B$9+$C$9</f>
+      </c>
+      <c r="E9" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D10">
+        <f>$B$10+$C$10</f>
+      </c>
+      <c r="E10" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D11">
+        <f>$B$11+$C$11</f>
+      </c>
+      <c r="E11" t="n">
+        <v>236.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D12">
+        <f>$B$12+$C$12</f>
+      </c>
+      <c r="E12" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0654296875</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D13">
+        <f>$B$13+$C$13</f>
+      </c>
+      <c r="E13" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14">
+        <f>$B$14+$C$14</f>
+      </c>
+      <c r="E14" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D15">
+        <f>$B$15+$C$15</f>
+      </c>
+      <c r="E15" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D16">
+        <f>$B$16+$C$16</f>
+      </c>
+      <c r="E16" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17">
+        <f>$B$17+$C$17</f>
+      </c>
+      <c r="E17" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D18">
+        <f>$B$18+$C$18</f>
+      </c>
+      <c r="E18" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D19">
+        <f>$B$19+$C$19</f>
+      </c>
+      <c r="E19" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.06640625</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D20">
+        <f>$B$20+$C$20</f>
+      </c>
+      <c r="E20" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.0703125</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D21">
+        <f>$B$21+$C$21</f>
+      </c>
+      <c r="E21" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.06640625</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D22">
+        <f>$B$22+$C$22</f>
+      </c>
+      <c r="E22" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0615234375</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D23">
+        <f>$B$23+$C$23</f>
+      </c>
+      <c r="E23" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0703125</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D24">
+        <f>$B$24+$C$24</f>
+      </c>
+      <c r="E24" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0654296875</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D25">
+        <f>$B$25+$C$25</f>
+      </c>
+      <c r="E25" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.06640625</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D26">
+        <f>$B$26+$C$26</f>
+      </c>
+      <c r="E26" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0654296875</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D27">
+        <f>$B$27+$C$27</f>
+      </c>
+      <c r="E27" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0615234375</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D28">
+        <f>$B$28+$C$28</f>
+      </c>
+      <c r="E28" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0654296875</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D29">
+        <f>$B$29+$C$29</f>
+      </c>
+      <c r="E29" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0703125</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D30">
+        <f>$B$30+$C$30</f>
+      </c>
+      <c r="E30" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.06640625</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D31">
+        <f>$B$31+$C$31</f>
+      </c>
+      <c r="E31" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0615234375</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <f>AVERAGE($B$2:$B$31)</f>
+      </c>
+      <c r="C32">
+        <f>AVERAGE($C$2:$C$31)</f>
+      </c>
+      <c r="D32">
+        <f>AVERAGE($D$2:$D$31)</f>
+      </c>
+      <c r="E32">
+        <f>AVERAGE($E$2:$E$31)</f>
+      </c>
+      <c r="F32">
+        <f>AVERAGE($F$2:$F$31)</f>
+      </c>
+      <c r="H32">
+        <f>AVERAGE($H$2:$H$31)</f>
+      </c>
+      <c r="I32">
+        <f>AVERAGE($I$2:$I$31)</f>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O32"/>
+  <sheetViews>
+    <sheetView tabSelected="false" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D2">
+        <f>$B$2+$C$2</f>
+      </c>
+      <c r="E2" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0654296875</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D3">
+        <f>$B$3+$C$3</f>
+      </c>
+      <c r="E3" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D4">
+        <f>$B$4+$C$4</f>
+      </c>
+      <c r="E4" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D5">
+        <f>$B$5+$C$5</f>
+      </c>
+      <c r="E5" t="n">
+        <v>353.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D6">
+        <f>$B$6+$C$6</f>
+      </c>
+      <c r="E6" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <f>AVERAGE($L$2:$L$5)</f>
+      </c>
+      <c r="M6">
+        <f>AVERAGE($M$2:$M$5)</f>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D7">
+        <f>$B$7+$C$7</f>
+      </c>
+      <c r="E7" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8">
+        <f>$B$8+$C$8</f>
+      </c>
+      <c r="E8" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D9">
+        <f>$B$9+$C$9</f>
+      </c>
+      <c r="E9" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D10">
+        <f>$B$10+$C$10</f>
+      </c>
+      <c r="E10" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D11">
+        <f>$B$11+$C$11</f>
+      </c>
+      <c r="E11" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D12">
+        <f>$B$12+$C$12</f>
+      </c>
+      <c r="E12" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0654296875</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D13">
+        <f>$B$13+$C$13</f>
+      </c>
+      <c r="E13" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D14">
+        <f>$B$14+$C$14</f>
+      </c>
+      <c r="E14" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D15">
+        <f>$B$15+$C$15</f>
+      </c>
+      <c r="E15" t="n">
+        <v>272.0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D16">
+        <f>$B$16+$C$16</f>
+      </c>
+      <c r="E16" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D17">
+        <f>$B$17+$C$17</f>
+      </c>
+      <c r="E17" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0615234375</v>
+      </c>
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D18">
+        <f>$B$18+$C$18</f>
+      </c>
+      <c r="E18" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D19">
+        <f>$B$19+$C$19</f>
+      </c>
+      <c r="E19" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D20">
+        <f>$B$20+$C$20</f>
+      </c>
+      <c r="E20" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.0703125</v>
+      </c>
+      <c r="K20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D21">
+        <f>$B$21+$C$21</f>
+      </c>
+      <c r="E21" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.06640625</v>
+      </c>
+      <c r="K21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D22">
+        <f>$B$22+$C$22</f>
+      </c>
+      <c r="E22" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0615234375</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D23">
+        <f>$B$23+$C$23</f>
+      </c>
+      <c r="E23" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0703125</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D24">
+        <f>$B$24+$C$24</f>
+      </c>
+      <c r="E24" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0654296875</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D25">
+        <f>$B$25+$C$25</f>
+      </c>
+      <c r="E25" t="n">
+        <v>214.0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.06640625</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D26">
+        <f>$B$26+$C$26</f>
+      </c>
+      <c r="E26" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0654296875</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D27">
+        <f>$B$27+$C$27</f>
+      </c>
+      <c r="E27" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0615234375</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D28">
+        <f>$B$28+$C$28</f>
+      </c>
+      <c r="E28" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0654296875</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D29">
+        <f>$B$29+$C$29</f>
+      </c>
+      <c r="E29" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0703125</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D30">
+        <f>$B$30+$C$30</f>
+      </c>
+      <c r="E30" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.06640625</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D31">
+        <f>$B$31+$C$31</f>
+      </c>
+      <c r="E31" t="n">
+        <v>221.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.15</v>
       </c>
       <c r="I31" t="n">
         <v>0.0615234375</v>

--- a/Yeezus/output/data.xlsx
+++ b/Yeezus/output/data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37715" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40028" uniqueCount="391">
   <si>
     <t>Process ID:</t>
   </si>
@@ -1953,6 +1953,131 @@
   <si>
     <t xml:space="preserve">
 CPU: 0 received 1513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 570
+CPU: 1 received 343
+CPU: 2 received 260
+CPU: 3 received 195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 492
+CPU: 1 received 307
+CPU: 2 received 297
+CPU: 3 received 278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 600
+CPU: 1 received 338
+CPU: 2 received 252
+CPU: 3 received 203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 798
+CPU: 1 received 390
+CPU: 2 received 283
+CPU: 3 received 238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 656
+CPU: 1 received 399
+CPU: 2 received 325
+CPU: 3 received 230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 515
+CPU: 1 received 266
+CPU: 2 received 291
+CPU: 3 received 272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 462
+CPU: 1 received 483
+CPU: 2 received 415
+CPU: 3 received 203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 2060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 821
+CPU: 1 received 494
+CPU: 2 received 501
+CPU: 3 received 370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 820
+CPU: 1 received 316
+CPU: 2 received 264
+CPU: 3 received 232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 652
+CPU: 1 received 403
+CPU: 2 received 292
+CPU: 3 received 250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 469
+CPU: 1 received 387
+CPU: 2 received 307
+CPU: 3 received 222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 925</t>
   </si>
 </sst>
 </file>
@@ -2743,10 +2868,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="C2" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="D2">
         <f>$B$2+$C$2</f>
@@ -2770,13 +2895,13 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>80.0</v>
+        <v>69.0</v>
       </c>
       <c r="M2" t="n">
-        <v>42.0</v>
+        <v>38.0</v>
       </c>
       <c r="N2" t="s">
-        <v>96</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3">
@@ -2784,10 +2909,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="C3" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="D3">
         <f>$B$3+$C$3</f>
@@ -2822,19 +2947,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>43.0</v>
+        <v>45.0</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="D4">
         <f>$B$4+$C$4</f>
       </c>
       <c r="E4" t="n">
-        <v>141.0</v>
+        <v>147.0</v>
       </c>
       <c r="F4" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -2860,19 +2985,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>48.0</v>
+        <v>58.0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D5">
         <f>$B$5+$C$5</f>
       </c>
       <c r="E5" t="n">
-        <v>102.0</v>
+        <v>93.0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -2898,19 +3023,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>51.0</v>
+        <v>62.0</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D6">
         <f>$B$6+$C$6</f>
       </c>
       <c r="E6" t="n">
-        <v>167.0</v>
+        <v>151.0</v>
       </c>
       <c r="F6" t="n">
-        <v>28.0</v>
+        <v>12.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -2936,10 +3061,10 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>57.0</v>
+        <v>63.0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D7">
         <f>$B$7+$C$7</f>
@@ -2974,7 +3099,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>60.0</v>
+        <v>68.0</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -2983,10 +3108,10 @@
         <f>$B$8+$C$8</f>
       </c>
       <c r="E8" t="n">
-        <v>137.0</v>
+        <v>146.0</v>
       </c>
       <c r="F8" t="n">
-        <v>58.0</v>
+        <v>67.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
@@ -3012,19 +3137,19 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>64.0</v>
+        <v>71.0</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D9">
         <f>$B$9+$C$9</f>
       </c>
       <c r="E9" t="n">
-        <v>154.0</v>
+        <v>103.0</v>
       </c>
       <c r="F9" t="n">
-        <v>75.0</v>
+        <v>24.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -3050,7 +3175,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>67.0</v>
+        <v>72.0</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -3059,10 +3184,10 @@
         <f>$B$10+$C$10</f>
       </c>
       <c r="E10" t="n">
-        <v>145.0</v>
+        <v>146.0</v>
       </c>
       <c r="F10" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -3088,19 +3213,19 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>70.0</v>
+        <v>75.0</v>
       </c>
       <c r="C11" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="D11">
         <f>$B$11+$C$11</f>
       </c>
       <c r="E11" t="n">
-        <v>174.0</v>
+        <v>152.0</v>
       </c>
       <c r="F11" t="n">
-        <v>35.0</v>
+        <v>13.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
@@ -3126,19 +3251,19 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>81.0</v>
+        <v>77.0</v>
       </c>
       <c r="C12" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D12">
         <f>$B$12+$C$12</f>
       </c>
       <c r="E12" t="n">
-        <v>142.0</v>
+        <v>140.0</v>
       </c>
       <c r="F12" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
@@ -3164,7 +3289,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>88.0</v>
+        <v>78.0</v>
       </c>
       <c r="C13" t="n">
         <v>2.0</v>
@@ -3173,10 +3298,10 @@
         <f>$B$13+$C$13</f>
       </c>
       <c r="E13" t="n">
-        <v>157.0</v>
+        <v>156.0</v>
       </c>
       <c r="F13" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -3202,7 +3327,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>90.0</v>
+        <v>81.0</v>
       </c>
       <c r="C14" t="n">
         <v>2.0</v>
@@ -3211,10 +3336,10 @@
         <f>$B$14+$C$14</f>
       </c>
       <c r="E14" t="n">
-        <v>141.0</v>
+        <v>143.0</v>
       </c>
       <c r="F14" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -3240,19 +3365,19 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>93.0</v>
+        <v>84.0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D15">
         <f>$B$15+$C$15</f>
       </c>
       <c r="E15" t="n">
-        <v>111.0</v>
+        <v>143.0</v>
       </c>
       <c r="F15" t="n">
-        <v>46.0</v>
+        <v>78.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -3278,7 +3403,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>95.0</v>
+        <v>86.0</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -3316,19 +3441,19 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>97.0</v>
+        <v>87.0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D17">
         <f>$B$17+$C$17</f>
       </c>
       <c r="E17" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="F17" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
@@ -3354,19 +3479,19 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>99.0</v>
+        <v>89.0</v>
       </c>
       <c r="C18" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D18">
         <f>$B$18+$C$18</f>
       </c>
       <c r="E18" t="n">
-        <v>154.0</v>
+        <v>162.0</v>
       </c>
       <c r="F18" t="n">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>
@@ -3392,10 +3517,10 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>101.0</v>
+        <v>92.0</v>
       </c>
       <c r="C19" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D19">
         <f>$B$19+$C$19</f>
@@ -3421,7 +3546,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>106.0</v>
+        <v>95.0</v>
       </c>
       <c r="C20" t="n">
         <v>1.0</v>
@@ -3430,10 +3555,10 @@
         <f>$B$20+$C$20</f>
       </c>
       <c r="E20" t="n">
-        <v>121.0</v>
+        <v>124.0</v>
       </c>
       <c r="F20" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="G20" t="n">
         <v>0.0</v>
@@ -3450,10 +3575,10 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>108.0</v>
+        <v>96.0</v>
       </c>
       <c r="C21" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="D21">
         <f>$B$21+$C$21</f>
@@ -3479,19 +3604,19 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>114.0</v>
+        <v>99.0</v>
       </c>
       <c r="C22" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D22">
         <f>$B$22+$C$22</f>
       </c>
       <c r="E22" t="n">
-        <v>111.0</v>
+        <v>168.0</v>
       </c>
       <c r="F22" t="n">
-        <v>25.0</v>
+        <v>82.0</v>
       </c>
       <c r="G22" t="n">
         <v>0.0</v>
@@ -3508,7 +3633,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>116.0</v>
+        <v>103.0</v>
       </c>
       <c r="C23" t="n">
         <v>1.0</v>
@@ -3517,10 +3642,10 @@
         <f>$B$23+$C$23</f>
       </c>
       <c r="E23" t="n">
-        <v>152.0</v>
+        <v>160.0</v>
       </c>
       <c r="F23" t="n">
-        <v>13.0</v>
+        <v>21.0</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
@@ -3537,7 +3662,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>118.0</v>
+        <v>105.0</v>
       </c>
       <c r="C24" t="n">
         <v>1.0</v>
@@ -3546,10 +3671,10 @@
         <f>$B$24+$C$24</f>
       </c>
       <c r="E24" t="n">
-        <v>127.0</v>
+        <v>130.0</v>
       </c>
       <c r="F24" t="n">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="G24" t="n">
         <v>0.0</v>
@@ -3566,19 +3691,19 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>120.0</v>
+        <v>106.0</v>
       </c>
       <c r="C25" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D25">
         <f>$B$25+$C$25</f>
       </c>
       <c r="E25" t="n">
-        <v>141.0</v>
+        <v>142.0</v>
       </c>
       <c r="F25" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="G25" t="n">
         <v>0.0</v>
@@ -3595,7 +3720,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>123.0</v>
+        <v>108.0</v>
       </c>
       <c r="C26" t="n">
         <v>0.0</v>
@@ -3604,10 +3729,10 @@
         <f>$B$26+$C$26</f>
       </c>
       <c r="E26" t="n">
-        <v>75.0</v>
+        <v>82.0</v>
       </c>
       <c r="F26" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="G26" t="n">
         <v>0.0</v>
@@ -3624,19 +3749,19 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>124.0</v>
+        <v>109.0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D27">
         <f>$B$27+$C$27</f>
       </c>
       <c r="E27" t="n">
-        <v>76.0</v>
+        <v>123.0</v>
       </c>
       <c r="F27" t="n">
-        <v>25.0</v>
+        <v>72.0</v>
       </c>
       <c r="G27" t="n">
         <v>0.0</v>
@@ -3653,7 +3778,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>126.0</v>
+        <v>112.0</v>
       </c>
       <c r="C28" t="n">
         <v>1.0</v>
@@ -3662,10 +3787,10 @@
         <f>$B$28+$C$28</f>
       </c>
       <c r="E28" t="n">
-        <v>140.0</v>
+        <v>143.0</v>
       </c>
       <c r="F28" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="G28" t="n">
         <v>0.0</v>
@@ -3682,19 +3807,19 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>128.0</v>
+        <v>113.0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D29">
         <f>$B$29+$C$29</f>
       </c>
       <c r="E29" t="n">
-        <v>152.0</v>
+        <v>168.0</v>
       </c>
       <c r="F29" t="n">
-        <v>12.0</v>
+        <v>28.0</v>
       </c>
       <c r="G29" t="n">
         <v>0.0</v>
@@ -3711,7 +3836,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>129.0</v>
+        <v>115.0</v>
       </c>
       <c r="C30" t="n">
         <v>1.0</v>
@@ -3740,7 +3865,7 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>131.0</v>
+        <v>117.0</v>
       </c>
       <c r="C31" t="n">
         <v>1.0</v>
@@ -3749,10 +3874,10 @@
         <f>$B$31+$C$31</f>
       </c>
       <c r="E31" t="n">
-        <v>129.0</v>
+        <v>116.0</v>
       </c>
       <c r="F31" t="n">
-        <v>57.0</v>
+        <v>44.0</v>
       </c>
       <c r="G31" t="n">
         <v>0.0</v>
@@ -3866,16 +3991,16 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2">
         <f>$B$2+$C$2</f>
       </c>
       <c r="E2" t="n">
-        <v>277.0</v>
+        <v>207.0</v>
       </c>
       <c r="F2" t="n">
         <v>28.0</v>
@@ -3896,10 +4021,10 @@
         <v>23.0</v>
       </c>
       <c r="M2" t="n">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
       <c r="N2" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3">
@@ -3907,22 +4032,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D3">
         <f>$B$3+$C$3</f>
       </c>
       <c r="E3" t="n">
-        <v>163.0</v>
+        <v>170.0</v>
       </c>
       <c r="F3" t="n">
-        <v>19.0</v>
+        <v>16.0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H3" t="n">
         <v>3.6</v>
@@ -3934,13 +4059,13 @@
         <v>1.0</v>
       </c>
       <c r="L3" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="M3" t="n">
-        <v>26.0</v>
+        <v>35.0</v>
       </c>
       <c r="N3" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4">
@@ -3948,7 +4073,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -3957,13 +4082,13 @@
         <f>$B$4+$C$4</f>
       </c>
       <c r="E4" t="n">
-        <v>156.0</v>
+        <v>150.0</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
@@ -3975,13 +4100,13 @@
         <v>2.0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="M4" t="n">
-        <v>31.0</v>
+        <v>37.0</v>
       </c>
       <c r="N4" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5">
@@ -3989,22 +4114,22 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D5">
         <f>$B$5+$C$5</f>
       </c>
       <c r="E5" t="n">
-        <v>163.0</v>
+        <v>85.0</v>
       </c>
       <c r="F5" t="n">
-        <v>70.0</v>
+        <v>40.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H5" t="n">
         <v>3.15</v>
@@ -4016,13 +4141,13 @@
         <v>3.0</v>
       </c>
       <c r="L5" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="M5" t="n">
-        <v>27.0</v>
+        <v>43.0</v>
       </c>
       <c r="N5" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6">
@@ -4030,22 +4155,22 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D6">
         <f>$B$6+$C$6</f>
       </c>
       <c r="E6" t="n">
-        <v>213.0</v>
+        <v>166.0</v>
       </c>
       <c r="F6" t="n">
-        <v>44.0</v>
+        <v>15.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
@@ -4068,22 +4193,22 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D7">
         <f>$B$7+$C$7</f>
       </c>
       <c r="E7" t="n">
-        <v>372.0</v>
+        <v>173.0</v>
       </c>
       <c r="F7" t="n">
-        <v>111.0</v>
+        <v>20.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
@@ -4106,22 +4231,22 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="D8">
         <f>$B$8+$C$8</f>
       </c>
       <c r="E8" t="n">
-        <v>117.0</v>
+        <v>258.0</v>
       </c>
       <c r="F8" t="n">
-        <v>48.0</v>
+        <v>107.0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H8" t="n">
         <v>3.15</v>
@@ -4144,19 +4269,19 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D9">
         <f>$B$9+$C$9</f>
       </c>
       <c r="E9" t="n">
-        <v>180.0</v>
+        <v>151.0</v>
       </c>
       <c r="F9" t="n">
-        <v>74.0</v>
+        <v>64.0</v>
       </c>
       <c r="G9" t="n">
         <v>3.0</v>
@@ -4182,22 +4307,22 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D10">
         <f>$B$10+$C$10</f>
       </c>
       <c r="E10" t="n">
-        <v>236.0</v>
+        <v>151.0</v>
       </c>
       <c r="F10" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="G10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
@@ -4220,22 +4345,22 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>17.0</v>
+        <v>14.0</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D11">
         <f>$B$11+$C$11</f>
       </c>
       <c r="E11" t="n">
-        <v>311.0</v>
+        <v>151.0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.0</v>
+        <v>12.0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H11" t="n">
         <v>3.6</v>
@@ -4258,7 +4383,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="C12" t="n">
         <v>2.0</v>
@@ -4267,10 +4392,10 @@
         <f>$B$12+$C$12</f>
       </c>
       <c r="E12" t="n">
-        <v>146.0</v>
+        <v>177.0</v>
       </c>
       <c r="F12" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
@@ -4296,22 +4421,22 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D13">
         <f>$B$13+$C$13</f>
       </c>
       <c r="E13" t="n">
-        <v>59.0</v>
+        <v>185.0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.0</v>
+        <v>18.0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H13" t="n">
         <v>3.6</v>
@@ -4334,22 +4459,22 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D14">
         <f>$B$14+$C$14</f>
       </c>
       <c r="E14" t="n">
-        <v>134.0</v>
+        <v>142.0</v>
       </c>
       <c r="F14" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
@@ -4372,7 +4497,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -4381,13 +4506,13 @@
         <f>$B$15+$C$15</f>
       </c>
       <c r="E15" t="n">
-        <v>131.0</v>
+        <v>133.0</v>
       </c>
       <c r="F15" t="n">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
       <c r="G15" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H15" t="n">
         <v>3.15</v>
@@ -4410,7 +4535,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -4419,13 +4544,13 @@
         <f>$B$16+$C$16</f>
       </c>
       <c r="E16" t="n">
-        <v>144.0</v>
+        <v>128.0</v>
       </c>
       <c r="F16" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="G16" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H16" t="n">
         <v>3.4</v>
@@ -4448,19 +4573,19 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D17">
         <f>$B$17+$C$17</f>
       </c>
       <c r="E17" t="n">
-        <v>56.0</v>
+        <v>85.0</v>
       </c>
       <c r="F17" t="n">
-        <v>19.0</v>
+        <v>42.0</v>
       </c>
       <c r="G17" t="n">
         <v>3.0</v>
@@ -4486,22 +4611,22 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="C18" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D18">
         <f>$B$18+$C$18</f>
       </c>
       <c r="E18" t="n">
-        <v>188.0</v>
+        <v>161.0</v>
       </c>
       <c r="F18" t="n">
         <v>19.0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H18" t="n">
         <v>3.6</v>
@@ -4524,19 +4649,19 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D19">
         <f>$B$19+$C$19</f>
       </c>
       <c r="E19" t="n">
-        <v>150.0</v>
+        <v>327.0</v>
       </c>
       <c r="F19" t="n">
-        <v>15.0</v>
+        <v>31.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
@@ -4571,13 +4696,13 @@
         <f>$B$20+$C$20</f>
       </c>
       <c r="E20" t="n">
-        <v>188.0</v>
+        <v>209.0</v>
       </c>
       <c r="F20" t="n">
-        <v>16.0</v>
+        <v>28.0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H20" t="n">
         <v>3.6</v>
@@ -4600,22 +4725,22 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D21">
         <f>$B$21+$C$21</f>
       </c>
       <c r="E21" t="n">
-        <v>153.0</v>
+        <v>238.0</v>
       </c>
       <c r="F21" t="n">
-        <v>14.0</v>
+        <v>49.0</v>
       </c>
       <c r="G21" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
@@ -4641,19 +4766,19 @@
         <v>27.0</v>
       </c>
       <c r="C22" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="D22">
         <f>$B$22+$C$22</f>
       </c>
       <c r="E22" t="n">
-        <v>314.0</v>
+        <v>338.0</v>
       </c>
       <c r="F22" t="n">
-        <v>112.0</v>
+        <v>252.0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H22" t="n">
         <v>3.15</v>
@@ -4667,19 +4792,19 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>29.0</v>
+        <v>33.0</v>
       </c>
       <c r="C23" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="D23">
         <f>$B$23+$C$23</f>
       </c>
       <c r="E23" t="n">
-        <v>260.0</v>
+        <v>191.0</v>
       </c>
       <c r="F23" t="n">
-        <v>15.0</v>
+        <v>37.0</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
@@ -4696,7 +4821,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>36.0</v>
+        <v>34.0</v>
       </c>
       <c r="C24" t="n">
         <v>2.0</v>
@@ -4705,13 +4830,13 @@
         <f>$B$24+$C$24</f>
       </c>
       <c r="E24" t="n">
-        <v>198.0</v>
+        <v>260.0</v>
       </c>
       <c r="F24" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H24" t="n">
         <v>3.35</v>
@@ -4725,22 +4850,22 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
       <c r="C25" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D25">
         <f>$B$25+$C$25</f>
       </c>
       <c r="E25" t="n">
-        <v>261.0</v>
+        <v>223.0</v>
       </c>
       <c r="F25" t="n">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
       <c r="G25" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H25" t="n">
         <v>3.4</v>
@@ -4754,7 +4879,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>38.0</v>
+        <v>36.0</v>
       </c>
       <c r="C26" t="n">
         <v>1.0</v>
@@ -4763,10 +4888,10 @@
         <f>$B$26+$C$26</f>
       </c>
       <c r="E26" t="n">
-        <v>84.0</v>
+        <v>95.0</v>
       </c>
       <c r="F26" t="n">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="G26" t="n">
         <v>1.0</v>
@@ -4783,19 +4908,19 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>39.0</v>
+        <v>38.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D27">
         <f>$B$27+$C$27</f>
       </c>
       <c r="E27" t="n">
-        <v>58.0</v>
+        <v>205.0</v>
       </c>
       <c r="F27" t="n">
-        <v>22.0</v>
+        <v>134.0</v>
       </c>
       <c r="G27" t="n">
         <v>2.0</v>
@@ -4812,7 +4937,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
       <c r="C28" t="n">
         <v>1.0</v>
@@ -4821,13 +4946,13 @@
         <f>$B$28+$C$28</f>
       </c>
       <c r="E28" t="n">
-        <v>226.0</v>
+        <v>230.0</v>
       </c>
       <c r="F28" t="n">
-        <v>18.0</v>
+        <v>29.0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H28" t="n">
         <v>3.35</v>
@@ -4841,7 +4966,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="C29" t="n">
         <v>1.0</v>
@@ -4850,13 +4975,13 @@
         <f>$B$29+$C$29</f>
       </c>
       <c r="E29" t="n">
-        <v>183.0</v>
+        <v>107.0</v>
       </c>
       <c r="F29" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H29" t="n">
         <v>3.6</v>
@@ -4870,22 +4995,22 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="D30">
         <f>$B$30+$C$30</f>
       </c>
       <c r="E30" t="n">
-        <v>223.0</v>
+        <v>355.0</v>
       </c>
       <c r="F30" t="n">
-        <v>16.0</v>
+        <v>32.0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H30" t="n">
         <v>3.4</v>
@@ -4899,22 +5024,22 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>43.0</v>
+        <v>50.0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D31">
         <f>$B$31+$C$31</f>
       </c>
       <c r="E31" t="n">
-        <v>183.0</v>
+        <v>318.0</v>
       </c>
       <c r="F31" t="n">
-        <v>83.0</v>
+        <v>191.0</v>
       </c>
       <c r="G31" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H31" t="n">
         <v>3.15</v>
@@ -5025,7 +5150,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>78.0</v>
+        <v>51.0</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -5034,10 +5159,10 @@
         <f>$B$2+$C$2</f>
       </c>
       <c r="E2" t="n">
-        <v>144.0</v>
+        <v>143.0</v>
       </c>
       <c r="F2" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -5052,13 +5177,13 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>54.0</v>
+        <v>47.0</v>
       </c>
       <c r="M2" t="n">
-        <v>32.0</v>
+        <v>16.0</v>
       </c>
       <c r="N2" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3">
@@ -5066,7 +5191,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>55.0</v>
+        <v>33.0</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -5075,10 +5200,10 @@
         <f>$B$3+$C$3</f>
       </c>
       <c r="E3" t="n">
-        <v>151.0</v>
+        <v>172.0</v>
       </c>
       <c r="F3" t="n">
-        <v>12.0</v>
+        <v>33.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -5104,19 +5229,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>37.0</v>
+        <v>20.0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4">
         <f>$B$4+$C$4</f>
       </c>
       <c r="E4" t="n">
-        <v>171.0</v>
+        <v>143.0</v>
       </c>
       <c r="F4" t="n">
-        <v>42.0</v>
+        <v>14.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -5142,19 +5267,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>46.0</v>
+        <v>24.0</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D5">
         <f>$B$5+$C$5</f>
       </c>
       <c r="E5" t="n">
-        <v>215.0</v>
+        <v>137.0</v>
       </c>
       <c r="F5" t="n">
-        <v>136.0</v>
+        <v>58.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -5180,7 +5305,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>73.0</v>
+        <v>45.0</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -5189,10 +5314,10 @@
         <f>$B$6+$C$6</f>
       </c>
       <c r="E6" t="n">
-        <v>160.0</v>
+        <v>161.0</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -5218,7 +5343,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>33.0</v>
+        <v>18.0</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -5227,10 +5352,10 @@
         <f>$B$7+$C$7</f>
       </c>
       <c r="E7" t="n">
-        <v>145.0</v>
+        <v>158.0</v>
       </c>
       <c r="F7" t="n">
-        <v>16.0</v>
+        <v>29.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -5256,19 +5381,19 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>45.0</v>
+        <v>27.0</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D8">
         <f>$B$8+$C$8</f>
       </c>
       <c r="E8" t="n">
-        <v>203.0</v>
+        <v>166.0</v>
       </c>
       <c r="F8" t="n">
-        <v>124.0</v>
+        <v>87.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
@@ -5297,16 +5422,16 @@
         <v>1.0</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D9">
         <f>$B$9+$C$9</f>
       </c>
       <c r="E9" t="n">
-        <v>213.0</v>
+        <v>145.0</v>
       </c>
       <c r="F9" t="n">
-        <v>134.0</v>
+        <v>66.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -5332,19 +5457,19 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>79.0</v>
+        <v>52.0</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D10">
         <f>$B$10+$C$10</f>
       </c>
       <c r="E10" t="n">
-        <v>144.0</v>
+        <v>167.0</v>
       </c>
       <c r="F10" t="n">
-        <v>15.0</v>
+        <v>38.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -5370,7 +5495,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -5379,10 +5504,10 @@
         <f>$B$11+$C$11</f>
       </c>
       <c r="E11" t="n">
-        <v>166.0</v>
+        <v>153.0</v>
       </c>
       <c r="F11" t="n">
-        <v>27.0</v>
+        <v>14.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
@@ -5408,7 +5533,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>74.0</v>
+        <v>45.0</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -5417,10 +5542,10 @@
         <f>$B$12+$C$12</f>
       </c>
       <c r="E12" t="n">
-        <v>158.0</v>
+        <v>140.0</v>
       </c>
       <c r="F12" t="n">
-        <v>30.0</v>
+        <v>12.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
@@ -5446,19 +5571,19 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>17.0</v>
+        <v>11.0</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D13">
         <f>$B$13+$C$13</f>
       </c>
       <c r="E13" t="n">
-        <v>164.0</v>
+        <v>160.0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -5484,7 +5609,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -5493,10 +5618,10 @@
         <f>$B$14+$C$14</f>
       </c>
       <c r="E14" t="n">
-        <v>145.0</v>
+        <v>141.0</v>
       </c>
       <c r="F14" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -5522,19 +5647,19 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>82.0</v>
+        <v>55.0</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="D15">
         <f>$B$15+$C$15</f>
       </c>
       <c r="E15" t="n">
-        <v>110.0</v>
+        <v>100.0</v>
       </c>
       <c r="F15" t="n">
-        <v>45.0</v>
+        <v>35.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -5560,7 +5685,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>50.0</v>
+        <v>26.0</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -5598,19 +5723,19 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>27.0</v>
+        <v>15.0</v>
       </c>
       <c r="C17" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D17">
         <f>$B$17+$C$17</f>
       </c>
       <c r="E17" t="n">
-        <v>125.0</v>
+        <v>46.0</v>
       </c>
       <c r="F17" t="n">
-        <v>95.0</v>
+        <v>16.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
@@ -5636,19 +5761,19 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>55.0</v>
+        <v>33.0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D18">
         <f>$B$18+$C$18</f>
       </c>
       <c r="E18" t="n">
-        <v>155.0</v>
+        <v>181.0</v>
       </c>
       <c r="F18" t="n">
-        <v>13.0</v>
+        <v>39.0</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>
@@ -5674,7 +5799,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
@@ -5683,10 +5808,10 @@
         <f>$B$19+$C$19</f>
       </c>
       <c r="E19" t="n">
-        <v>153.0</v>
+        <v>142.0</v>
       </c>
       <c r="F19" t="n">
-        <v>24.0</v>
+        <v>13.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
@@ -5703,7 +5828,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>85.0</v>
+        <v>63.0</v>
       </c>
       <c r="C20" t="n">
         <v>1.0</v>
@@ -5712,10 +5837,10 @@
         <f>$B$20+$C$20</f>
       </c>
       <c r="E20" t="n">
-        <v>121.0</v>
+        <v>132.0</v>
       </c>
       <c r="F20" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="G20" t="n">
         <v>0.0</v>
@@ -5732,7 +5857,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>81.0</v>
+        <v>59.0</v>
       </c>
       <c r="C21" t="n">
         <v>1.0</v>
@@ -5741,10 +5866,10 @@
         <f>$B$21+$C$21</f>
       </c>
       <c r="E21" t="n">
-        <v>147.0</v>
+        <v>143.0</v>
       </c>
       <c r="F21" t="n">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="G21" t="n">
         <v>0.0</v>
@@ -5761,19 +5886,19 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>66.0</v>
+        <v>38.0</v>
       </c>
       <c r="C22" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D22">
         <f>$B$22+$C$22</f>
       </c>
       <c r="E22" t="n">
-        <v>170.0</v>
+        <v>162.0</v>
       </c>
       <c r="F22" t="n">
-        <v>84.0</v>
+        <v>76.0</v>
       </c>
       <c r="G22" t="n">
         <v>0.0</v>
@@ -5790,19 +5915,19 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D23">
         <f>$B$23+$C$23</f>
       </c>
       <c r="E23" t="n">
-        <v>154.0</v>
+        <v>151.0</v>
       </c>
       <c r="F23" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
@@ -5819,7 +5944,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>51.0</v>
+        <v>28.0</v>
       </c>
       <c r="C24" t="n">
         <v>1.0</v>
@@ -5848,19 +5973,19 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>33.0</v>
+        <v>18.0</v>
       </c>
       <c r="C25" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D25">
         <f>$B$25+$C$25</f>
       </c>
       <c r="E25" t="n">
-        <v>156.0</v>
+        <v>150.0</v>
       </c>
       <c r="F25" t="n">
-        <v>27.0</v>
+        <v>21.0</v>
       </c>
       <c r="G25" t="n">
         <v>0.0</v>
@@ -5877,19 +6002,19 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D26">
         <f>$B$26+$C$26</f>
       </c>
       <c r="E26" t="n">
-        <v>92.0</v>
+        <v>76.0</v>
       </c>
       <c r="F26" t="n">
-        <v>24.0</v>
+        <v>8.0</v>
       </c>
       <c r="G26" t="n">
         <v>0.0</v>
@@ -5906,19 +6031,19 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>60.0</v>
+        <v>37.0</v>
       </c>
       <c r="C27" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="D27">
         <f>$B$27+$C$27</f>
       </c>
       <c r="E27" t="n">
-        <v>105.0</v>
+        <v>100.0</v>
       </c>
       <c r="F27" t="n">
-        <v>54.0</v>
+        <v>49.0</v>
       </c>
       <c r="G27" t="n">
         <v>0.0</v>
@@ -5935,19 +6060,19 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="C28" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D28">
         <f>$B$28+$C$28</f>
       </c>
       <c r="E28" t="n">
-        <v>202.0</v>
+        <v>164.0</v>
       </c>
       <c r="F28" t="n">
-        <v>74.0</v>
+        <v>36.0</v>
       </c>
       <c r="G28" t="n">
         <v>0.0</v>
@@ -5964,7 +6089,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>75.0</v>
+        <v>46.0</v>
       </c>
       <c r="C29" t="n">
         <v>1.0</v>
@@ -5993,7 +6118,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>85.0</v>
+        <v>63.0</v>
       </c>
       <c r="C30" t="n">
         <v>1.0</v>
@@ -6002,10 +6127,10 @@
         <f>$B$30+$C$30</f>
       </c>
       <c r="E30" t="n">
-        <v>157.0</v>
+        <v>164.0</v>
       </c>
       <c r="F30" t="n">
-        <v>28.0</v>
+        <v>35.0</v>
       </c>
       <c r="G30" t="n">
         <v>0.0</v>
@@ -6022,19 +6147,19 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
       <c r="C31" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="D31">
         <f>$B$31+$C$31</f>
       </c>
       <c r="E31" t="n">
-        <v>221.0</v>
+        <v>108.0</v>
       </c>
       <c r="F31" t="n">
-        <v>149.0</v>
+        <v>36.0</v>
       </c>
       <c r="G31" t="n">
         <v>0.0</v>
@@ -6148,22 +6273,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>31.0</v>
+        <v>44.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D2">
         <f>$B$2+$C$2</f>
       </c>
       <c r="E2" t="n">
-        <v>141.0</v>
+        <v>156.0</v>
       </c>
       <c r="F2" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H2" t="n">
         <v>3.35</v>
@@ -6175,13 +6300,13 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>14.0</v>
+        <v>22.0</v>
       </c>
       <c r="M2" t="n">
-        <v>21.0</v>
+        <v>25.0</v>
       </c>
       <c r="N2" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3">
@@ -6189,7 +6314,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -6198,13 +6323,13 @@
         <f>$B$3+$C$3</f>
       </c>
       <c r="E3" t="n">
-        <v>209.0</v>
+        <v>158.0</v>
       </c>
       <c r="F3" t="n">
-        <v>33.0</v>
+        <v>19.0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H3" t="n">
         <v>3.6</v>
@@ -6216,13 +6341,13 @@
         <v>1.0</v>
       </c>
       <c r="L3" t="n">
-        <v>12.0</v>
+        <v>22.0</v>
       </c>
       <c r="M3" t="n">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="N3" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4">
@@ -6230,22 +6355,22 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D4">
         <f>$B$4+$C$4</f>
       </c>
       <c r="E4" t="n">
-        <v>162.0</v>
+        <v>194.0</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0</v>
+        <v>13.0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
@@ -6257,13 +6382,13 @@
         <v>2.0</v>
       </c>
       <c r="L4" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="M4" t="n">
-        <v>24.0</v>
+        <v>36.0</v>
       </c>
       <c r="N4" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5">
@@ -6271,22 +6396,22 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="D5">
         <f>$B$5+$C$5</f>
       </c>
       <c r="E5" t="n">
-        <v>41.0</v>
+        <v>329.0</v>
       </c>
       <c r="F5" t="n">
-        <v>19.0</v>
+        <v>129.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H5" t="n">
         <v>3.15</v>
@@ -6298,13 +6423,13 @@
         <v>3.0</v>
       </c>
       <c r="L5" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="M5" t="n">
-        <v>26.0</v>
+        <v>37.0</v>
       </c>
       <c r="N5" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6">
@@ -6312,7 +6437,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -6321,13 +6446,13 @@
         <f>$B$6+$C$6</f>
       </c>
       <c r="E6" t="n">
-        <v>151.0</v>
+        <v>156.0</v>
       </c>
       <c r="F6" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
@@ -6350,22 +6475,22 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D7">
         <f>$B$7+$C$7</f>
       </c>
       <c r="E7" t="n">
-        <v>178.0</v>
+        <v>148.0</v>
       </c>
       <c r="F7" t="n">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
@@ -6388,22 +6513,22 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D8">
         <f>$B$8+$C$8</f>
       </c>
       <c r="E8" t="n">
-        <v>328.0</v>
+        <v>123.0</v>
       </c>
       <c r="F8" t="n">
-        <v>135.0</v>
+        <v>66.0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H8" t="n">
         <v>3.15</v>
@@ -6429,19 +6554,19 @@
         <v>2.0</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D9">
         <f>$B$9+$C$9</f>
       </c>
       <c r="E9" t="n">
-        <v>403.0</v>
+        <v>273.0</v>
       </c>
       <c r="F9" t="n">
-        <v>213.0</v>
+        <v>130.0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H9" t="n">
         <v>3.15</v>
@@ -6464,19 +6589,19 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>31.0</v>
+        <v>44.0</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D10">
         <f>$B$10+$C$10</f>
       </c>
       <c r="E10" t="n">
-        <v>152.0</v>
+        <v>157.0</v>
       </c>
       <c r="F10" t="n">
-        <v>18.0</v>
+        <v>28.0</v>
       </c>
       <c r="G10" t="n">
         <v>1.0</v>
@@ -6502,19 +6627,19 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D11">
         <f>$B$11+$C$11</f>
       </c>
       <c r="E11" t="n">
-        <v>166.0</v>
+        <v>277.0</v>
       </c>
       <c r="F11" t="n">
-        <v>15.0</v>
+        <v>24.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
@@ -6540,7 +6665,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>28.0</v>
+        <v>36.0</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -6549,13 +6674,13 @@
         <f>$B$12+$C$12</f>
       </c>
       <c r="E12" t="n">
-        <v>141.0</v>
+        <v>262.0</v>
       </c>
       <c r="F12" t="n">
-        <v>13.0</v>
+        <v>22.0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H12" t="n">
         <v>3.35</v>
@@ -6581,16 +6706,16 @@
         <v>8.0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D13">
         <f>$B$13+$C$13</f>
       </c>
       <c r="E13" t="n">
-        <v>163.0</v>
+        <v>276.0</v>
       </c>
       <c r="F13" t="n">
-        <v>15.0</v>
+        <v>51.0</v>
       </c>
       <c r="G13" t="n">
         <v>2.0</v>
@@ -6616,7 +6741,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -6625,13 +6750,13 @@
         <f>$B$14+$C$14</f>
       </c>
       <c r="E14" t="n">
-        <v>142.0</v>
+        <v>219.0</v>
       </c>
       <c r="F14" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
@@ -6654,19 +6779,19 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>31.0</v>
+        <v>41.0</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D15">
         <f>$B$15+$C$15</f>
       </c>
       <c r="E15" t="n">
-        <v>249.0</v>
+        <v>486.0</v>
       </c>
       <c r="F15" t="n">
-        <v>85.0</v>
+        <v>261.0</v>
       </c>
       <c r="G15" t="n">
         <v>2.0</v>
@@ -6692,19 +6817,19 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D16">
         <f>$B$16+$C$16</f>
       </c>
       <c r="E16" t="n">
-        <v>207.0</v>
+        <v>128.0</v>
       </c>
       <c r="F16" t="n">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
       <c r="G16" t="n">
         <v>0.0</v>
@@ -6730,7 +6855,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
@@ -6739,10 +6864,10 @@
         <f>$B$17+$C$17</f>
       </c>
       <c r="E17" t="n">
-        <v>116.0</v>
+        <v>63.0</v>
       </c>
       <c r="F17" t="n">
-        <v>51.0</v>
+        <v>33.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
@@ -6768,19 +6893,19 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>20.0</v>
+        <v>29.0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D18">
         <f>$B$18+$C$18</f>
       </c>
       <c r="E18" t="n">
-        <v>160.0</v>
+        <v>173.0</v>
       </c>
       <c r="F18" t="n">
-        <v>18.0</v>
+        <v>25.0</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>
@@ -6806,7 +6931,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
@@ -6815,13 +6940,13 @@
         <f>$B$19+$C$19</f>
       </c>
       <c r="E19" t="n">
-        <v>148.0</v>
+        <v>183.0</v>
       </c>
       <c r="F19" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
@@ -6844,7 +6969,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>33.0</v>
+        <v>46.0</v>
       </c>
       <c r="C20" t="n">
         <v>1.0</v>
@@ -6853,13 +6978,13 @@
         <f>$B$20+$C$20</f>
       </c>
       <c r="E20" t="n">
-        <v>209.0</v>
+        <v>216.0</v>
       </c>
       <c r="F20" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H20" t="n">
         <v>3.6</v>
@@ -6882,19 +7007,19 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>29.0</v>
+        <v>39.0</v>
       </c>
       <c r="C21" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D21">
         <f>$B$21+$C$21</f>
       </c>
       <c r="E21" t="n">
-        <v>147.0</v>
+        <v>156.0</v>
       </c>
       <c r="F21" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="G21" t="n">
         <v>3.0</v>
@@ -6920,19 +7045,19 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>22.0</v>
+        <v>29.0</v>
       </c>
       <c r="C22" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="D22">
         <f>$B$22+$C$22</f>
       </c>
       <c r="E22" t="n">
-        <v>230.0</v>
+        <v>316.0</v>
       </c>
       <c r="F22" t="n">
-        <v>150.0</v>
+        <v>139.0</v>
       </c>
       <c r="G22" t="n">
         <v>1.0</v>
@@ -6949,22 +7074,22 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D23">
         <f>$B$23+$C$23</f>
       </c>
       <c r="E23" t="n">
-        <v>165.0</v>
+        <v>168.0</v>
       </c>
       <c r="F23" t="n">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H23" t="n">
         <v>3.6</v>
@@ -6978,22 +7103,22 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="D24">
         <f>$B$24+$C$24</f>
       </c>
       <c r="E24" t="n">
-        <v>127.0</v>
+        <v>69.0</v>
       </c>
       <c r="F24" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="G24" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H24" t="n">
         <v>3.35</v>
@@ -7007,22 +7132,22 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D25">
         <f>$B$25+$C$25</f>
       </c>
       <c r="E25" t="n">
-        <v>147.0</v>
+        <v>210.0</v>
       </c>
       <c r="F25" t="n">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H25" t="n">
         <v>3.4</v>
@@ -7039,19 +7164,19 @@
         <v>7.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D26">
         <f>$B$26+$C$26</f>
       </c>
       <c r="E26" t="n">
-        <v>75.0</v>
+        <v>99.0</v>
       </c>
       <c r="F26" t="n">
-        <v>7.0</v>
+        <v>20.0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H26" t="n">
         <v>3.35</v>
@@ -7065,7 +7190,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>23.0</v>
+        <v>29.0</v>
       </c>
       <c r="C27" t="n">
         <v>4.0</v>
@@ -7074,13 +7199,13 @@
         <f>$B$27+$C$27</f>
       </c>
       <c r="E27" t="n">
-        <v>297.0</v>
+        <v>89.0</v>
       </c>
       <c r="F27" t="n">
-        <v>193.0</v>
+        <v>37.0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H27" t="n">
         <v>3.15</v>
@@ -7094,22 +7219,22 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D28">
         <f>$B$28+$C$28</f>
       </c>
       <c r="E28" t="n">
-        <v>244.0</v>
+        <v>482.0</v>
       </c>
       <c r="F28" t="n">
-        <v>20.0</v>
+        <v>76.0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H28" t="n">
         <v>3.35</v>
@@ -7123,22 +7248,22 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>27.0</v>
+        <v>35.0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D29">
         <f>$B$29+$C$29</f>
       </c>
       <c r="E29" t="n">
-        <v>152.0</v>
+        <v>153.0</v>
       </c>
       <c r="F29" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H29" t="n">
         <v>3.6</v>
@@ -7152,19 +7277,19 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D30">
         <f>$B$30+$C$30</f>
       </c>
       <c r="E30" t="n">
-        <v>284.0</v>
+        <v>156.0</v>
       </c>
       <c r="F30" t="n">
-        <v>36.0</v>
+        <v>15.0</v>
       </c>
       <c r="G30" t="n">
         <v>0.0</v>
@@ -7181,22 +7306,22 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D31">
         <f>$B$31+$C$31</f>
       </c>
       <c r="E31" t="n">
-        <v>202.0</v>
+        <v>179.0</v>
       </c>
       <c r="F31" t="n">
-        <v>104.0</v>
+        <v>73.0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H31" t="n">
         <v>3.15</v>
@@ -7307,19 +7432,19 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>23.0</v>
+        <v>32.0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2">
         <f>$B$2+$C$2</f>
       </c>
       <c r="E2" t="n">
-        <v>143.0</v>
+        <v>153.0</v>
       </c>
       <c r="F2" t="n">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -7334,13 +7459,13 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
       <c r="M2" t="n">
-        <v>23.0</v>
+        <v>29.0</v>
       </c>
       <c r="N2" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3">
@@ -7348,19 +7473,19 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>47.0</v>
+        <v>49.0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D3">
         <f>$B$3+$C$3</f>
       </c>
       <c r="E3" t="n">
-        <v>199.0</v>
+        <v>156.0</v>
       </c>
       <c r="F3" t="n">
-        <v>60.0</v>
+        <v>17.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -7386,7 +7511,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>34.0</v>
+        <v>39.0</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -7395,10 +7520,10 @@
         <f>$B$4+$C$4</f>
       </c>
       <c r="E4" t="n">
-        <v>143.0</v>
+        <v>142.0</v>
       </c>
       <c r="F4" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -7424,19 +7549,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="D5">
         <f>$B$5+$C$5</f>
       </c>
       <c r="E5" t="n">
-        <v>142.0</v>
+        <v>211.0</v>
       </c>
       <c r="F5" t="n">
-        <v>63.0</v>
+        <v>132.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -7462,19 +7587,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>48.0</v>
+        <v>51.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D6">
         <f>$B$6+$C$6</f>
       </c>
       <c r="E6" t="n">
-        <v>151.0</v>
+        <v>156.0</v>
       </c>
       <c r="F6" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -7500,19 +7625,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D7">
         <f>$B$7+$C$7</f>
       </c>
       <c r="E7" t="n">
-        <v>171.0</v>
+        <v>141.0</v>
       </c>
       <c r="F7" t="n">
-        <v>42.0</v>
+        <v>12.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -7538,7 +7663,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="C8" t="n">
         <v>3.0</v>
@@ -7547,10 +7672,10 @@
         <f>$B$8+$C$8</f>
       </c>
       <c r="E8" t="n">
-        <v>206.0</v>
+        <v>237.0</v>
       </c>
       <c r="F8" t="n">
-        <v>127.0</v>
+        <v>158.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
@@ -7576,7 +7701,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -7585,10 +7710,10 @@
         <f>$B$9+$C$9</f>
       </c>
       <c r="E9" t="n">
-        <v>122.0</v>
+        <v>109.0</v>
       </c>
       <c r="F9" t="n">
-        <v>43.0</v>
+        <v>30.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -7614,19 +7739,19 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D10">
         <f>$B$10+$C$10</f>
       </c>
       <c r="E10" t="n">
-        <v>141.0</v>
+        <v>143.0</v>
       </c>
       <c r="F10" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -7652,19 +7777,19 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>49.0</v>
+        <v>52.0</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D11">
         <f>$B$11+$C$11</f>
       </c>
       <c r="E11" t="n">
-        <v>236.0</v>
+        <v>170.0</v>
       </c>
       <c r="F11" t="n">
-        <v>97.0</v>
+        <v>31.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
@@ -7690,7 +7815,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -7699,10 +7824,10 @@
         <f>$B$12+$C$12</f>
       </c>
       <c r="E12" t="n">
-        <v>142.0</v>
+        <v>189.0</v>
       </c>
       <c r="F12" t="n">
-        <v>14.0</v>
+        <v>61.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
@@ -7728,19 +7853,19 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D13">
         <f>$B$13+$C$13</f>
       </c>
       <c r="E13" t="n">
-        <v>152.0</v>
+        <v>161.0</v>
       </c>
       <c r="F13" t="n">
-        <v>12.0</v>
+        <v>21.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -7766,7 +7891,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>39.0</v>
+        <v>42.0</v>
       </c>
       <c r="C14" t="n">
         <v>0.0</v>
@@ -7775,10 +7900,10 @@
         <f>$B$14+$C$14</f>
       </c>
       <c r="E14" t="n">
-        <v>142.0</v>
+        <v>147.0</v>
       </c>
       <c r="F14" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -7804,19 +7929,19 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="D15">
         <f>$B$15+$C$15</f>
       </c>
       <c r="E15" t="n">
-        <v>85.0</v>
+        <v>120.0</v>
       </c>
       <c r="F15" t="n">
-        <v>20.0</v>
+        <v>55.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -7842,7 +7967,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="C16" t="n">
         <v>0.0</v>
@@ -7880,7 +8005,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>14.0</v>
+        <v>21.0</v>
       </c>
       <c r="C17" t="n">
         <v>0.0</v>
@@ -7889,10 +8014,10 @@
         <f>$B$17+$C$17</f>
       </c>
       <c r="E17" t="n">
-        <v>36.0</v>
+        <v>51.0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.0</v>
+        <v>21.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
@@ -7918,7 +8043,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>53.0</v>
+        <v>55.0</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
@@ -7927,10 +8052,10 @@
         <f>$B$18+$C$18</f>
       </c>
       <c r="E18" t="n">
-        <v>194.0</v>
+        <v>159.0</v>
       </c>
       <c r="F18" t="n">
-        <v>52.0</v>
+        <v>17.0</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>
@@ -7956,7 +8081,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="C19" t="n">
         <v>0.0</v>
@@ -7965,10 +8090,10 @@
         <f>$B$19+$C$19</f>
       </c>
       <c r="E19" t="n">
-        <v>142.0</v>
+        <v>146.0</v>
       </c>
       <c r="F19" t="n">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
@@ -7985,7 +8110,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>56.0</v>
+        <v>58.0</v>
       </c>
       <c r="C20" t="n">
         <v>1.0</v>
@@ -7994,10 +8119,10 @@
         <f>$B$20+$C$20</f>
       </c>
       <c r="E20" t="n">
-        <v>155.0</v>
+        <v>159.0</v>
       </c>
       <c r="F20" t="n">
-        <v>44.0</v>
+        <v>48.0</v>
       </c>
       <c r="G20" t="n">
         <v>0.0</v>
@@ -8014,19 +8139,19 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>42.0</v>
+        <v>45.0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D21">
         <f>$B$21+$C$21</f>
       </c>
       <c r="E21" t="n">
-        <v>143.0</v>
+        <v>144.0</v>
       </c>
       <c r="F21" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="G21" t="n">
         <v>0.0</v>
@@ -8043,7 +8168,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="C22" t="n">
         <v>2.0</v>
@@ -8052,10 +8177,10 @@
         <f>$B$22+$C$22</f>
       </c>
       <c r="E22" t="n">
-        <v>184.0</v>
+        <v>137.0</v>
       </c>
       <c r="F22" t="n">
-        <v>98.0</v>
+        <v>51.0</v>
       </c>
       <c r="G22" t="n">
         <v>0.0</v>
@@ -8072,19 +8197,19 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>56.0</v>
+        <v>59.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D23">
         <f>$B$23+$C$23</f>
       </c>
       <c r="E23" t="n">
-        <v>151.0</v>
+        <v>168.0</v>
       </c>
       <c r="F23" t="n">
-        <v>12.0</v>
+        <v>29.0</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
@@ -8101,19 +8226,19 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>27.0</v>
+        <v>36.0</v>
       </c>
       <c r="C24" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D24">
         <f>$B$24+$C$24</f>
       </c>
       <c r="E24" t="n">
-        <v>157.0</v>
+        <v>130.0</v>
       </c>
       <c r="F24" t="n">
-        <v>41.0</v>
+        <v>14.0</v>
       </c>
       <c r="G24" t="n">
         <v>0.0</v>
@@ -8130,19 +8255,19 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D25">
         <f>$B$25+$C$25</f>
       </c>
       <c r="E25" t="n">
-        <v>162.0</v>
+        <v>141.0</v>
       </c>
       <c r="F25" t="n">
-        <v>33.0</v>
+        <v>12.0</v>
       </c>
       <c r="G25" t="n">
         <v>0.0</v>
@@ -8159,19 +8284,19 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>30.0</v>
+        <v>37.0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D26">
         <f>$B$26+$C$26</f>
       </c>
       <c r="E26" t="n">
-        <v>163.0</v>
+        <v>91.0</v>
       </c>
       <c r="F26" t="n">
-        <v>95.0</v>
+        <v>23.0</v>
       </c>
       <c r="G26" t="n">
         <v>0.0</v>
@@ -8188,10 +8313,10 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>18.0</v>
+        <v>25.0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D27">
         <f>$B$27+$C$27</f>
@@ -8217,7 +8342,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>32.0</v>
+        <v>37.0</v>
       </c>
       <c r="C28" t="n">
         <v>1.0</v>
@@ -8226,10 +8351,10 @@
         <f>$B$28+$C$28</f>
       </c>
       <c r="E28" t="n">
-        <v>152.0</v>
+        <v>140.0</v>
       </c>
       <c r="F28" t="n">
-        <v>24.0</v>
+        <v>12.0</v>
       </c>
       <c r="G28" t="n">
         <v>0.0</v>
@@ -8246,7 +8371,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>57.0</v>
+        <v>61.0</v>
       </c>
       <c r="C29" t="n">
         <v>1.0</v>
@@ -8255,10 +8380,10 @@
         <f>$B$29+$C$29</f>
       </c>
       <c r="E29" t="n">
-        <v>195.0</v>
+        <v>152.0</v>
       </c>
       <c r="F29" t="n">
-        <v>55.0</v>
+        <v>12.0</v>
       </c>
       <c r="G29" t="n">
         <v>0.0</v>
@@ -8275,19 +8400,19 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>44.0</v>
+        <v>46.0</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D30">
         <f>$B$30+$C$30</f>
       </c>
       <c r="E30" t="n">
-        <v>161.0</v>
+        <v>153.0</v>
       </c>
       <c r="F30" t="n">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="G30" t="n">
         <v>0.0</v>
@@ -8304,19 +8429,19 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D31">
         <f>$B$31+$C$31</f>
       </c>
       <c r="E31" t="n">
-        <v>136.0</v>
+        <v>160.0</v>
       </c>
       <c r="F31" t="n">
-        <v>64.0</v>
+        <v>88.0</v>
       </c>
       <c r="G31" t="n">
         <v>0.0</v>
@@ -8430,19 +8555,19 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="C2" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D2">
         <f>$B$2+$C$2</f>
       </c>
       <c r="E2" t="n">
-        <v>160.0</v>
+        <v>216.0</v>
       </c>
       <c r="F2" t="n">
-        <v>32.0</v>
+        <v>15.0</v>
       </c>
       <c r="G2" t="n">
         <v>3.0</v>
@@ -8457,13 +8582,13 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.0</v>
+        <v>13.0</v>
       </c>
       <c r="M2" t="n">
-        <v>36.0</v>
+        <v>25.0</v>
       </c>
       <c r="N2" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3">
@@ -8471,7 +8596,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>42.0</v>
+        <v>34.0</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -8480,10 +8605,10 @@
         <f>$B$3+$C$3</f>
       </c>
       <c r="E3" t="n">
-        <v>160.0</v>
+        <v>151.0</v>
       </c>
       <c r="F3" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="G3" t="n">
         <v>1.0</v>
@@ -8498,13 +8623,13 @@
         <v>1.0</v>
       </c>
       <c r="L3" t="n">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
       <c r="M3" t="n">
-        <v>40.0</v>
+        <v>21.0</v>
       </c>
       <c r="N3" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4">
@@ -8512,22 +8637,22 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D4">
         <f>$B$4+$C$4</f>
       </c>
       <c r="E4" t="n">
-        <v>141.0</v>
+        <v>143.0</v>
       </c>
       <c r="F4" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
@@ -8542,10 +8667,10 @@
         <v>18.0</v>
       </c>
       <c r="M4" t="n">
-        <v>42.0</v>
+        <v>21.0</v>
       </c>
       <c r="N4" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5">
@@ -8553,7 +8678,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -8562,10 +8687,10 @@
         <f>$B$5+$C$5</f>
       </c>
       <c r="E5" t="n">
-        <v>353.0</v>
+        <v>134.0</v>
       </c>
       <c r="F5" t="n">
-        <v>174.0</v>
+        <v>81.0</v>
       </c>
       <c r="G5" t="n">
         <v>1.0</v>
@@ -8580,13 +8705,13 @@
         <v>3.0</v>
       </c>
       <c r="L5" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="M5" t="n">
-        <v>48.0</v>
+        <v>25.0</v>
       </c>
       <c r="N5" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6">
@@ -8594,22 +8719,22 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>42.0</v>
+        <v>35.0</v>
       </c>
       <c r="C6" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="D6">
         <f>$B$6+$C$6</f>
       </c>
       <c r="E6" t="n">
-        <v>161.0</v>
+        <v>152.0</v>
       </c>
       <c r="F6" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
@@ -8632,7 +8757,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>30.0</v>
+        <v>27.0</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -8641,13 +8766,13 @@
         <f>$B$7+$C$7</f>
       </c>
       <c r="E7" t="n">
-        <v>141.0</v>
+        <v>144.0</v>
       </c>
       <c r="F7" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
@@ -8670,22 +8795,22 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="D8">
         <f>$B$8+$C$8</f>
       </c>
       <c r="E8" t="n">
-        <v>42.0</v>
+        <v>378.0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.0</v>
+        <v>154.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H8" t="n">
         <v>3.15</v>
@@ -8708,22 +8833,22 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="D9">
         <f>$B$9+$C$9</f>
       </c>
       <c r="E9" t="n">
-        <v>174.0</v>
+        <v>220.0</v>
       </c>
       <c r="F9" t="n">
-        <v>87.0</v>
+        <v>112.0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H9" t="n">
         <v>3.15</v>
@@ -8746,22 +8871,22 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>30.0</v>
+        <v>27.0</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D10">
         <f>$B$10+$C$10</f>
       </c>
       <c r="E10" t="n">
-        <v>157.0</v>
+        <v>162.0</v>
       </c>
       <c r="F10" t="n">
-        <v>27.0</v>
+        <v>15.0</v>
       </c>
       <c r="G10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
@@ -8784,19 +8909,19 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>48.0</v>
+        <v>34.0</v>
       </c>
       <c r="C11" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="D11">
         <f>$B$11+$C$11</f>
       </c>
       <c r="E11" t="n">
-        <v>151.0</v>
+        <v>152.0</v>
       </c>
       <c r="F11" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="G11" t="n">
         <v>1.0</v>
@@ -8822,7 +8947,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
@@ -8831,10 +8956,10 @@
         <f>$B$12+$C$12</f>
       </c>
       <c r="E12" t="n">
-        <v>147.0</v>
+        <v>142.0</v>
       </c>
       <c r="F12" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
@@ -8860,22 +8985,22 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>56.0</v>
+        <v>40.0</v>
       </c>
       <c r="C13" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="D13">
         <f>$B$13+$C$13</f>
       </c>
       <c r="E13" t="n">
-        <v>231.0</v>
+        <v>223.0</v>
       </c>
       <c r="F13" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H13" t="n">
         <v>3.6</v>
@@ -8898,22 +9023,22 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>36.0</v>
+        <v>28.0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="D14">
         <f>$B$14+$C$14</f>
       </c>
       <c r="E14" t="n">
-        <v>145.0</v>
+        <v>158.0</v>
       </c>
       <c r="F14" t="n">
         <v>16.0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
@@ -8936,22 +9061,22 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>18.0</v>
+        <v>5.0</v>
       </c>
       <c r="C15" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="D15">
         <f>$B$15+$C$15</f>
       </c>
       <c r="E15" t="n">
-        <v>272.0</v>
+        <v>162.0</v>
       </c>
       <c r="F15" t="n">
-        <v>146.0</v>
+        <v>83.0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H15" t="n">
         <v>3.15</v>
@@ -8974,16 +9099,16 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>34.0</v>
+        <v>30.0</v>
       </c>
       <c r="C16" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D16">
         <f>$B$16+$C$16</f>
       </c>
       <c r="E16" t="n">
-        <v>132.0</v>
+        <v>136.0</v>
       </c>
       <c r="F16" t="n">
         <v>15.0</v>
@@ -9012,22 +9137,22 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C17" t="n">
         <v>1.0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0</v>
       </c>
       <c r="D17">
         <f>$B$17+$C$17</f>
       </c>
       <c r="E17" t="n">
-        <v>33.0</v>
+        <v>133.0</v>
       </c>
       <c r="F17" t="n">
-        <v>18.0</v>
+        <v>67.0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H17" t="n">
         <v>3.15</v>
@@ -9050,22 +9175,22 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>49.0</v>
+        <v>33.0</v>
       </c>
       <c r="C18" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="D18">
         <f>$B$18+$C$18</f>
       </c>
       <c r="E18" t="n">
-        <v>155.0</v>
+        <v>333.0</v>
       </c>
       <c r="F18" t="n">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H18" t="n">
         <v>3.6</v>
@@ -9088,19 +9213,19 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>34.0</v>
+        <v>29.0</v>
       </c>
       <c r="C19" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D19">
         <f>$B$19+$C$19</f>
       </c>
       <c r="E19" t="n">
-        <v>211.0</v>
+        <v>149.0</v>
       </c>
       <c r="F19" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="G19" t="n">
         <v>3.0</v>
@@ -9126,19 +9251,19 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>41.0</v>
+        <v>37.0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D20">
         <f>$B$20+$C$20</f>
       </c>
       <c r="E20" t="n">
-        <v>129.0</v>
+        <v>191.0</v>
       </c>
       <c r="F20" t="n">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="G20" t="n">
         <v>0.0</v>
@@ -9164,7 +9289,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="C21" t="n">
         <v>2.0</v>
@@ -9173,13 +9298,13 @@
         <f>$B$21+$C$21</f>
       </c>
       <c r="E21" t="n">
-        <v>160.0</v>
+        <v>155.0</v>
       </c>
       <c r="F21" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
@@ -9202,22 +9327,22 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="C22" t="n">
         <v>1.0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0</v>
       </c>
       <c r="D22">
         <f>$B$22+$C$22</f>
       </c>
       <c r="E22" t="n">
-        <v>43.0</v>
+        <v>123.0</v>
       </c>
       <c r="F22" t="n">
-        <v>15.0</v>
+        <v>45.0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H22" t="n">
         <v>3.15</v>
@@ -9231,22 +9356,22 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>48.0</v>
+        <v>40.0</v>
       </c>
       <c r="C23" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="D23">
         <f>$B$23+$C$23</f>
       </c>
       <c r="E23" t="n">
-        <v>153.0</v>
+        <v>155.0</v>
       </c>
       <c r="F23" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H23" t="n">
         <v>3.6</v>
@@ -9260,7 +9385,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="C24" t="n">
         <v>3.0</v>
@@ -9269,13 +9394,13 @@
         <f>$B$24+$C$24</f>
       </c>
       <c r="E24" t="n">
-        <v>134.0</v>
+        <v>128.0</v>
       </c>
       <c r="F24" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H24" t="n">
         <v>3.35</v>
@@ -9289,19 +9414,19 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
       <c r="C25" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="D25">
         <f>$B$25+$C$25</f>
       </c>
       <c r="E25" t="n">
-        <v>214.0</v>
+        <v>141.0</v>
       </c>
       <c r="F25" t="n">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="G25" t="n">
         <v>0.0</v>
@@ -9318,10 +9443,10 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>27.0</v>
+        <v>21.0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D26">
         <f>$B$26+$C$26</f>
@@ -9333,7 +9458,7 @@
         <v>7.0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H26" t="n">
         <v>3.35</v>
@@ -9347,19 +9472,19 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="C27" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D27">
         <f>$B$27+$C$27</f>
       </c>
       <c r="E27" t="n">
-        <v>244.0</v>
+        <v>267.0</v>
       </c>
       <c r="F27" t="n">
-        <v>130.0</v>
+        <v>127.0</v>
       </c>
       <c r="G27" t="n">
         <v>2.0</v>
@@ -9376,22 +9501,22 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>26.0</v>
+        <v>22.0</v>
       </c>
       <c r="C28" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D28">
         <f>$B$28+$C$28</f>
       </c>
       <c r="E28" t="n">
-        <v>156.0</v>
+        <v>158.0</v>
       </c>
       <c r="F28" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H28" t="n">
         <v>3.35</v>
@@ -9405,19 +9530,19 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>53.0</v>
+        <v>39.0</v>
       </c>
       <c r="C29" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="D29">
         <f>$B$29+$C$29</f>
       </c>
       <c r="E29" t="n">
-        <v>225.0</v>
+        <v>174.0</v>
       </c>
       <c r="F29" t="n">
-        <v>14.0</v>
+        <v>30.0</v>
       </c>
       <c r="G29" t="n">
         <v>3.0</v>
@@ -9434,22 +9559,22 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>36.0</v>
+        <v>31.0</v>
       </c>
       <c r="C30" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="D30">
         <f>$B$30+$C$30</f>
       </c>
       <c r="E30" t="n">
-        <v>142.0</v>
+        <v>150.0</v>
       </c>
       <c r="F30" t="n">
-        <v>13.0</v>
+        <v>21.0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H30" t="n">
         <v>3.4</v>
@@ -9466,19 +9591,19 @@
         <v>9.0</v>
       </c>
       <c r="C31" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D31">
         <f>$B$31+$C$31</f>
       </c>
       <c r="E31" t="n">
-        <v>221.0</v>
+        <v>226.0</v>
       </c>
       <c r="F31" t="n">
-        <v>115.0</v>
+        <v>116.0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H31" t="n">
         <v>3.15</v>

--- a/Yeezus/output/data.xlsx
+++ b/Yeezus/output/data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40028" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42148" uniqueCount="413">
   <si>
     <t>Process ID:</t>
   </si>
@@ -2078,6 +2078,124 @@
   <si>
     <t xml:space="preserve">
 CPU: 0 received 925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 8471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1740
+CPU: 1 received 959
+CPU: 2 received 891
+CPU: 3 received 818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 59720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1305
+CPU: 1 received 1014
+CPU: 2 received 839
+CPU: 3 received 826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 28184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 4799
+CPU: 1 received 1064
+CPU: 2 received 702
+CPU: 3 received 641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 13667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 12485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1464
+CPU: 1 received 914
+CPU: 2 received 679
+CPU: 3 received 718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 40400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 11241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 996
+CPU: 1 received 699
+CPU: 2 received 695
+CPU: 3 received 645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 55066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 963
+CPU: 1 received 694
+CPU: 2 received 594
+CPU: 3 received 578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 25311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 3831
+CPU: 1 received 864
+CPU: 2 received 467
+CPU: 3 received 591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 6626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1343
+CPU: 1 received 907
+CPU: 2 received 1064
+CPU: 3 received 969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 40843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1749
+CPU: 1 received 1370
+CPU: 2 received 1279
+CPU: 3 received 1285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 30269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 2392
+CPU: 1 received 988
+CPU: 2 received 622
+CPU: 3 received 540</t>
   </si>
 </sst>
 </file>
@@ -2195,8 +2313,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="CPU_Table" id="2" insertRow="1" name="CPU_Table" ref="K1:M3" totalsRowCount="1">
-  <autoFilter ref="K1:M3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="CPU_Table" id="2" insertRow="1" name="CPU_Table" ref="K1:M6" totalsRowCount="1">
+  <autoFilter ref="K1:M6"/>
   <tableColumns count="3">
     <tableColumn id="1" name="CPU ID:" totalsRowLabel="Average"/>
     <tableColumn id="2" name="Busy Time (ms):" totalsRowFunction="custom">
@@ -2868,19 +2986,19 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>19.0</v>
+        <v>115.0</v>
       </c>
       <c r="C2" t="n">
-        <v>10.0</v>
+        <v>63.0</v>
       </c>
       <c r="D2">
         <f>$B$2+$C$2</f>
       </c>
       <c r="E2" t="n">
-        <v>140.0</v>
+        <v>143.0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -2895,13 +3013,13 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>69.0</v>
+        <v>665.0</v>
       </c>
       <c r="M2" t="n">
-        <v>38.0</v>
+        <v>887.0</v>
       </c>
       <c r="N2" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3">
@@ -2909,16 +3027,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>31.0</v>
+        <v>207.0</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>32.0</v>
       </c>
       <c r="D3">
         <f>$B$3+$C$3</f>
       </c>
       <c r="E3" t="n">
-        <v>151.0</v>
+        <v>146.0</v>
       </c>
       <c r="F3" t="n">
         <v>12.0</v>
@@ -2947,19 +3065,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>45.0</v>
+        <v>274.0</v>
       </c>
       <c r="C4" t="n">
-        <v>13.0</v>
+        <v>21.0</v>
       </c>
       <c r="D4">
         <f>$B$4+$C$4</f>
       </c>
       <c r="E4" t="n">
-        <v>147.0</v>
+        <v>143.0</v>
       </c>
       <c r="F4" t="n">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -2985,19 +3103,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>58.0</v>
+        <v>374.0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>38.0</v>
       </c>
       <c r="D5">
         <f>$B$5+$C$5</f>
       </c>
       <c r="E5" t="n">
-        <v>93.0</v>
+        <v>290.0</v>
       </c>
       <c r="F5" t="n">
-        <v>14.0</v>
+        <v>211.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -3023,16 +3141,16 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>62.0</v>
+        <v>416.0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D6">
         <f>$B$6+$C$6</f>
       </c>
       <c r="E6" t="n">
-        <v>151.0</v>
+        <v>146.0</v>
       </c>
       <c r="F6" t="n">
         <v>12.0</v>
@@ -3061,16 +3179,16 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>63.0</v>
+        <v>427.0</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D7">
         <f>$B$7+$C$7</f>
       </c>
       <c r="E7" t="n">
-        <v>143.0</v>
+        <v>145.0</v>
       </c>
       <c r="F7" t="n">
         <v>14.0</v>
@@ -3099,19 +3217,19 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>68.0</v>
+        <v>480.0</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="D8">
         <f>$B$8+$C$8</f>
       </c>
       <c r="E8" t="n">
-        <v>146.0</v>
+        <v>109.0</v>
       </c>
       <c r="F8" t="n">
-        <v>67.0</v>
+        <v>30.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
@@ -3137,19 +3255,19 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>71.0</v>
+        <v>641.0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>198.0</v>
       </c>
       <c r="D9">
         <f>$B$9+$C$9</f>
       </c>
       <c r="E9" t="n">
-        <v>103.0</v>
+        <v>145.0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.0</v>
+        <v>66.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -3175,19 +3293,19 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>72.0</v>
+        <v>838.0</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D10">
         <f>$B$10+$C$10</f>
       </c>
       <c r="E10" t="n">
-        <v>146.0</v>
+        <v>150.0</v>
       </c>
       <c r="F10" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -3213,19 +3331,19 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>75.0</v>
+        <v>857.0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>27.0</v>
       </c>
       <c r="D11">
         <f>$B$11+$C$11</f>
       </c>
       <c r="E11" t="n">
-        <v>152.0</v>
+        <v>477.0</v>
       </c>
       <c r="F11" t="n">
-        <v>13.0</v>
+        <v>343.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
@@ -3251,19 +3369,19 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>77.0</v>
+        <v>887.0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D12">
         <f>$B$12+$C$12</f>
       </c>
       <c r="E12" t="n">
-        <v>140.0</v>
+        <v>165.0</v>
       </c>
       <c r="F12" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
@@ -3289,19 +3407,19 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>78.0</v>
+        <v>898.0</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>26.0</v>
       </c>
       <c r="D13">
         <f>$B$13+$C$13</f>
       </c>
       <c r="E13" t="n">
-        <v>156.0</v>
+        <v>318.0</v>
       </c>
       <c r="F13" t="n">
-        <v>16.0</v>
+        <v>183.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -3327,19 +3445,19 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>81.0</v>
+        <v>927.0</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0</v>
+        <v>35.0</v>
       </c>
       <c r="D14">
         <f>$B$14+$C$14</f>
       </c>
       <c r="E14" t="n">
-        <v>143.0</v>
+        <v>219.0</v>
       </c>
       <c r="F14" t="n">
-        <v>14.0</v>
+        <v>88.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -3365,19 +3483,19 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>84.0</v>
+        <v>975.0</v>
       </c>
       <c r="C15" t="n">
-        <v>2.0</v>
+        <v>19.0</v>
       </c>
       <c r="D15">
         <f>$B$15+$C$15</f>
       </c>
       <c r="E15" t="n">
-        <v>143.0</v>
+        <v>332.0</v>
       </c>
       <c r="F15" t="n">
-        <v>78.0</v>
+        <v>267.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -3403,19 +3521,19 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>86.0</v>
+        <v>1014.0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="D16">
         <f>$B$16+$C$16</f>
       </c>
       <c r="E16" t="n">
-        <v>128.0</v>
+        <v>205.0</v>
       </c>
       <c r="F16" t="n">
-        <v>11.0</v>
+        <v>86.0</v>
       </c>
       <c r="G16" t="n">
         <v>0.0</v>
@@ -3441,19 +3559,19 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>87.0</v>
+        <v>1074.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0</v>
+        <v>84.0</v>
       </c>
       <c r="D17">
         <f>$B$17+$C$17</f>
       </c>
       <c r="E17" t="n">
-        <v>43.0</v>
+        <v>1252.0</v>
       </c>
       <c r="F17" t="n">
-        <v>13.0</v>
+        <v>1222.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
@@ -3479,19 +3597,19 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>89.0</v>
+        <v>1163.0</v>
       </c>
       <c r="C18" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="D18">
         <f>$B$18+$C$18</f>
       </c>
       <c r="E18" t="n">
-        <v>162.0</v>
+        <v>349.0</v>
       </c>
       <c r="F18" t="n">
-        <v>20.0</v>
+        <v>212.0</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>
@@ -3517,19 +3635,19 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>92.0</v>
+        <v>1178.0</v>
       </c>
       <c r="C19" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="D19">
         <f>$B$19+$C$19</f>
       </c>
       <c r="E19" t="n">
-        <v>141.0</v>
+        <v>196.0</v>
       </c>
       <c r="F19" t="n">
-        <v>12.0</v>
+        <v>65.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
@@ -3546,19 +3664,19 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>95.0</v>
+        <v>1187.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="D20">
         <f>$B$20+$C$20</f>
       </c>
       <c r="E20" t="n">
-        <v>124.0</v>
+        <v>203.0</v>
       </c>
       <c r="F20" t="n">
-        <v>13.0</v>
+        <v>96.0</v>
       </c>
       <c r="G20" t="n">
         <v>0.0</v>
@@ -3575,19 +3693,19 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>96.0</v>
+        <v>1195.0</v>
       </c>
       <c r="C21" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="D21">
         <f>$B$21+$C$21</f>
       </c>
       <c r="E21" t="n">
-        <v>141.0</v>
+        <v>153.0</v>
       </c>
       <c r="F21" t="n">
-        <v>12.0</v>
+        <v>22.0</v>
       </c>
       <c r="G21" t="n">
         <v>0.0</v>
@@ -3604,19 +3722,19 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>99.0</v>
+        <v>1269.0</v>
       </c>
       <c r="C22" t="n">
-        <v>3.0</v>
+        <v>118.0</v>
       </c>
       <c r="D22">
         <f>$B$22+$C$22</f>
       </c>
       <c r="E22" t="n">
-        <v>168.0</v>
+        <v>2297.0</v>
       </c>
       <c r="F22" t="n">
-        <v>82.0</v>
+        <v>2211.0</v>
       </c>
       <c r="G22" t="n">
         <v>0.0</v>
@@ -3633,19 +3751,19 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>103.0</v>
+        <v>1384.0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="D23">
         <f>$B$23+$C$23</f>
       </c>
       <c r="E23" t="n">
-        <v>160.0</v>
+        <v>151.0</v>
       </c>
       <c r="F23" t="n">
-        <v>21.0</v>
+        <v>17.0</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
@@ -3662,16 +3780,16 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>105.0</v>
+        <v>1391.0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D24">
         <f>$B$24+$C$24</f>
       </c>
       <c r="E24" t="n">
-        <v>130.0</v>
+        <v>131.0</v>
       </c>
       <c r="F24" t="n">
         <v>14.0</v>
@@ -3691,7 +3809,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>106.0</v>
+        <v>1395.0</v>
       </c>
       <c r="C25" t="n">
         <v>2.0</v>
@@ -3700,10 +3818,10 @@
         <f>$B$25+$C$25</f>
       </c>
       <c r="E25" t="n">
-        <v>142.0</v>
+        <v>151.0</v>
       </c>
       <c r="F25" t="n">
-        <v>13.0</v>
+        <v>20.0</v>
       </c>
       <c r="G25" t="n">
         <v>0.0</v>
@@ -3720,19 +3838,19 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>108.0</v>
+        <v>1409.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="D26">
         <f>$B$26+$C$26</f>
       </c>
       <c r="E26" t="n">
-        <v>82.0</v>
+        <v>79.0</v>
       </c>
       <c r="F26" t="n">
-        <v>14.0</v>
+        <v>10.0</v>
       </c>
       <c r="G26" t="n">
         <v>0.0</v>
@@ -3749,19 +3867,19 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>109.0</v>
+        <v>1448.0</v>
       </c>
       <c r="C27" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="D27">
         <f>$B$27+$C$27</f>
       </c>
       <c r="E27" t="n">
-        <v>123.0</v>
+        <v>103.0</v>
       </c>
       <c r="F27" t="n">
-        <v>72.0</v>
+        <v>52.0</v>
       </c>
       <c r="G27" t="n">
         <v>0.0</v>
@@ -3778,19 +3896,19 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>112.0</v>
+        <v>1453.0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D28">
         <f>$B$28+$C$28</f>
       </c>
       <c r="E28" t="n">
-        <v>143.0</v>
+        <v>147.0</v>
       </c>
       <c r="F28" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="G28" t="n">
         <v>0.0</v>
@@ -3807,19 +3925,19 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>113.0</v>
+        <v>1460.0</v>
       </c>
       <c r="C29" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D29">
         <f>$B$29+$C$29</f>
       </c>
       <c r="E29" t="n">
-        <v>168.0</v>
+        <v>148.0</v>
       </c>
       <c r="F29" t="n">
-        <v>28.0</v>
+        <v>13.0</v>
       </c>
       <c r="G29" t="n">
         <v>0.0</v>
@@ -3836,19 +3954,19 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>115.0</v>
+        <v>1471.0</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="D30">
         <f>$B$30+$C$30</f>
       </c>
       <c r="E30" t="n">
-        <v>142.0</v>
+        <v>143.0</v>
       </c>
       <c r="F30" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="G30" t="n">
         <v>0.0</v>
@@ -3865,19 +3983,19 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>117.0</v>
+        <v>1544.0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.0</v>
+        <v>90.0</v>
       </c>
       <c r="D31">
         <f>$B$31+$C$31</f>
       </c>
       <c r="E31" t="n">
-        <v>116.0</v>
+        <v>1116.0</v>
       </c>
       <c r="F31" t="n">
-        <v>44.0</v>
+        <v>1044.0</v>
       </c>
       <c r="G31" t="n">
         <v>0.0</v>
@@ -3991,22 +4109,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.0</v>
+        <v>50.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>102.0</v>
       </c>
       <c r="D2">
         <f>$B$2+$C$2</f>
       </c>
       <c r="E2" t="n">
-        <v>207.0</v>
+        <v>171.0</v>
       </c>
       <c r="F2" t="n">
-        <v>28.0</v>
+        <v>24.0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H2" t="n">
         <v>3.35</v>
@@ -4018,13 +4136,13 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>23.0</v>
+        <v>105.0</v>
       </c>
       <c r="M2" t="n">
-        <v>29.0</v>
+        <v>272.0</v>
       </c>
       <c r="N2" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3">
@@ -4032,19 +4150,19 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>2.0</v>
+        <v>49.0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>102.0</v>
       </c>
       <c r="D3">
         <f>$B$3+$C$3</f>
       </c>
       <c r="E3" t="n">
-        <v>170.0</v>
+        <v>269.0</v>
       </c>
       <c r="F3" t="n">
-        <v>16.0</v>
+        <v>26.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -4059,13 +4177,13 @@
         <v>1.0</v>
       </c>
       <c r="L3" t="n">
-        <v>17.0</v>
+        <v>112.0</v>
       </c>
       <c r="M3" t="n">
-        <v>35.0</v>
+        <v>265.0</v>
       </c>
       <c r="N3" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4">
@@ -4073,22 +4191,22 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>3.0</v>
+        <v>56.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>98.0</v>
       </c>
       <c r="D4">
         <f>$B$4+$C$4</f>
       </c>
       <c r="E4" t="n">
-        <v>150.0</v>
+        <v>143.0</v>
       </c>
       <c r="F4" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
@@ -4100,13 +4218,13 @@
         <v>2.0</v>
       </c>
       <c r="L4" t="n">
-        <v>15.0</v>
+        <v>84.0</v>
       </c>
       <c r="M4" t="n">
-        <v>37.0</v>
+        <v>292.0</v>
       </c>
       <c r="N4" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5">
@@ -4114,19 +4232,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>4.0</v>
+        <v>73.0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>91.0</v>
       </c>
       <c r="D5">
         <f>$B$5+$C$5</f>
       </c>
       <c r="E5" t="n">
-        <v>85.0</v>
+        <v>376.0</v>
       </c>
       <c r="F5" t="n">
-        <v>40.0</v>
+        <v>251.0</v>
       </c>
       <c r="G5" t="n">
         <v>3.0</v>
@@ -4141,13 +4259,13 @@
         <v>3.0</v>
       </c>
       <c r="L5" t="n">
-        <v>10.0</v>
+        <v>80.0</v>
       </c>
       <c r="M5" t="n">
-        <v>43.0</v>
+        <v>297.0</v>
       </c>
       <c r="N5" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6">
@@ -4155,16 +4273,16 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>5.0</v>
+        <v>148.0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="D6">
         <f>$B$6+$C$6</f>
       </c>
       <c r="E6" t="n">
-        <v>166.0</v>
+        <v>240.0</v>
       </c>
       <c r="F6" t="n">
         <v>15.0</v>
@@ -4193,22 +4311,22 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="C7" t="n">
         <v>7.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.0</v>
       </c>
       <c r="D7">
         <f>$B$7+$C$7</f>
       </c>
       <c r="E7" t="n">
-        <v>173.0</v>
+        <v>200.0</v>
       </c>
       <c r="F7" t="n">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="G7" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
@@ -4231,22 +4349,22 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>8.0</v>
+        <v>170.0</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="D8">
         <f>$B$8+$C$8</f>
       </c>
       <c r="E8" t="n">
-        <v>258.0</v>
+        <v>182.0</v>
       </c>
       <c r="F8" t="n">
-        <v>107.0</v>
+        <v>146.0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H8" t="n">
         <v>3.15</v>
@@ -4269,19 +4387,19 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>10.0</v>
+        <v>173.0</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>19.0</v>
       </c>
       <c r="D9">
         <f>$B$9+$C$9</f>
       </c>
       <c r="E9" t="n">
-        <v>151.0</v>
+        <v>542.0</v>
       </c>
       <c r="F9" t="n">
-        <v>64.0</v>
+        <v>318.0</v>
       </c>
       <c r="G9" t="n">
         <v>3.0</v>
@@ -4307,19 +4425,19 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>11.0</v>
+        <v>192.0</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D10">
         <f>$B$10+$C$10</f>
       </c>
       <c r="E10" t="n">
-        <v>151.0</v>
+        <v>305.0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.0</v>
+        <v>32.0</v>
       </c>
       <c r="G10" t="n">
         <v>3.0</v>
@@ -4345,22 +4463,22 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0</v>
+        <v>193.0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="D11">
         <f>$B$11+$C$11</f>
       </c>
       <c r="E11" t="n">
-        <v>151.0</v>
+        <v>170.0</v>
       </c>
       <c r="F11" t="n">
-        <v>12.0</v>
+        <v>25.0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H11" t="n">
         <v>3.6</v>
@@ -4383,22 +4501,22 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>15.0</v>
+        <v>193.0</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="D12">
         <f>$B$12+$C$12</f>
       </c>
       <c r="E12" t="n">
-        <v>177.0</v>
+        <v>176.0</v>
       </c>
       <c r="F12" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H12" t="n">
         <v>3.35</v>
@@ -4421,22 +4539,22 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>15.0</v>
+        <v>195.0</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="D13">
         <f>$B$13+$C$13</f>
       </c>
       <c r="E13" t="n">
-        <v>185.0</v>
+        <v>211.0</v>
       </c>
       <c r="F13" t="n">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H13" t="n">
         <v>3.6</v>
@@ -4459,22 +4577,22 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>15.0</v>
+        <v>196.0</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="D14">
         <f>$B$14+$C$14</f>
       </c>
       <c r="E14" t="n">
-        <v>142.0</v>
+        <v>144.0</v>
       </c>
       <c r="F14" t="n">
         <v>13.0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
@@ -4497,22 +4615,22 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>18.0</v>
+        <v>201.0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D15">
         <f>$B$15+$C$15</f>
       </c>
       <c r="E15" t="n">
-        <v>133.0</v>
+        <v>201.0</v>
       </c>
       <c r="F15" t="n">
-        <v>70.0</v>
+        <v>84.0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H15" t="n">
         <v>3.15</v>
@@ -4535,22 +4653,22 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>20.0</v>
+        <v>204.0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D16">
         <f>$B$16+$C$16</f>
       </c>
       <c r="E16" t="n">
-        <v>128.0</v>
+        <v>106.0</v>
       </c>
       <c r="F16" t="n">
         <v>11.0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H16" t="n">
         <v>3.4</v>
@@ -4573,22 +4691,22 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>20.0</v>
+        <v>207.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D17">
         <f>$B$17+$C$17</f>
       </c>
       <c r="E17" t="n">
-        <v>85.0</v>
+        <v>76.0</v>
       </c>
       <c r="F17" t="n">
-        <v>42.0</v>
+        <v>29.0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H17" t="n">
         <v>3.15</v>
@@ -4611,19 +4729,19 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>21.0</v>
+        <v>210.0</v>
       </c>
       <c r="C18" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D18">
         <f>$B$18+$C$18</f>
       </c>
       <c r="E18" t="n">
-        <v>161.0</v>
+        <v>154.0</v>
       </c>
       <c r="F18" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="G18" t="n">
         <v>2.0</v>
@@ -4649,22 +4767,22 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>21.0</v>
+        <v>210.0</v>
       </c>
       <c r="C19" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D19">
         <f>$B$19+$C$19</f>
       </c>
       <c r="E19" t="n">
-        <v>327.0</v>
+        <v>161.0</v>
       </c>
       <c r="F19" t="n">
-        <v>31.0</v>
+        <v>19.0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
@@ -4687,19 +4805,19 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>24.0</v>
+        <v>210.0</v>
       </c>
       <c r="C20" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D20">
         <f>$B$20+$C$20</f>
       </c>
       <c r="E20" t="n">
-        <v>209.0</v>
+        <v>119.0</v>
       </c>
       <c r="F20" t="n">
-        <v>28.0</v>
+        <v>12.0</v>
       </c>
       <c r="G20" t="n">
         <v>3.0</v>
@@ -4725,22 +4843,22 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>26.0</v>
+        <v>211.0</v>
       </c>
       <c r="C21" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D21">
         <f>$B$21+$C$21</f>
       </c>
       <c r="E21" t="n">
-        <v>238.0</v>
+        <v>250.0</v>
       </c>
       <c r="F21" t="n">
-        <v>49.0</v>
+        <v>26.0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
@@ -4763,19 +4881,19 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>27.0</v>
+        <v>215.0</v>
       </c>
       <c r="C22" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="D22">
         <f>$B$22+$C$22</f>
       </c>
       <c r="E22" t="n">
-        <v>338.0</v>
+        <v>476.0</v>
       </c>
       <c r="F22" t="n">
-        <v>252.0</v>
+        <v>244.0</v>
       </c>
       <c r="G22" t="n">
         <v>1.0</v>
@@ -4792,22 +4910,22 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>33.0</v>
+        <v>225.0</v>
       </c>
       <c r="C23" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D23">
         <f>$B$23+$C$23</f>
       </c>
       <c r="E23" t="n">
-        <v>191.0</v>
+        <v>406.0</v>
       </c>
       <c r="F23" t="n">
-        <v>37.0</v>
+        <v>58.0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H23" t="n">
         <v>3.6</v>
@@ -4821,7 +4939,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>34.0</v>
+        <v>228.0</v>
       </c>
       <c r="C24" t="n">
         <v>2.0</v>
@@ -4830,13 +4948,13 @@
         <f>$B$24+$C$24</f>
       </c>
       <c r="E24" t="n">
-        <v>260.0</v>
+        <v>128.0</v>
       </c>
       <c r="F24" t="n">
-        <v>43.0</v>
+        <v>11.0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H24" t="n">
         <v>3.35</v>
@@ -4850,22 +4968,22 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>35.0</v>
+        <v>229.0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="D25">
         <f>$B$25+$C$25</f>
       </c>
       <c r="E25" t="n">
-        <v>223.0</v>
+        <v>173.0</v>
       </c>
       <c r="F25" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H25" t="n">
         <v>3.4</v>
@@ -4879,22 +4997,22 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>36.0</v>
+        <v>230.0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D26">
         <f>$B$26+$C$26</f>
       </c>
       <c r="E26" t="n">
-        <v>95.0</v>
+        <v>78.0</v>
       </c>
       <c r="F26" t="n">
         <v>9.0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H26" t="n">
         <v>3.35</v>
@@ -4908,19 +5026,19 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>38.0</v>
+        <v>232.0</v>
       </c>
       <c r="C27" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D27">
         <f>$B$27+$C$27</f>
       </c>
       <c r="E27" t="n">
-        <v>205.0</v>
+        <v>140.0</v>
       </c>
       <c r="F27" t="n">
-        <v>134.0</v>
+        <v>64.0</v>
       </c>
       <c r="G27" t="n">
         <v>2.0</v>
@@ -4937,22 +5055,22 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>41.0</v>
+        <v>240.0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.0</v>
+        <v>28.0</v>
       </c>
       <c r="D28">
         <f>$B$28+$C$28</f>
       </c>
       <c r="E28" t="n">
-        <v>230.0</v>
+        <v>205.0</v>
       </c>
       <c r="F28" t="n">
-        <v>29.0</v>
+        <v>24.0</v>
       </c>
       <c r="G28" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H28" t="n">
         <v>3.35</v>
@@ -4966,19 +5084,19 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>42.0</v>
+        <v>262.0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="D29">
         <f>$B$29+$C$29</f>
       </c>
       <c r="E29" t="n">
-        <v>107.0</v>
+        <v>503.0</v>
       </c>
       <c r="F29" t="n">
-        <v>10.0</v>
+        <v>56.0</v>
       </c>
       <c r="G29" t="n">
         <v>3.0</v>
@@ -4995,22 +5113,22 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>43.0</v>
+        <v>249.0</v>
       </c>
       <c r="C30" t="n">
-        <v>6.0</v>
+        <v>56.0</v>
       </c>
       <c r="D30">
         <f>$B$30+$C$30</f>
       </c>
       <c r="E30" t="n">
-        <v>355.0</v>
+        <v>176.0</v>
       </c>
       <c r="F30" t="n">
-        <v>32.0</v>
+        <v>16.0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H30" t="n">
         <v>3.4</v>
@@ -5024,22 +5142,22 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>50.0</v>
+        <v>295.0</v>
       </c>
       <c r="C31" t="n">
-        <v>4.0</v>
+        <v>123.0</v>
       </c>
       <c r="D31">
         <f>$B$31+$C$31</f>
       </c>
       <c r="E31" t="n">
-        <v>318.0</v>
+        <v>2679.0</v>
       </c>
       <c r="F31" t="n">
-        <v>191.0</v>
+        <v>2502.0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H31" t="n">
         <v>3.15</v>
@@ -5150,19 +5268,19 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>51.0</v>
+        <v>2159.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D2">
         <f>$B$2+$C$2</f>
       </c>
       <c r="E2" t="n">
-        <v>143.0</v>
+        <v>230.0</v>
       </c>
       <c r="F2" t="n">
-        <v>15.0</v>
+        <v>101.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -5177,13 +5295,13 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.0</v>
+        <v>808.0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.0</v>
+        <v>1299.0</v>
       </c>
       <c r="N2" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3">
@@ -5191,19 +5309,19 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>33.0</v>
+        <v>1361.0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D3">
         <f>$B$3+$C$3</f>
       </c>
       <c r="E3" t="n">
-        <v>172.0</v>
+        <v>147.0</v>
       </c>
       <c r="F3" t="n">
-        <v>33.0</v>
+        <v>13.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -5229,19 +5347,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>20.0</v>
+        <v>915.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D4">
         <f>$B$4+$C$4</f>
       </c>
       <c r="E4" t="n">
-        <v>143.0</v>
+        <v>174.0</v>
       </c>
       <c r="F4" t="n">
-        <v>14.0</v>
+        <v>43.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -5267,19 +5385,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>24.0</v>
+        <v>1164.0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>194.0</v>
       </c>
       <c r="D5">
         <f>$B$5+$C$5</f>
       </c>
       <c r="E5" t="n">
-        <v>137.0</v>
+        <v>5957.0</v>
       </c>
       <c r="F5" t="n">
-        <v>58.0</v>
+        <v>5878.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -5305,19 +5423,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>45.0</v>
+        <v>2095.0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="D6">
         <f>$B$6+$C$6</f>
       </c>
       <c r="E6" t="n">
-        <v>161.0</v>
+        <v>305.0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.0</v>
+        <v>171.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -5343,19 +5461,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>18.0</v>
+        <v>905.0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D7">
         <f>$B$7+$C$7</f>
       </c>
       <c r="E7" t="n">
-        <v>158.0</v>
+        <v>152.0</v>
       </c>
       <c r="F7" t="n">
-        <v>29.0</v>
+        <v>21.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -5381,19 +5499,19 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>27.0</v>
+        <v>1111.0</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>116.0</v>
       </c>
       <c r="D8">
         <f>$B$8+$C$8</f>
       </c>
       <c r="E8" t="n">
-        <v>166.0</v>
+        <v>3686.0</v>
       </c>
       <c r="F8" t="n">
-        <v>87.0</v>
+        <v>3607.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
@@ -5419,19 +5537,19 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1.0</v>
+        <v>264.0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>177.0</v>
       </c>
       <c r="D9">
         <f>$B$9+$C$9</f>
       </c>
       <c r="E9" t="n">
-        <v>145.0</v>
+        <v>2299.0</v>
       </c>
       <c r="F9" t="n">
-        <v>66.0</v>
+        <v>2220.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -5457,19 +5575,19 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>52.0</v>
+        <v>2158.0</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D10">
         <f>$B$10+$C$10</f>
       </c>
       <c r="E10" t="n">
-        <v>167.0</v>
+        <v>225.0</v>
       </c>
       <c r="F10" t="n">
-        <v>38.0</v>
+        <v>94.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -5495,19 +5613,19 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>8.0</v>
+        <v>572.0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="D11">
         <f>$B$11+$C$11</f>
       </c>
       <c r="E11" t="n">
-        <v>153.0</v>
+        <v>194.0</v>
       </c>
       <c r="F11" t="n">
-        <v>14.0</v>
+        <v>60.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
@@ -5533,19 +5651,19 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>45.0</v>
+        <v>2112.0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>40.0</v>
       </c>
       <c r="D12">
         <f>$B$12+$C$12</f>
       </c>
       <c r="E12" t="n">
-        <v>140.0</v>
+        <v>1624.0</v>
       </c>
       <c r="F12" t="n">
-        <v>12.0</v>
+        <v>1495.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
@@ -5571,19 +5689,19 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>11.0</v>
+        <v>618.0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="D13">
         <f>$B$13+$C$13</f>
       </c>
       <c r="E13" t="n">
-        <v>160.0</v>
+        <v>368.0</v>
       </c>
       <c r="F13" t="n">
-        <v>20.0</v>
+        <v>233.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -5609,19 +5727,19 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>3.0</v>
+        <v>457.0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>21.0</v>
       </c>
       <c r="D14">
         <f>$B$14+$C$14</f>
       </c>
       <c r="E14" t="n">
-        <v>141.0</v>
+        <v>184.0</v>
       </c>
       <c r="F14" t="n">
-        <v>12.0</v>
+        <v>53.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -5647,19 +5765,19 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>55.0</v>
+        <v>2186.0</v>
       </c>
       <c r="C15" t="n">
-        <v>6.0</v>
+        <v>63.0</v>
       </c>
       <c r="D15">
         <f>$B$15+$C$15</f>
       </c>
       <c r="E15" t="n">
-        <v>100.0</v>
+        <v>2992.0</v>
       </c>
       <c r="F15" t="n">
-        <v>35.0</v>
+        <v>2927.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -5685,19 +5803,19 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>26.0</v>
+        <v>1229.0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D16">
         <f>$B$16+$C$16</f>
       </c>
       <c r="E16" t="n">
-        <v>129.0</v>
+        <v>151.0</v>
       </c>
       <c r="F16" t="n">
-        <v>12.0</v>
+        <v>32.0</v>
       </c>
       <c r="G16" t="n">
         <v>0.0</v>
@@ -5723,19 +5841,19 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>15.0</v>
+        <v>804.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="D17">
         <f>$B$17+$C$17</f>
       </c>
       <c r="E17" t="n">
-        <v>46.0</v>
+        <v>844.0</v>
       </c>
       <c r="F17" t="n">
-        <v>16.0</v>
+        <v>814.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
@@ -5761,19 +5879,19 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>33.0</v>
+        <v>1436.0</v>
       </c>
       <c r="C18" t="n">
-        <v>2.0</v>
+        <v>45.0</v>
       </c>
       <c r="D18">
         <f>$B$18+$C$18</f>
       </c>
       <c r="E18" t="n">
-        <v>181.0</v>
+        <v>1998.0</v>
       </c>
       <c r="F18" t="n">
-        <v>39.0</v>
+        <v>1861.0</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>
@@ -5799,19 +5917,19 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>4.0</v>
+        <v>489.0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.0</v>
+        <v>49.0</v>
       </c>
       <c r="D19">
         <f>$B$19+$C$19</f>
       </c>
       <c r="E19" t="n">
-        <v>142.0</v>
+        <v>488.0</v>
       </c>
       <c r="F19" t="n">
-        <v>13.0</v>
+        <v>357.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
@@ -5828,19 +5946,19 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>63.0</v>
+        <v>2255.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D20">
         <f>$B$20+$C$20</f>
       </c>
       <c r="E20" t="n">
-        <v>132.0</v>
+        <v>296.0</v>
       </c>
       <c r="F20" t="n">
-        <v>21.0</v>
+        <v>189.0</v>
       </c>
       <c r="G20" t="n">
         <v>0.0</v>
@@ -5857,19 +5975,19 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>59.0</v>
+        <v>2162.0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D21">
         <f>$B$21+$C$21</f>
       </c>
       <c r="E21" t="n">
-        <v>143.0</v>
+        <v>153.0</v>
       </c>
       <c r="F21" t="n">
-        <v>14.0</v>
+        <v>22.0</v>
       </c>
       <c r="G21" t="n">
         <v>0.0</v>
@@ -5886,19 +6004,19 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>38.0</v>
+        <v>1812.0</v>
       </c>
       <c r="C22" t="n">
-        <v>4.0</v>
+        <v>242.0</v>
       </c>
       <c r="D22">
         <f>$B$22+$C$22</f>
       </c>
       <c r="E22" t="n">
-        <v>162.0</v>
+        <v>8635.0</v>
       </c>
       <c r="F22" t="n">
-        <v>76.0</v>
+        <v>8549.0</v>
       </c>
       <c r="G22" t="n">
         <v>0.0</v>
@@ -5915,19 +6033,19 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>8.0</v>
+        <v>570.0</v>
       </c>
       <c r="C23" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="D23">
         <f>$B$23+$C$23</f>
       </c>
       <c r="E23" t="n">
-        <v>151.0</v>
+        <v>193.0</v>
       </c>
       <c r="F23" t="n">
-        <v>12.0</v>
+        <v>59.0</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
@@ -5944,19 +6062,19 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>28.0</v>
+        <v>1233.0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D24">
         <f>$B$24+$C$24</f>
       </c>
       <c r="E24" t="n">
-        <v>127.0</v>
+        <v>147.0</v>
       </c>
       <c r="F24" t="n">
-        <v>11.0</v>
+        <v>30.0</v>
       </c>
       <c r="G24" t="n">
         <v>0.0</v>
@@ -5973,19 +6091,19 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>18.0</v>
+        <v>903.0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="D25">
         <f>$B$25+$C$25</f>
       </c>
       <c r="E25" t="n">
-        <v>150.0</v>
+        <v>191.0</v>
       </c>
       <c r="F25" t="n">
-        <v>21.0</v>
+        <v>60.0</v>
       </c>
       <c r="G25" t="n">
         <v>0.0</v>
@@ -6002,19 +6120,19 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>11.0</v>
+        <v>602.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="D26">
         <f>$B$26+$C$26</f>
       </c>
       <c r="E26" t="n">
-        <v>76.0</v>
+        <v>304.0</v>
       </c>
       <c r="F26" t="n">
-        <v>8.0</v>
+        <v>235.0</v>
       </c>
       <c r="G26" t="n">
         <v>0.0</v>
@@ -6031,19 +6149,19 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>37.0</v>
+        <v>1864.0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.0</v>
+        <v>216.0</v>
       </c>
       <c r="D27">
         <f>$B$27+$C$27</f>
       </c>
       <c r="E27" t="n">
-        <v>100.0</v>
+        <v>7446.0</v>
       </c>
       <c r="F27" t="n">
-        <v>49.0</v>
+        <v>7395.0</v>
       </c>
       <c r="G27" t="n">
         <v>0.0</v>
@@ -6060,19 +6178,19 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>12.0</v>
+        <v>662.0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.0</v>
+        <v>81.0</v>
       </c>
       <c r="D28">
         <f>$B$28+$C$28</f>
       </c>
       <c r="E28" t="n">
-        <v>164.0</v>
+        <v>2106.0</v>
       </c>
       <c r="F28" t="n">
-        <v>36.0</v>
+        <v>1977.0</v>
       </c>
       <c r="G28" t="n">
         <v>0.0</v>
@@ -6089,19 +6207,19 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>46.0</v>
+        <v>2101.0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D29">
         <f>$B$29+$C$29</f>
       </c>
       <c r="E29" t="n">
-        <v>152.0</v>
+        <v>211.0</v>
       </c>
       <c r="F29" t="n">
-        <v>12.0</v>
+        <v>76.0</v>
       </c>
       <c r="G29" t="n">
         <v>0.0</v>
@@ -6118,19 +6236,19 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>63.0</v>
+        <v>2254.0</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D30">
         <f>$B$30+$C$30</f>
       </c>
       <c r="E30" t="n">
-        <v>164.0</v>
+        <v>355.0</v>
       </c>
       <c r="F30" t="n">
-        <v>35.0</v>
+        <v>224.0</v>
       </c>
       <c r="G30" t="n">
         <v>0.0</v>
@@ -6147,19 +6265,19 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>15.0</v>
+        <v>819.0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.0</v>
+        <v>78.0</v>
       </c>
       <c r="D31">
         <f>$B$31+$C$31</f>
       </c>
       <c r="E31" t="n">
-        <v>108.0</v>
+        <v>1914.0</v>
       </c>
       <c r="F31" t="n">
-        <v>36.0</v>
+        <v>1842.0</v>
       </c>
       <c r="G31" t="n">
         <v>0.0</v>
@@ -6273,7 +6391,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>44.0</v>
+        <v>347.0</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -6282,13 +6400,13 @@
         <f>$B$2+$C$2</f>
       </c>
       <c r="E2" t="n">
-        <v>156.0</v>
+        <v>160.0</v>
       </c>
       <c r="F2" t="n">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H2" t="n">
         <v>3.35</v>
@@ -6300,13 +6418,13 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>22.0</v>
+        <v>93.0</v>
       </c>
       <c r="M2" t="n">
-        <v>25.0</v>
+        <v>243.0</v>
       </c>
       <c r="N2" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3">
@@ -6314,7 +6432,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>29.0</v>
+        <v>322.0</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -6323,13 +6441,13 @@
         <f>$B$3+$C$3</f>
       </c>
       <c r="E3" t="n">
-        <v>158.0</v>
+        <v>153.0</v>
       </c>
       <c r="F3" t="n">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H3" t="n">
         <v>3.6</v>
@@ -6341,13 +6459,13 @@
         <v>1.0</v>
       </c>
       <c r="L3" t="n">
-        <v>22.0</v>
+        <v>42.0</v>
       </c>
       <c r="M3" t="n">
-        <v>25.0</v>
+        <v>264.0</v>
       </c>
       <c r="N3" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4">
@@ -6355,22 +6473,22 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>17.0</v>
+        <v>297.0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D4">
         <f>$B$4+$C$4</f>
       </c>
       <c r="E4" t="n">
-        <v>194.0</v>
+        <v>241.0</v>
       </c>
       <c r="F4" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
@@ -6382,13 +6500,13 @@
         <v>2.0</v>
       </c>
       <c r="L4" t="n">
-        <v>11.0</v>
+        <v>36.0</v>
       </c>
       <c r="M4" t="n">
-        <v>36.0</v>
+        <v>271.0</v>
       </c>
       <c r="N4" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5">
@@ -6396,22 +6514,22 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>22.0</v>
+        <v>311.0</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="D5">
         <f>$B$5+$C$5</f>
       </c>
       <c r="E5" t="n">
-        <v>329.0</v>
+        <v>374.0</v>
       </c>
       <c r="F5" t="n">
-        <v>129.0</v>
+        <v>259.0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H5" t="n">
         <v>3.15</v>
@@ -6423,13 +6541,13 @@
         <v>3.0</v>
       </c>
       <c r="L5" t="n">
-        <v>10.0</v>
+        <v>31.0</v>
       </c>
       <c r="M5" t="n">
-        <v>37.0</v>
+        <v>276.0</v>
       </c>
       <c r="N5" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6">
@@ -6437,7 +6555,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>36.0</v>
+        <v>343.0</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -6446,10 +6564,10 @@
         <f>$B$6+$C$6</f>
       </c>
       <c r="E6" t="n">
-        <v>156.0</v>
+        <v>167.0</v>
       </c>
       <c r="F6" t="n">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="G6" t="n">
         <v>2.0</v>
@@ -6475,22 +6593,22 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>16.0</v>
+        <v>295.0</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D7">
         <f>$B$7+$C$7</f>
       </c>
       <c r="E7" t="n">
-        <v>148.0</v>
+        <v>179.0</v>
       </c>
       <c r="F7" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
@@ -6513,22 +6631,22 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>22.0</v>
+        <v>307.0</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="D8">
         <f>$B$8+$C$8</f>
       </c>
       <c r="E8" t="n">
-        <v>123.0</v>
+        <v>527.0</v>
       </c>
       <c r="F8" t="n">
-        <v>66.0</v>
+        <v>367.0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H8" t="n">
         <v>3.15</v>
@@ -6551,22 +6669,22 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>2.0</v>
+        <v>87.0</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>182.0</v>
       </c>
       <c r="D9">
         <f>$B$9+$C$9</f>
       </c>
       <c r="E9" t="n">
-        <v>273.0</v>
+        <v>3287.0</v>
       </c>
       <c r="F9" t="n">
-        <v>130.0</v>
+        <v>3134.0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H9" t="n">
         <v>3.15</v>
@@ -6589,7 +6707,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>44.0</v>
+        <v>347.0</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -6598,10 +6716,10 @@
         <f>$B$10+$C$10</f>
       </c>
       <c r="E10" t="n">
-        <v>157.0</v>
+        <v>136.0</v>
       </c>
       <c r="F10" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="G10" t="n">
         <v>1.0</v>
@@ -6627,22 +6745,22 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>5.0</v>
+        <v>254.0</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>24.0</v>
       </c>
       <c r="D11">
         <f>$B$11+$C$11</f>
       </c>
       <c r="E11" t="n">
-        <v>277.0</v>
+        <v>146.0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.0</v>
+        <v>12.0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H11" t="n">
         <v>3.6</v>
@@ -6665,22 +6783,22 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>36.0</v>
+        <v>342.0</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D12">
         <f>$B$12+$C$12</f>
       </c>
       <c r="E12" t="n">
-        <v>262.0</v>
+        <v>159.0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.0</v>
+        <v>16.0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H12" t="n">
         <v>3.35</v>
@@ -6703,22 +6821,22 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>8.0</v>
+        <v>277.0</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D13">
         <f>$B$13+$C$13</f>
       </c>
       <c r="E13" t="n">
-        <v>276.0</v>
+        <v>285.0</v>
       </c>
       <c r="F13" t="n">
-        <v>51.0</v>
+        <v>23.0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H13" t="n">
         <v>3.6</v>
@@ -6741,22 +6859,22 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>4.0</v>
+        <v>219.0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>56.0</v>
       </c>
       <c r="D14">
         <f>$B$14+$C$14</f>
       </c>
       <c r="E14" t="n">
-        <v>219.0</v>
+        <v>151.0</v>
       </c>
       <c r="F14" t="n">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
@@ -6779,19 +6897,19 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>41.0</v>
+        <v>350.0</v>
       </c>
       <c r="C15" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="D15">
         <f>$B$15+$C$15</f>
       </c>
       <c r="E15" t="n">
-        <v>486.0</v>
+        <v>610.0</v>
       </c>
       <c r="F15" t="n">
-        <v>261.0</v>
+        <v>400.0</v>
       </c>
       <c r="G15" t="n">
         <v>2.0</v>
@@ -6817,7 +6935,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>20.0</v>
+        <v>301.0</v>
       </c>
       <c r="C16" t="n">
         <v>2.0</v>
@@ -6826,13 +6944,13 @@
         <f>$B$16+$C$16</f>
       </c>
       <c r="E16" t="n">
-        <v>128.0</v>
+        <v>120.0</v>
       </c>
       <c r="F16" t="n">
-        <v>11.0</v>
+        <v>25.0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H16" t="n">
         <v>3.4</v>
@@ -6855,22 +6973,22 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>13.0</v>
+        <v>284.0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="D17">
         <f>$B$17+$C$17</f>
       </c>
       <c r="E17" t="n">
-        <v>63.0</v>
+        <v>201.0</v>
       </c>
       <c r="F17" t="n">
-        <v>33.0</v>
+        <v>168.0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H17" t="n">
         <v>3.15</v>
@@ -6893,7 +7011,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>29.0</v>
+        <v>321.0</v>
       </c>
       <c r="C18" t="n">
         <v>2.0</v>
@@ -6902,13 +7020,13 @@
         <f>$B$18+$C$18</f>
       </c>
       <c r="E18" t="n">
-        <v>173.0</v>
+        <v>163.0</v>
       </c>
       <c r="F18" t="n">
-        <v>25.0</v>
+        <v>14.0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H18" t="n">
         <v>3.6</v>
@@ -6931,19 +7049,19 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>3.0</v>
+        <v>219.0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.0</v>
+        <v>56.0</v>
       </c>
       <c r="D19">
         <f>$B$19+$C$19</f>
       </c>
       <c r="E19" t="n">
-        <v>183.0</v>
+        <v>164.0</v>
       </c>
       <c r="F19" t="n">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
@@ -6969,22 +7087,22 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>46.0</v>
+        <v>362.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D20">
         <f>$B$20+$C$20</f>
       </c>
       <c r="E20" t="n">
-        <v>216.0</v>
+        <v>207.0</v>
       </c>
       <c r="F20" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H20" t="n">
         <v>3.6</v>
@@ -7007,10 +7125,10 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>39.0</v>
+        <v>346.0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D21">
         <f>$B$21+$C$21</f>
@@ -7019,7 +7137,7 @@
         <v>156.0</v>
       </c>
       <c r="F21" t="n">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
       <c r="G21" t="n">
         <v>3.0</v>
@@ -7045,22 +7163,22 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>29.0</v>
+        <v>324.0</v>
       </c>
       <c r="C22" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="D22">
         <f>$B$22+$C$22</f>
       </c>
       <c r="E22" t="n">
-        <v>316.0</v>
+        <v>453.0</v>
       </c>
       <c r="F22" t="n">
-        <v>139.0</v>
+        <v>328.0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H22" t="n">
         <v>3.15</v>
@@ -7074,22 +7192,22 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>5.0</v>
+        <v>263.0</v>
       </c>
       <c r="C23" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c r="D23">
         <f>$B$23+$C$23</f>
       </c>
       <c r="E23" t="n">
-        <v>168.0</v>
+        <v>153.0</v>
       </c>
       <c r="F23" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H23" t="n">
         <v>3.6</v>
@@ -7103,22 +7221,22 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>19.0</v>
+        <v>299.0</v>
       </c>
       <c r="C24" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="D24">
         <f>$B$24+$C$24</f>
       </c>
       <c r="E24" t="n">
-        <v>69.0</v>
+        <v>144.0</v>
       </c>
       <c r="F24" t="n">
-        <v>9.0</v>
+        <v>27.0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H24" t="n">
         <v>3.35</v>
@@ -7132,7 +7250,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>15.0</v>
+        <v>293.0</v>
       </c>
       <c r="C25" t="n">
         <v>3.0</v>
@@ -7141,10 +7259,10 @@
         <f>$B$25+$C$25</f>
       </c>
       <c r="E25" t="n">
-        <v>210.0</v>
+        <v>176.0</v>
       </c>
       <c r="F25" t="n">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="G25" t="n">
         <v>3.0</v>
@@ -7161,19 +7279,19 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>7.0</v>
+        <v>268.0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="D26">
         <f>$B$26+$C$26</f>
       </c>
       <c r="E26" t="n">
-        <v>99.0</v>
+        <v>82.0</v>
       </c>
       <c r="F26" t="n">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
       <c r="G26" t="n">
         <v>3.0</v>
@@ -7190,22 +7308,22 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>29.0</v>
+        <v>333.0</v>
       </c>
       <c r="C27" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="D27">
         <f>$B$27+$C$27</f>
       </c>
       <c r="E27" t="n">
-        <v>89.0</v>
+        <v>254.0</v>
       </c>
       <c r="F27" t="n">
-        <v>37.0</v>
+        <v>182.0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H27" t="n">
         <v>3.15</v>
@@ -7219,22 +7337,22 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>8.0</v>
+        <v>267.0</v>
       </c>
       <c r="C28" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="D28">
         <f>$B$28+$C$28</f>
       </c>
       <c r="E28" t="n">
-        <v>482.0</v>
+        <v>149.0</v>
       </c>
       <c r="F28" t="n">
-        <v>76.0</v>
+        <v>20.0</v>
       </c>
       <c r="G28" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H28" t="n">
         <v>3.35</v>
@@ -7248,7 +7366,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>35.0</v>
+        <v>341.0</v>
       </c>
       <c r="C29" t="n">
         <v>2.0</v>
@@ -7257,13 +7375,13 @@
         <f>$B$29+$C$29</f>
       </c>
       <c r="E29" t="n">
-        <v>153.0</v>
+        <v>161.0</v>
       </c>
       <c r="F29" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H29" t="n">
         <v>3.6</v>
@@ -7277,7 +7395,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>46.0</v>
+        <v>362.0</v>
       </c>
       <c r="C30" t="n">
         <v>2.0</v>
@@ -7286,13 +7404,13 @@
         <f>$B$30+$C$30</f>
       </c>
       <c r="E30" t="n">
-        <v>156.0</v>
+        <v>293.0</v>
       </c>
       <c r="F30" t="n">
-        <v>15.0</v>
+        <v>35.0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H30" t="n">
         <v>3.4</v>
@@ -7306,22 +7424,22 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>12.0</v>
+        <v>283.0</v>
       </c>
       <c r="C31" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="D31">
         <f>$B$31+$C$31</f>
       </c>
       <c r="E31" t="n">
-        <v>179.0</v>
+        <v>281.0</v>
       </c>
       <c r="F31" t="n">
-        <v>73.0</v>
+        <v>173.0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H31" t="n">
         <v>3.15</v>
@@ -7432,19 +7550,19 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.0</v>
+        <v>1060.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="D2">
         <f>$B$2+$C$2</f>
       </c>
       <c r="E2" t="n">
-        <v>153.0</v>
+        <v>395.0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.0</v>
+        <v>266.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -7459,13 +7577,13 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>33.0</v>
+        <v>449.0</v>
       </c>
       <c r="M2" t="n">
-        <v>29.0</v>
+        <v>984.0</v>
       </c>
       <c r="N2" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3">
@@ -7473,19 +7591,19 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>49.0</v>
+        <v>1377.0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D3">
         <f>$B$3+$C$3</f>
       </c>
       <c r="E3" t="n">
-        <v>156.0</v>
+        <v>147.0</v>
       </c>
       <c r="F3" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -7511,19 +7629,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>39.0</v>
+        <v>1126.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D4">
         <f>$B$4+$C$4</f>
       </c>
       <c r="E4" t="n">
-        <v>142.0</v>
+        <v>228.0</v>
       </c>
       <c r="F4" t="n">
-        <v>13.0</v>
+        <v>97.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -7549,19 +7667,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>10.0</v>
+        <v>145.0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>135.0</v>
       </c>
       <c r="D5">
         <f>$B$5+$C$5</f>
       </c>
       <c r="E5" t="n">
-        <v>211.0</v>
+        <v>1785.0</v>
       </c>
       <c r="F5" t="n">
-        <v>132.0</v>
+        <v>1706.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -7587,19 +7705,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>51.0</v>
+        <v>1386.0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>25.0</v>
       </c>
       <c r="D6">
         <f>$B$6+$C$6</f>
       </c>
       <c r="E6" t="n">
-        <v>156.0</v>
+        <v>768.0</v>
       </c>
       <c r="F6" t="n">
-        <v>17.0</v>
+        <v>634.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -7625,19 +7743,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>40.0</v>
+        <v>1137.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="D7">
         <f>$B$7+$C$7</f>
       </c>
       <c r="E7" t="n">
-        <v>141.0</v>
+        <v>901.0</v>
       </c>
       <c r="F7" t="n">
-        <v>12.0</v>
+        <v>770.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -7663,19 +7781,19 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>2.0</v>
+        <v>215.0</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>73.0</v>
       </c>
       <c r="D8">
         <f>$B$8+$C$8</f>
       </c>
       <c r="E8" t="n">
-        <v>237.0</v>
+        <v>521.0</v>
       </c>
       <c r="F8" t="n">
-        <v>158.0</v>
+        <v>442.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
@@ -7701,19 +7819,19 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>13.0</v>
+        <v>326.0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>87.0</v>
       </c>
       <c r="D9">
         <f>$B$9+$C$9</f>
       </c>
       <c r="E9" t="n">
-        <v>109.0</v>
+        <v>2919.0</v>
       </c>
       <c r="F9" t="n">
-        <v>30.0</v>
+        <v>2840.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -7739,10 +7857,10 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>42.0</v>
+        <v>1162.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D10">
         <f>$B$10+$C$10</f>
@@ -7751,7 +7869,7 @@
         <v>143.0</v>
       </c>
       <c r="F10" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -7777,19 +7895,19 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>52.0</v>
+        <v>1415.0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D11">
         <f>$B$11+$C$11</f>
       </c>
       <c r="E11" t="n">
-        <v>170.0</v>
+        <v>190.0</v>
       </c>
       <c r="F11" t="n">
-        <v>31.0</v>
+        <v>56.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
@@ -7815,19 +7933,19 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>34.0</v>
+        <v>1072.0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="D12">
         <f>$B$12+$C$12</f>
       </c>
       <c r="E12" t="n">
-        <v>189.0</v>
+        <v>324.0</v>
       </c>
       <c r="F12" t="n">
-        <v>61.0</v>
+        <v>195.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
@@ -7853,19 +7971,19 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>54.0</v>
+        <v>1415.0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="D13">
         <f>$B$13+$C$13</f>
       </c>
       <c r="E13" t="n">
-        <v>161.0</v>
+        <v>353.0</v>
       </c>
       <c r="F13" t="n">
-        <v>21.0</v>
+        <v>218.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -7891,19 +8009,19 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>42.0</v>
+        <v>1165.0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="D14">
         <f>$B$14+$C$14</f>
       </c>
       <c r="E14" t="n">
-        <v>147.0</v>
+        <v>235.0</v>
       </c>
       <c r="F14" t="n">
-        <v>18.0</v>
+        <v>104.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -7929,19 +8047,19 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>16.0</v>
+        <v>449.0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.0</v>
+        <v>103.0</v>
       </c>
       <c r="D15">
         <f>$B$15+$C$15</f>
       </c>
       <c r="E15" t="n">
-        <v>120.0</v>
+        <v>4484.0</v>
       </c>
       <c r="F15" t="n">
-        <v>55.0</v>
+        <v>4419.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -7967,19 +8085,19 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>43.0</v>
+        <v>1172.0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D16">
         <f>$B$16+$C$16</f>
       </c>
       <c r="E16" t="n">
-        <v>128.0</v>
+        <v>216.0</v>
       </c>
       <c r="F16" t="n">
-        <v>11.0</v>
+        <v>97.0</v>
       </c>
       <c r="G16" t="n">
         <v>0.0</v>
@@ -8005,19 +8123,19 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>21.0</v>
+        <v>568.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="D17">
         <f>$B$17+$C$17</f>
       </c>
       <c r="E17" t="n">
-        <v>51.0</v>
+        <v>1382.0</v>
       </c>
       <c r="F17" t="n">
-        <v>21.0</v>
+        <v>1352.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
@@ -8043,19 +8161,19 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>55.0</v>
+        <v>1427.0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="D18">
         <f>$B$18+$C$18</f>
       </c>
       <c r="E18" t="n">
-        <v>159.0</v>
+        <v>705.0</v>
       </c>
       <c r="F18" t="n">
-        <v>17.0</v>
+        <v>568.0</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>
@@ -8081,19 +8199,19 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>44.0</v>
+        <v>1180.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0</v>
+        <v>11.0</v>
       </c>
       <c r="D19">
         <f>$B$19+$C$19</f>
       </c>
       <c r="E19" t="n">
-        <v>146.0</v>
+        <v>475.0</v>
       </c>
       <c r="F19" t="n">
-        <v>17.0</v>
+        <v>344.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
@@ -8110,19 +8228,19 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>58.0</v>
+        <v>1441.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D20">
         <f>$B$20+$C$20</f>
       </c>
       <c r="E20" t="n">
-        <v>159.0</v>
+        <v>167.0</v>
       </c>
       <c r="F20" t="n">
-        <v>48.0</v>
+        <v>60.0</v>
       </c>
       <c r="G20" t="n">
         <v>0.0</v>
@@ -8139,19 +8257,19 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>45.0</v>
+        <v>1195.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="D21">
         <f>$B$21+$C$21</f>
       </c>
       <c r="E21" t="n">
-        <v>144.0</v>
+        <v>231.0</v>
       </c>
       <c r="F21" t="n">
-        <v>15.0</v>
+        <v>100.0</v>
       </c>
       <c r="G21" t="n">
         <v>0.0</v>
@@ -8168,19 +8286,19 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>23.0</v>
+        <v>656.0</v>
       </c>
       <c r="C22" t="n">
-        <v>2.0</v>
+        <v>130.0</v>
       </c>
       <c r="D22">
         <f>$B$22+$C$22</f>
       </c>
       <c r="E22" t="n">
-        <v>137.0</v>
+        <v>4954.0</v>
       </c>
       <c r="F22" t="n">
-        <v>51.0</v>
+        <v>4868.0</v>
       </c>
       <c r="G22" t="n">
         <v>0.0</v>
@@ -8197,7 +8315,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>59.0</v>
+        <v>1444.0</v>
       </c>
       <c r="C23" t="n">
         <v>1.0</v>
@@ -8206,10 +8324,10 @@
         <f>$B$23+$C$23</f>
       </c>
       <c r="E23" t="n">
-        <v>168.0</v>
+        <v>162.0</v>
       </c>
       <c r="F23" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
@@ -8226,19 +8344,19 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>36.0</v>
+        <v>1081.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="D24">
         <f>$B$24+$C$24</f>
       </c>
       <c r="E24" t="n">
-        <v>130.0</v>
+        <v>338.0</v>
       </c>
       <c r="F24" t="n">
-        <v>14.0</v>
+        <v>221.0</v>
       </c>
       <c r="G24" t="n">
         <v>0.0</v>
@@ -8255,19 +8373,19 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>46.0</v>
+        <v>1207.0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="D25">
         <f>$B$25+$C$25</f>
       </c>
       <c r="E25" t="n">
-        <v>141.0</v>
+        <v>1068.0</v>
       </c>
       <c r="F25" t="n">
-        <v>12.0</v>
+        <v>937.0</v>
       </c>
       <c r="G25" t="n">
         <v>0.0</v>
@@ -8284,19 +8402,19 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>37.0</v>
+        <v>1090.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D26">
         <f>$B$26+$C$26</f>
       </c>
       <c r="E26" t="n">
-        <v>91.0</v>
+        <v>124.0</v>
       </c>
       <c r="F26" t="n">
-        <v>23.0</v>
+        <v>55.0</v>
       </c>
       <c r="G26" t="n">
         <v>0.0</v>
@@ -8313,19 +8431,19 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>25.0</v>
+        <v>813.0</v>
       </c>
       <c r="C27" t="n">
-        <v>2.0</v>
+        <v>76.0</v>
       </c>
       <c r="D27">
         <f>$B$27+$C$27</f>
       </c>
       <c r="E27" t="n">
-        <v>78.0</v>
+        <v>2477.0</v>
       </c>
       <c r="F27" t="n">
-        <v>27.0</v>
+        <v>2426.0</v>
       </c>
       <c r="G27" t="n">
         <v>0.0</v>
@@ -8342,19 +8460,19 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>37.0</v>
+        <v>1099.0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="D28">
         <f>$B$28+$C$28</f>
       </c>
       <c r="E28" t="n">
-        <v>140.0</v>
+        <v>761.0</v>
       </c>
       <c r="F28" t="n">
-        <v>12.0</v>
+        <v>632.0</v>
       </c>
       <c r="G28" t="n">
         <v>0.0</v>
@@ -8371,19 +8489,19 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>61.0</v>
+        <v>1447.0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D29">
         <f>$B$29+$C$29</f>
       </c>
       <c r="E29" t="n">
-        <v>152.0</v>
+        <v>353.0</v>
       </c>
       <c r="F29" t="n">
-        <v>12.0</v>
+        <v>218.0</v>
       </c>
       <c r="G29" t="n">
         <v>0.0</v>
@@ -8400,19 +8518,19 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>46.0</v>
+        <v>1297.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0</v>
+        <v>76.0</v>
       </c>
       <c r="D30">
         <f>$B$30+$C$30</f>
       </c>
       <c r="E30" t="n">
-        <v>153.0</v>
+        <v>2601.0</v>
       </c>
       <c r="F30" t="n">
-        <v>24.0</v>
+        <v>2470.0</v>
       </c>
       <c r="G30" t="n">
         <v>0.0</v>
@@ -8429,19 +8547,19 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>28.0</v>
+        <v>937.0</v>
       </c>
       <c r="C31" t="n">
-        <v>3.0</v>
+        <v>118.0</v>
       </c>
       <c r="D31">
         <f>$B$31+$C$31</f>
       </c>
       <c r="E31" t="n">
-        <v>160.0</v>
+        <v>3988.0</v>
       </c>
       <c r="F31" t="n">
-        <v>88.0</v>
+        <v>3916.0</v>
       </c>
       <c r="G31" t="n">
         <v>0.0</v>
@@ -8555,22 +8673,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>23.0</v>
+        <v>267.0</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D2">
         <f>$B$2+$C$2</f>
       </c>
       <c r="E2" t="n">
-        <v>216.0</v>
+        <v>333.0</v>
       </c>
       <c r="F2" t="n">
-        <v>15.0</v>
+        <v>69.0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H2" t="n">
         <v>3.35</v>
@@ -8582,13 +8700,13 @@
         <v>0.0</v>
       </c>
       <c r="L2" t="n">
-        <v>13.0</v>
+        <v>72.0</v>
       </c>
       <c r="M2" t="n">
-        <v>25.0</v>
+        <v>212.0</v>
       </c>
       <c r="N2" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3">
@@ -8596,7 +8714,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>34.0</v>
+        <v>292.0</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -8605,13 +8723,13 @@
         <f>$B$3+$C$3</f>
       </c>
       <c r="E3" t="n">
-        <v>151.0</v>
+        <v>189.0</v>
       </c>
       <c r="F3" t="n">
-        <v>13.0</v>
+        <v>19.0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H3" t="n">
         <v>3.6</v>
@@ -8623,13 +8741,13 @@
         <v>1.0</v>
       </c>
       <c r="L3" t="n">
-        <v>17.0</v>
+        <v>30.0</v>
       </c>
       <c r="M3" t="n">
-        <v>21.0</v>
+        <v>252.0</v>
       </c>
       <c r="N3" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4">
@@ -8637,7 +8755,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>27.0</v>
+        <v>271.0</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -8646,10 +8764,10 @@
         <f>$B$4+$C$4</f>
       </c>
       <c r="E4" t="n">
-        <v>143.0</v>
+        <v>156.0</v>
       </c>
       <c r="F4" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -8664,13 +8782,13 @@
         <v>2.0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="M4" t="n">
-        <v>21.0</v>
+        <v>259.0</v>
       </c>
       <c r="N4" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5">
@@ -8678,22 +8796,22 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>4.0</v>
+        <v>118.0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>37.0</v>
       </c>
       <c r="D5">
         <f>$B$5+$C$5</f>
       </c>
       <c r="E5" t="n">
-        <v>134.0</v>
+        <v>594.0</v>
       </c>
       <c r="F5" t="n">
-        <v>81.0</v>
+        <v>391.0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H5" t="n">
         <v>3.15</v>
@@ -8705,13 +8823,13 @@
         <v>3.0</v>
       </c>
       <c r="L5" t="n">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="M5" t="n">
-        <v>25.0</v>
+        <v>264.0</v>
       </c>
       <c r="N5" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6">
@@ -8719,22 +8837,22 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>35.0</v>
+        <v>288.0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D6">
         <f>$B$6+$C$6</f>
       </c>
       <c r="E6" t="n">
-        <v>152.0</v>
+        <v>155.0</v>
       </c>
       <c r="F6" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
@@ -8757,19 +8875,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>27.0</v>
+        <v>274.0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="D7">
         <f>$B$7+$C$7</f>
       </c>
       <c r="E7" t="n">
-        <v>144.0</v>
+        <v>383.0</v>
       </c>
       <c r="F7" t="n">
-        <v>15.0</v>
+        <v>142.0</v>
       </c>
       <c r="G7" t="n">
         <v>3.0</v>
@@ -8795,22 +8913,22 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>13.0</v>
+        <v>189.0</v>
       </c>
       <c r="C8" t="n">
-        <v>7.0</v>
+        <v>45.0</v>
       </c>
       <c r="D8">
         <f>$B$8+$C$8</f>
       </c>
       <c r="E8" t="n">
-        <v>378.0</v>
+        <v>1213.0</v>
       </c>
       <c r="F8" t="n">
-        <v>154.0</v>
+        <v>1040.0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H8" t="n">
         <v>3.15</v>
@@ -8833,22 +8951,22 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>10.0</v>
+        <v>197.0</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>56.0</v>
       </c>
       <c r="D9">
         <f>$B$9+$C$9</f>
       </c>
       <c r="E9" t="n">
-        <v>220.0</v>
+        <v>537.0</v>
       </c>
       <c r="F9" t="n">
-        <v>112.0</v>
+        <v>407.0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H9" t="n">
         <v>3.15</v>
@@ -8871,7 +8989,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>27.0</v>
+        <v>280.0</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -8880,13 +8998,13 @@
         <f>$B$10+$C$10</f>
       </c>
       <c r="E10" t="n">
-        <v>162.0</v>
+        <v>157.0</v>
       </c>
       <c r="F10" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
@@ -8909,7 +9027,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>34.0</v>
+        <v>286.0</v>
       </c>
       <c r="C11" t="n">
         <v>2.0</v>
@@ -8918,13 +9036,13 @@
         <f>$B$11+$C$11</f>
       </c>
       <c r="E11" t="n">
-        <v>152.0</v>
+        <v>227.0</v>
       </c>
       <c r="F11" t="n">
-        <v>13.0</v>
+        <v>23.0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H11" t="n">
         <v>3.6</v>
@@ -8947,22 +9065,22 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>22.0</v>
+        <v>264.0</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D12">
         <f>$B$12+$C$12</f>
       </c>
       <c r="E12" t="n">
-        <v>142.0</v>
+        <v>141.0</v>
       </c>
       <c r="F12" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H12" t="n">
         <v>3.35</v>
@@ -8985,7 +9103,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>40.0</v>
+        <v>288.0</v>
       </c>
       <c r="C13" t="n">
         <v>2.0</v>
@@ -8994,13 +9112,13 @@
         <f>$B$13+$C$13</f>
       </c>
       <c r="E13" t="n">
-        <v>223.0</v>
+        <v>228.0</v>
       </c>
       <c r="F13" t="n">
-        <v>21.0</v>
+        <v>14.0</v>
       </c>
       <c r="G13" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H13" t="n">
         <v>3.6</v>
@@ -9023,7 +9141,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>28.0</v>
+        <v>271.0</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -9032,13 +9150,13 @@
         <f>$B$14+$C$14</f>
       </c>
       <c r="E14" t="n">
-        <v>158.0</v>
+        <v>147.0</v>
       </c>
       <c r="F14" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
@@ -9061,22 +9179,22 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>5.0</v>
+        <v>200.0</v>
       </c>
       <c r="C15" t="n">
-        <v>3.0</v>
+        <v>62.0</v>
       </c>
       <c r="D15">
         <f>$B$15+$C$15</f>
       </c>
       <c r="E15" t="n">
-        <v>162.0</v>
+        <v>509.0</v>
       </c>
       <c r="F15" t="n">
-        <v>83.0</v>
+        <v>330.0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H15" t="n">
         <v>3.15</v>
@@ -9099,7 +9217,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>30.0</v>
+        <v>270.0</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -9108,10 +9226,10 @@
         <f>$B$16+$C$16</f>
       </c>
       <c r="E16" t="n">
-        <v>136.0</v>
+        <v>98.0</v>
       </c>
       <c r="F16" t="n">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
       <c r="G16" t="n">
         <v>3.0</v>
@@ -9137,19 +9255,19 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>4.0</v>
+        <v>92.0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.0</v>
+        <v>54.0</v>
       </c>
       <c r="D17">
         <f>$B$17+$C$17</f>
       </c>
       <c r="E17" t="n">
-        <v>133.0</v>
+        <v>141.0</v>
       </c>
       <c r="F17" t="n">
-        <v>67.0</v>
+        <v>57.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
@@ -9175,22 +9293,22 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>33.0</v>
+        <v>291.0</v>
       </c>
       <c r="C18" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="D18">
         <f>$B$18+$C$18</f>
       </c>
       <c r="E18" t="n">
-        <v>333.0</v>
+        <v>190.0</v>
       </c>
       <c r="F18" t="n">
-        <v>20.0</v>
+        <v>17.0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H18" t="n">
         <v>3.6</v>
@@ -9213,22 +9331,22 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>29.0</v>
+        <v>280.0</v>
       </c>
       <c r="C19" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D19">
         <f>$B$19+$C$19</f>
       </c>
       <c r="E19" t="n">
-        <v>149.0</v>
+        <v>368.0</v>
       </c>
       <c r="F19" t="n">
-        <v>14.0</v>
+        <v>47.0</v>
       </c>
       <c r="G19" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
@@ -9251,7 +9369,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>37.0</v>
+        <v>285.0</v>
       </c>
       <c r="C20" t="n">
         <v>2.0</v>
@@ -9260,13 +9378,13 @@
         <f>$B$20+$C$20</f>
       </c>
       <c r="E20" t="n">
-        <v>191.0</v>
+        <v>201.0</v>
       </c>
       <c r="F20" t="n">
-        <v>19.0</v>
+        <v>39.0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H20" t="n">
         <v>3.6</v>
@@ -9289,7 +9407,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>30.0</v>
+        <v>270.0</v>
       </c>
       <c r="C21" t="n">
         <v>2.0</v>
@@ -9298,13 +9416,13 @@
         <f>$B$21+$C$21</f>
       </c>
       <c r="E21" t="n">
-        <v>155.0</v>
+        <v>151.0</v>
       </c>
       <c r="F21" t="n">
         <v>14.0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
@@ -9327,19 +9445,19 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>19.0</v>
+        <v>79.0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.0</v>
+        <v>65.0</v>
       </c>
       <c r="D22">
         <f>$B$22+$C$22</f>
       </c>
       <c r="E22" t="n">
-        <v>123.0</v>
+        <v>904.0</v>
       </c>
       <c r="F22" t="n">
-        <v>45.0</v>
+        <v>716.0</v>
       </c>
       <c r="G22" t="n">
         <v>3.0</v>
@@ -9356,22 +9474,22 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>40.0</v>
+        <v>291.0</v>
       </c>
       <c r="C23" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="D23">
         <f>$B$23+$C$23</f>
       </c>
       <c r="E23" t="n">
-        <v>155.0</v>
+        <v>625.0</v>
       </c>
       <c r="F23" t="n">
-        <v>16.0</v>
+        <v>107.0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H23" t="n">
         <v>3.6</v>
@@ -9385,22 +9503,22 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>22.0</v>
+        <v>266.0</v>
       </c>
       <c r="C24" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D24">
         <f>$B$24+$C$24</f>
       </c>
       <c r="E24" t="n">
-        <v>128.0</v>
+        <v>151.0</v>
       </c>
       <c r="F24" t="n">
-        <v>12.0</v>
+        <v>35.0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H24" t="n">
         <v>3.35</v>
@@ -9414,19 +9532,19 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>30.0</v>
+        <v>279.0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D25">
         <f>$B$25+$C$25</f>
       </c>
       <c r="E25" t="n">
-        <v>141.0</v>
+        <v>179.0</v>
       </c>
       <c r="F25" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="G25" t="n">
         <v>0.0</v>
@@ -9443,7 +9561,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>21.0</v>
+        <v>263.0</v>
       </c>
       <c r="C26" t="n">
         <v>2.0</v>
@@ -9452,13 +9570,13 @@
         <f>$B$26+$C$26</f>
       </c>
       <c r="E26" t="n">
-        <v>75.0</v>
+        <v>123.0</v>
       </c>
       <c r="F26" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H26" t="n">
         <v>3.35</v>
@@ -9472,22 +9590,22 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>18.0</v>
+        <v>221.0</v>
       </c>
       <c r="C27" t="n">
-        <v>3.0</v>
+        <v>23.0</v>
       </c>
       <c r="D27">
         <f>$B$27+$C$27</f>
       </c>
       <c r="E27" t="n">
-        <v>267.0</v>
+        <v>151.0</v>
       </c>
       <c r="F27" t="n">
-        <v>127.0</v>
+        <v>113.0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H27" t="n">
         <v>3.15</v>
@@ -9501,22 +9619,22 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>22.0</v>
+        <v>263.0</v>
       </c>
       <c r="C28" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D28">
         <f>$B$28+$C$28</f>
       </c>
       <c r="E28" t="n">
-        <v>158.0</v>
+        <v>161.0</v>
       </c>
       <c r="F28" t="n">
-        <v>24.0</v>
+        <v>15.0</v>
       </c>
       <c r="G28" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H28" t="n">
         <v>3.35</v>
@@ -9530,7 +9648,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>39.0</v>
+        <v>286.0</v>
       </c>
       <c r="C29" t="n">
         <v>2.0</v>
@@ -9539,13 +9657,13 @@
         <f>$B$29+$C$29</f>
       </c>
       <c r="E29" t="n">
-        <v>174.0</v>
+        <v>156.0</v>
       </c>
       <c r="F29" t="n">
-        <v>30.0</v>
+        <v>14.0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H29" t="n">
         <v>3.6</v>
@@ -9559,22 +9677,22 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>31.0</v>
+        <v>280.0</v>
       </c>
       <c r="C30" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="D30">
         <f>$B$30+$C$30</f>
       </c>
       <c r="E30" t="n">
-        <v>150.0</v>
+        <v>181.0</v>
       </c>
       <c r="F30" t="n">
-        <v>21.0</v>
+        <v>38.0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H30" t="n">
         <v>3.4</v>
@@ -9588,22 +9706,22 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>9.0</v>
+        <v>113.0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.0</v>
+        <v>60.0</v>
       </c>
       <c r="D31">
         <f>$B$31+$C$31</f>
       </c>
       <c r="E31" t="n">
-        <v>226.0</v>
+        <v>694.0</v>
       </c>
       <c r="F31" t="n">
-        <v>116.0</v>
+        <v>494.0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H31" t="n">
         <v>3.15</v>

--- a/Yeezus/output/data.xlsx
+++ b/Yeezus/output/data.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="39">
   <si>
     <t>Process ID:</t>
   </si>
@@ -82,36 +82,128 @@
   </si>
   <si>
     <t xml:space="preserve">
-CPU: 0 received 37076</t>
+CPU: 0 received 103199</t>
   </si>
   <si>
     <t xml:space="preserve">
-CPU: 0 received 1607
-CPU: 1 received 741
-CPU: 2 received 429
-CPU: 3 received 265</t>
+CPU: 0 received 1869
+CPU: 1 received 694
+CPU: 2 received 460
+CPU: 3 received 372</t>
   </si>
   <si>
     <t xml:space="preserve">
-CPU: 0 received 30767</t>
+CPU: 0 received 242523</t>
   </si>
   <si>
     <t xml:space="preserve">
-CPU: 0 received 717
-CPU: 1 received 491
-CPU: 2 received 448
-CPU: 3 received 417</t>
+CPU: 0 received 976
+CPU: 1 received 489
+CPU: 2 received 444
+CPU: 3 received 387</t>
   </si>
   <si>
     <t xml:space="preserve">
-CPU: 0 received 93946</t>
+CPU: 0 received 152587</t>
   </si>
   <si>
     <t xml:space="preserve">
-CPU: 0 received 955
-CPU: 1 received 624
-CPU: 2 received 461
-CPU: 3 received 395</t>
+CPU: 0 received 821
+CPU: 1 received 471
+CPU: 2 received 386
+CPU: 3 received 345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 169134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 756
+CPU: 1 received 534
+CPU: 2 received 485
+CPU: 3 received 391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 90911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1178
+CPU: 1 received 675
+CPU: 2 received 520
+CPU: 3 received 449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 197144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 170885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1793
+CPU: 1 received 606
+CPU: 2 received 420
+CPU: 3 received 379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 6641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 860
+CPU: 1 received 497
+CPU: 2 received 425
+CPU: 3 received 498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 23772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 614
+CPU: 1 received 412
+CPU: 2 received 298
+CPU: 3 received 276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 194934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1121
+CPU: 1 received 453
+CPU: 2 received 355
+CPU: 3 received 305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 197569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1244
+CPU: 1 received 561
+CPU: 2 received 492
+CPU: 3 received 412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 59714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CPU: 0 received 1047
+CPU: 1 received 483
+CPU: 2 received 371
+CPU: 3 received 398</t>
   </si>
 </sst>
 </file>
@@ -935,19 +1027,19 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>35.0</v>
+        <v>17.0</v>
       </c>
       <c r="C2" t="n">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
       <c r="D2">
         <f>$B$2+$C$2</f>
       </c>
       <c r="E2" t="n">
-        <v>203.0</v>
+        <v>142.0</v>
       </c>
       <c r="F2" t="n">
-        <v>74.0</v>
+        <v>13.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -962,19 +1054,19 @@
         <v>6.0</v>
       </c>
       <c r="K2" t="n">
-        <v>897414.5</v>
+        <v>73142.83333333333</v>
       </c>
       <c r="M2" t="n">
         <v>0.0</v>
       </c>
       <c r="N2" t="n">
-        <v>416.0</v>
+        <v>1194.0</v>
       </c>
       <c r="O2" t="n">
-        <v>494.0</v>
+        <v>1669.0</v>
       </c>
       <c r="P2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -982,10 +1074,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>58.0</v>
+        <v>30.0</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="D3">
         <f>$B$3+$C$3</f>
@@ -1009,7 +1101,7 @@
         <v>7.0</v>
       </c>
       <c r="K3" t="n">
-        <v>42464.71428571428</v>
+        <v>52704.71428571428</v>
       </c>
       <c r="M3" t="s">
         <v>4</v>
@@ -1026,19 +1118,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>60.0</v>
+        <v>41.0</v>
       </c>
       <c r="C4" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="D4">
         <f>$B$4+$C$4</f>
       </c>
       <c r="E4" t="n">
-        <v>152.0</v>
+        <v>155.0</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -1053,7 +1145,7 @@
         <v>6.0</v>
       </c>
       <c r="K4" t="n">
-        <v>14433.666666666666</v>
+        <v>100791.16666666667</v>
       </c>
       <c r="M4" t="s">
         <v>15</v>
@@ -1070,19 +1162,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>71.0</v>
+        <v>73.0</v>
       </c>
       <c r="C5" t="n">
-        <v>7.0</v>
+        <v>40.0</v>
       </c>
       <c r="D5">
         <f>$B$5+$C$5</f>
       </c>
       <c r="E5" t="n">
-        <v>342.0</v>
+        <v>1703.0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.0</v>
+        <v>1624.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -1097,7 +1189,7 @@
         <v>5.0</v>
       </c>
       <c r="K5" t="n">
-        <v>16033.0</v>
+        <v>26741.0</v>
       </c>
       <c r="M5" t="s">
         <v>15</v>
@@ -1114,19 +1206,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>80.0</v>
+        <v>115.0</v>
       </c>
       <c r="C6" t="n">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c r="D6">
         <f>$B$6+$C$6</f>
       </c>
       <c r="E6" t="n">
-        <v>185.0</v>
+        <v>147.0</v>
       </c>
       <c r="F6" t="n">
-        <v>51.0</v>
+        <v>13.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -1141,7 +1233,7 @@
         <v>7.0</v>
       </c>
       <c r="K6" t="n">
-        <v>51032.71428571428</v>
+        <v>20438.571428571428</v>
       </c>
       <c r="M6" t="s">
         <v>15</v>
@@ -1158,7 +1250,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>98.0</v>
+        <v>117.0</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -1167,10 +1259,10 @@
         <f>$B$7+$C$7</f>
       </c>
       <c r="E7" t="n">
-        <v>143.0</v>
+        <v>159.0</v>
       </c>
       <c r="F7" t="n">
-        <v>12.0</v>
+        <v>28.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -1185,7 +1277,7 @@
         <v>6.0</v>
       </c>
       <c r="K7" t="n">
-        <v>13166.0</v>
+        <v>12775.666666666666</v>
       </c>
       <c r="M7" t="s">
         <v>15</v>
@@ -1202,19 +1294,19 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>134.0</v>
+        <v>152.0</v>
       </c>
       <c r="C8" t="n">
-        <v>74.0</v>
+        <v>65.0</v>
       </c>
       <c r="D8">
         <f>$B$8+$C$8</f>
       </c>
       <c r="E8" t="n">
-        <v>3991.0</v>
+        <v>4771.0</v>
       </c>
       <c r="F8" t="n">
-        <v>3912.0</v>
+        <v>4692.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
@@ -1229,7 +1321,7 @@
         <v>5.0</v>
       </c>
       <c r="K8" t="n">
-        <v>13809.2</v>
+        <v>21065.0</v>
       </c>
       <c r="M8" t="s">
         <v>15</v>
@@ -1246,19 +1338,19 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>222.0</v>
+        <v>323.0</v>
       </c>
       <c r="C9" t="n">
-        <v>22.0</v>
+        <v>200.0</v>
       </c>
       <c r="D9">
         <f>$B$9+$C$9</f>
       </c>
       <c r="E9" t="n">
-        <v>1740.0</v>
+        <v>16649.0</v>
       </c>
       <c r="F9" t="n">
-        <v>1661.0</v>
+        <v>16570.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -1273,7 +1365,7 @@
         <v>5.0</v>
       </c>
       <c r="K9" t="n">
-        <v>29725.2</v>
+        <v>40609.0</v>
       </c>
       <c r="M9" t="s">
         <v>15</v>
@@ -1290,19 +1382,19 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>247.0</v>
+        <v>536.0</v>
       </c>
       <c r="C10" t="n">
-        <v>9.0</v>
+        <v>31.0</v>
       </c>
       <c r="D10">
         <f>$B$10+$C$10</f>
       </c>
       <c r="E10" t="n">
-        <v>614.0</v>
+        <v>2741.0</v>
       </c>
       <c r="F10" t="n">
-        <v>483.0</v>
+        <v>2610.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -1317,7 +1409,7 @@
         <v>6.0</v>
       </c>
       <c r="K10" t="n">
-        <v>14579.833333333334</v>
+        <v>12482.666666666666</v>
       </c>
       <c r="M10" t="s">
         <v>15</v>
@@ -1334,19 +1426,19 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>261.0</v>
+        <v>571.0</v>
       </c>
       <c r="C11" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="D11">
         <f>$B$11+$C$11</f>
       </c>
       <c r="E11" t="n">
-        <v>721.0</v>
+        <v>625.0</v>
       </c>
       <c r="F11" t="n">
-        <v>587.0</v>
+        <v>491.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
@@ -1361,7 +1453,7 @@
         <v>7.0</v>
       </c>
       <c r="K11" t="n">
-        <v>17052.85714285714</v>
+        <v>11034.0</v>
       </c>
       <c r="M11" t="s">
         <v>15</v>
@@ -1378,19 +1470,19 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>276.0</v>
+        <v>584.0</v>
       </c>
       <c r="C12" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="D12">
         <f>$B$12+$C$12</f>
       </c>
       <c r="E12" t="n">
-        <v>504.0</v>
+        <v>809.0</v>
       </c>
       <c r="F12" t="n">
-        <v>375.0</v>
+        <v>680.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
@@ -1405,7 +1497,7 @@
         <v>6.0</v>
       </c>
       <c r="K12" t="n">
-        <v>33109.5</v>
+        <v>10776.166666666666</v>
       </c>
       <c r="M12" t="s">
         <v>15</v>
@@ -1422,19 +1514,19 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>286.0</v>
+        <v>601.0</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
       <c r="D13">
         <f>$B$13+$C$13</f>
       </c>
       <c r="E13" t="n">
-        <v>419.0</v>
+        <v>1515.0</v>
       </c>
       <c r="F13" t="n">
-        <v>284.0</v>
+        <v>1380.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -1449,7 +1541,7 @@
         <v>7.0</v>
       </c>
       <c r="K13" t="n">
-        <v>37950.71428571428</v>
+        <v>9738.57142857143</v>
       </c>
       <c r="M13" t="s">
         <v>15</v>
@@ -1466,19 +1558,19 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>293.0</v>
+        <v>618.0</v>
       </c>
       <c r="C14" t="n">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="D14">
         <f>$B$14+$C$14</f>
       </c>
       <c r="E14" t="n">
-        <v>1398.0</v>
+        <v>558.0</v>
       </c>
       <c r="F14" t="n">
-        <v>1267.0</v>
+        <v>427.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -1493,7 +1585,7 @@
         <v>6.0</v>
       </c>
       <c r="K14" t="n">
-        <v>11800.166666666666</v>
+        <v>17359.333333333332</v>
       </c>
       <c r="M14" t="s">
         <v>15</v>
@@ -1510,19 +1602,19 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>364.0</v>
+        <v>740.0</v>
       </c>
       <c r="C15" t="n">
-        <v>122.0</v>
+        <v>221.0</v>
       </c>
       <c r="D15">
         <f>$B$15+$C$15</f>
       </c>
       <c r="E15" t="n">
-        <v>9284.0</v>
+        <v>22478.0</v>
       </c>
       <c r="F15" t="n">
-        <v>9219.0</v>
+        <v>22413.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -1537,7 +1629,7 @@
         <v>4.0</v>
       </c>
       <c r="K15" t="n">
-        <v>12434.25</v>
+        <v>12946.5</v>
       </c>
       <c r="M15" t="s">
         <v>15</v>
@@ -1554,19 +1646,19 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>488.0</v>
+        <v>993.0</v>
       </c>
       <c r="C16" t="n">
-        <v>4.0</v>
+        <v>70.0</v>
       </c>
       <c r="D16">
         <f>$B$16+$C$16</f>
       </c>
       <c r="E16" t="n">
-        <v>391.0</v>
+        <v>6625.0</v>
       </c>
       <c r="F16" t="n">
-        <v>272.0</v>
+        <v>6506.0</v>
       </c>
       <c r="G16" t="n">
         <v>0.0</v>
@@ -1581,7 +1673,7 @@
         <v>6.0</v>
       </c>
       <c r="K16" t="n">
-        <v>10532.833333333334</v>
+        <v>15701.333333333334</v>
       </c>
       <c r="M16" t="s">
         <v>15</v>
@@ -1598,19 +1690,19 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>498.0</v>
+        <v>1071.0</v>
       </c>
       <c r="C17" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="D17">
         <f>$B$17+$C$17</f>
       </c>
       <c r="E17" t="n">
-        <v>759.0</v>
+        <v>1729.0</v>
       </c>
       <c r="F17" t="n">
-        <v>729.0</v>
+        <v>1699.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
@@ -1625,7 +1717,7 @@
         <v>3.0</v>
       </c>
       <c r="K17" t="n">
-        <v>13361.0</v>
+        <v>12093.333333333334</v>
       </c>
       <c r="M17" t="s">
         <v>15</v>
@@ -1642,19 +1734,19 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>517.0</v>
+        <v>1095.0</v>
       </c>
       <c r="C18" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D18">
         <f>$B$18+$C$18</f>
       </c>
       <c r="E18" t="n">
-        <v>209.0</v>
+        <v>407.0</v>
       </c>
       <c r="F18" t="n">
-        <v>72.0</v>
+        <v>270.0</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>
@@ -1669,7 +1761,7 @@
         <v>7.0</v>
       </c>
       <c r="K18" t="n">
-        <v>10156.42857142857</v>
+        <v>7983.142857142857</v>
       </c>
       <c r="M18" t="s">
         <v>15</v>
@@ -1686,7 +1778,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>520.0</v>
+        <v>1101.0</v>
       </c>
       <c r="C19" t="n">
         <v>7.0</v>
@@ -1695,10 +1787,10 @@
         <f>$B$19+$C$19</f>
       </c>
       <c r="E19" t="n">
-        <v>191.0</v>
+        <v>786.0</v>
       </c>
       <c r="F19" t="n">
-        <v>60.0</v>
+        <v>655.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
@@ -1713,7 +1805,7 @@
         <v>6.0</v>
       </c>
       <c r="K19" t="n">
-        <v>14628.666666666666</v>
+        <v>5315.166666666667</v>
       </c>
     </row>
     <row r="20">
@@ -1721,19 +1813,19 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>528.0</v>
+        <v>1111.0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="D20">
         <f>$B$20+$C$20</f>
       </c>
       <c r="E20" t="n">
-        <v>161.0</v>
+        <v>886.0</v>
       </c>
       <c r="F20" t="n">
-        <v>54.0</v>
+        <v>779.0</v>
       </c>
       <c r="G20" t="n">
         <v>0.0</v>
@@ -1748,7 +1840,7 @@
         <v>7.0</v>
       </c>
       <c r="K20" t="n">
-        <v>11911.714285714286</v>
+        <v>10240.142857142857</v>
       </c>
     </row>
     <row r="21">
@@ -1756,19 +1848,19 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>539.0</v>
+        <v>1123.0</v>
       </c>
       <c r="C21" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="D21">
         <f>$B$21+$C$21</f>
       </c>
       <c r="E21" t="n">
-        <v>676.0</v>
+        <v>1151.0</v>
       </c>
       <c r="F21" t="n">
-        <v>545.0</v>
+        <v>1020.0</v>
       </c>
       <c r="G21" t="n">
         <v>0.0</v>
@@ -1783,7 +1875,7 @@
         <v>6.0</v>
       </c>
       <c r="K21" t="n">
-        <v>20382.5</v>
+        <v>6972.833333333333</v>
       </c>
     </row>
     <row r="22">
@@ -1791,19 +1883,19 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>592.0</v>
+        <v>1280.0</v>
       </c>
       <c r="C22" t="n">
-        <v>86.0</v>
+        <v>367.0</v>
       </c>
       <c r="D22">
         <f>$B$22+$C$22</f>
       </c>
       <c r="E22" t="n">
-        <v>6568.0</v>
+        <v>36858.0</v>
       </c>
       <c r="F22" t="n">
-        <v>6482.0</v>
+        <v>36772.0</v>
       </c>
       <c r="G22" t="n">
         <v>0.0</v>
@@ -1818,7 +1910,7 @@
         <v>5.0</v>
       </c>
       <c r="K22" t="n">
-        <v>12931.4</v>
+        <v>12112.6</v>
       </c>
     </row>
     <row r="23">
@@ -1826,19 +1918,19 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>681.0</v>
+        <v>1659.0</v>
       </c>
       <c r="C23" t="n">
-        <v>5.0</v>
+        <v>34.0</v>
       </c>
       <c r="D23">
         <f>$B$23+$C$23</f>
       </c>
       <c r="E23" t="n">
-        <v>461.0</v>
+        <v>3538.0</v>
       </c>
       <c r="F23" t="n">
-        <v>327.0</v>
+        <v>3404.0</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
@@ -1853,7 +1945,7 @@
         <v>7.0</v>
       </c>
       <c r="K23" t="n">
-        <v>22569.85714285714</v>
+        <v>15840.857142857143</v>
       </c>
     </row>
     <row r="24">
@@ -1861,19 +1953,19 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>689.0</v>
+        <v>1705.0</v>
       </c>
       <c r="C24" t="n">
-        <v>7.0</v>
+        <v>33.0</v>
       </c>
       <c r="D24">
         <f>$B$24+$C$24</f>
       </c>
       <c r="E24" t="n">
-        <v>661.0</v>
+        <v>3463.0</v>
       </c>
       <c r="F24" t="n">
-        <v>544.0</v>
+        <v>3346.0</v>
       </c>
       <c r="G24" t="n">
         <v>0.0</v>
@@ -1888,7 +1980,7 @@
         <v>6.0</v>
       </c>
       <c r="K24" t="n">
-        <v>9899.0</v>
+        <v>6729.0</v>
       </c>
     </row>
     <row r="25">
@@ -1896,19 +1988,19 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>698.0</v>
+        <v>1764.0</v>
       </c>
       <c r="C25" t="n">
-        <v>3.0</v>
+        <v>66.0</v>
       </c>
       <c r="D25">
         <f>$B$25+$C$25</f>
       </c>
       <c r="E25" t="n">
-        <v>349.0</v>
+        <v>6640.0</v>
       </c>
       <c r="F25" t="n">
-        <v>218.0</v>
+        <v>6509.0</v>
       </c>
       <c r="G25" t="n">
         <v>0.0</v>
@@ -1923,7 +2015,7 @@
         <v>6.0</v>
       </c>
       <c r="K25" t="n">
-        <v>9362.5</v>
+        <v>9654.666666666666</v>
       </c>
     </row>
     <row r="26">
@@ -1931,19 +2023,19 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>702.0</v>
+        <v>1849.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="D26">
         <f>$B$26+$C$26</f>
       </c>
       <c r="E26" t="n">
-        <v>83.0</v>
+        <v>3010.0</v>
       </c>
       <c r="F26" t="n">
-        <v>14.0</v>
+        <v>2941.0</v>
       </c>
       <c r="G26" t="n">
         <v>0.0</v>
@@ -1958,7 +2050,7 @@
         <v>5.0</v>
       </c>
       <c r="K26" t="n">
-        <v>9947.6</v>
+        <v>9245.4</v>
       </c>
     </row>
     <row r="27">
@@ -1966,19 +2058,19 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>733.0</v>
+        <v>1927.0</v>
       </c>
       <c r="C27" t="n">
-        <v>54.0</v>
+        <v>130.0</v>
       </c>
       <c r="D27">
         <f>$B$27+$C$27</f>
       </c>
       <c r="E27" t="n">
-        <v>4208.0</v>
+        <v>11129.0</v>
       </c>
       <c r="F27" t="n">
-        <v>4157.0</v>
+        <v>11078.0</v>
       </c>
       <c r="G27" t="n">
         <v>0.0</v>
@@ -1993,7 +2085,7 @@
         <v>4.0</v>
       </c>
       <c r="K27" t="n">
-        <v>9069.75</v>
+        <v>7533.75</v>
       </c>
     </row>
     <row r="28">
@@ -2001,19 +2093,19 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>792.0</v>
+        <v>2109.0</v>
       </c>
       <c r="C28" t="n">
-        <v>11.0</v>
+        <v>138.0</v>
       </c>
       <c r="D28">
         <f>$B$28+$C$28</f>
       </c>
       <c r="E28" t="n">
-        <v>160.0</v>
+        <v>15425.0</v>
       </c>
       <c r="F28" t="n">
-        <v>31.0</v>
+        <v>15296.0</v>
       </c>
       <c r="G28" t="n">
         <v>0.0</v>
@@ -2028,7 +2120,7 @@
         <v>6.0</v>
       </c>
       <c r="K28" t="n">
-        <v>310077.5</v>
+        <v>15311.333333333334</v>
       </c>
     </row>
     <row r="29">
@@ -2036,19 +2128,19 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>814.0</v>
+        <v>2250.0</v>
       </c>
       <c r="C29" t="n">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
       <c r="D29">
         <f>$B$29+$C$29</f>
       </c>
       <c r="E29" t="n">
-        <v>1832.0</v>
+        <v>715.0</v>
       </c>
       <c r="F29" t="n">
-        <v>1697.0</v>
+        <v>580.0</v>
       </c>
       <c r="G29" t="n">
         <v>0.0</v>
@@ -2063,7 +2155,7 @@
         <v>7.0</v>
       </c>
       <c r="K29" t="n">
-        <v>20312.85714285714</v>
+        <v>17596.0</v>
       </c>
     </row>
     <row r="30">
@@ -2071,19 +2163,19 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>838.0</v>
+        <v>2269.0</v>
       </c>
       <c r="C30" t="n">
-        <v>3.0</v>
+        <v>32.0</v>
       </c>
       <c r="D30">
         <f>$B$30+$C$30</f>
       </c>
       <c r="E30" t="n">
-        <v>256.0</v>
+        <v>3783.0</v>
       </c>
       <c r="F30" t="n">
-        <v>125.0</v>
+        <v>3652.0</v>
       </c>
       <c r="G30" t="n">
         <v>0.0</v>
@@ -2098,7 +2190,7 @@
         <v>6.0</v>
       </c>
       <c r="K30" t="n">
-        <v>10093.666666666666</v>
+        <v>7363.0</v>
       </c>
     </row>
     <row r="31">
@@ -2106,19 +2198,19 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>867.0</v>
+        <v>2467.0</v>
       </c>
       <c r="C31" t="n">
-        <v>56.0</v>
+        <v>406.0</v>
       </c>
       <c r="D31">
         <f>$B$31+$C$31</f>
       </c>
       <c r="E31" t="n">
-        <v>3395.0</v>
+        <v>49317.0</v>
       </c>
       <c r="F31" t="n">
-        <v>3323.0</v>
+        <v>49245.0</v>
       </c>
       <c r="G31" t="n">
         <v>0.0</v>
@@ -2133,7 +2225,7 @@
         <v>5.0</v>
       </c>
       <c r="K31" t="n">
-        <v>11293.2</v>
+        <v>11234.8</v>
       </c>
     </row>
     <row r="32">
@@ -2252,22 +2344,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="C2" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2">
         <f>$B$2+$C$2</f>
       </c>
       <c r="E2" t="n">
-        <v>152.0</v>
+        <v>214.0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.0</v>
+        <v>16.0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H2" t="n">
         <v>1.0</v>
@@ -2279,19 +2371,19 @@
         <v>6.0</v>
       </c>
       <c r="K2" t="n">
-        <v>72557.66666666667</v>
+        <v>37156.666666666664</v>
       </c>
       <c r="M2" t="n">
         <v>0.0</v>
       </c>
       <c r="N2" t="n">
-        <v>29.0</v>
+        <v>16.0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.0</v>
+        <v>24.0</v>
       </c>
       <c r="P2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -2299,22 +2391,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="D3">
         <f>$B$3+$C$3</f>
       </c>
       <c r="E3" t="n">
-        <v>154.0</v>
+        <v>155.0</v>
       </c>
       <c r="F3" t="n">
-        <v>20.0</v>
+        <v>14.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H3" t="n">
         <v>1.0</v>
@@ -2326,19 +2418,19 @@
         <v>7.0</v>
       </c>
       <c r="K3" t="n">
-        <v>65034.42857142857</v>
+        <v>40542.0</v>
       </c>
       <c r="M3" t="n">
         <v>1.0</v>
       </c>
       <c r="N3" t="n">
-        <v>22.0</v>
+        <v>12.0</v>
       </c>
       <c r="O3" t="n">
-        <v>59.0</v>
+        <v>28.0</v>
       </c>
       <c r="P3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -2346,19 +2438,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4">
         <f>$B$4+$C$4</f>
       </c>
       <c r="E4" t="n">
-        <v>153.0</v>
+        <v>145.0</v>
       </c>
       <c r="F4" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -2370,22 +2462,22 @@
         <v>0.0</v>
       </c>
       <c r="J4" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="K4" t="n">
-        <v>69668.75</v>
+        <v>34962.166666666664</v>
       </c>
       <c r="M4" t="n">
         <v>2.0</v>
       </c>
       <c r="N4" t="n">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="O4" t="n">
-        <v>58.0</v>
+        <v>28.0</v>
       </c>
       <c r="P4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -2393,22 +2485,22 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="D5">
         <f>$B$5+$C$5</f>
       </c>
       <c r="E5" t="n">
-        <v>202.0</v>
+        <v>207.0</v>
       </c>
       <c r="F5" t="n">
-        <v>106.0</v>
+        <v>82.0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H5" t="n">
         <v>1.0</v>
@@ -2417,22 +2509,22 @@
         <v>0.0</v>
       </c>
       <c r="J5" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="K5" t="n">
-        <v>32272.846153846152</v>
+        <v>51882.666666666664</v>
       </c>
       <c r="M5" t="n">
         <v>3.0</v>
       </c>
       <c r="N5" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="O5" t="n">
-        <v>62.0</v>
+        <v>29.0</v>
       </c>
       <c r="P5" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -2440,22 +2532,22 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>18.0</v>
+        <v>6.0</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="D6">
         <f>$B$6+$C$6</f>
       </c>
       <c r="E6" t="n">
-        <v>224.0</v>
+        <v>199.0</v>
       </c>
       <c r="F6" t="n">
-        <v>31.0</v>
+        <v>65.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H6" t="n">
         <v>1.0</v>
@@ -2464,10 +2556,10 @@
         <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="K6" t="n">
-        <v>21483.428571428572</v>
+        <v>20577.333333333332</v>
       </c>
       <c r="M6" t="s">
         <v>4</v>
@@ -2484,7 +2576,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -2493,10 +2585,10 @@
         <f>$B$7+$C$7</f>
       </c>
       <c r="E7" t="n">
-        <v>229.0</v>
+        <v>258.0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.0</v>
+        <v>65.0</v>
       </c>
       <c r="G7" t="n">
         <v>1.0</v>
@@ -2508,10 +2600,10 @@
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="K7" t="n">
-        <v>15872.125</v>
+        <v>11800.333333333334</v>
       </c>
       <c r="M7" t="s">
         <v>15</v>
@@ -2528,22 +2620,22 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>22.0</v>
+        <v>9.0</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D8">
         <f>$B$8+$C$8</f>
       </c>
       <c r="E8" t="n">
-        <v>190.0</v>
+        <v>402.0</v>
       </c>
       <c r="F8" t="n">
-        <v>121.0</v>
+        <v>208.0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H8" t="n">
         <v>1.0</v>
@@ -2552,10 +2644,10 @@
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="K8" t="n">
-        <v>24841.909090909092</v>
+        <v>27209.153846153848</v>
       </c>
       <c r="M8" t="s">
         <v>15</v>
@@ -2572,22 +2664,22 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>24.0</v>
+        <v>13.0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D9">
         <f>$B$9+$C$9</f>
       </c>
       <c r="E9" t="n">
-        <v>86.0</v>
+        <v>346.0</v>
       </c>
       <c r="F9" t="n">
-        <v>38.0</v>
+        <v>172.0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H9" t="n">
         <v>1.0</v>
@@ -2596,10 +2688,10 @@
         <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="K9" t="n">
-        <v>21107.0</v>
+        <v>31642.615384615383</v>
       </c>
       <c r="M9" t="s">
         <v>15</v>
@@ -2616,22 +2708,22 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>26.0</v>
+        <v>15.0</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D10">
         <f>$B$10+$C$10</f>
       </c>
       <c r="E10" t="n">
-        <v>546.0</v>
+        <v>146.0</v>
       </c>
       <c r="F10" t="n">
-        <v>86.0</v>
+        <v>15.0</v>
       </c>
       <c r="G10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H10" t="n">
         <v>1.0</v>
@@ -2640,10 +2732,10 @@
         <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="K10" t="n">
-        <v>47274.75</v>
+        <v>15457.333333333334</v>
       </c>
       <c r="M10" t="s">
         <v>15</v>
@@ -2660,7 +2752,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>28.0</v>
+        <v>16.0</v>
       </c>
       <c r="C11" t="n">
         <v>2.0</v>
@@ -2669,13 +2761,13 @@
         <f>$B$11+$C$11</f>
       </c>
       <c r="E11" t="n">
-        <v>231.0</v>
+        <v>262.0</v>
       </c>
       <c r="F11" t="n">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H11" t="n">
         <v>1.0</v>
@@ -2687,7 +2779,7 @@
         <v>7.0</v>
       </c>
       <c r="K11" t="n">
-        <v>8860.857142857143</v>
+        <v>10741.285714285714</v>
       </c>
       <c r="M11" t="s">
         <v>15</v>
@@ -2704,7 +2796,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>28.0</v>
+        <v>17.0</v>
       </c>
       <c r="C12" t="n">
         <v>2.0</v>
@@ -2713,13 +2805,13 @@
         <f>$B$12+$C$12</f>
       </c>
       <c r="E12" t="n">
-        <v>152.0</v>
+        <v>284.0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H12" t="n">
         <v>1.0</v>
@@ -2731,7 +2823,7 @@
         <v>6.0</v>
       </c>
       <c r="K12" t="n">
-        <v>5802.833333333333</v>
+        <v>17846.833333333332</v>
       </c>
       <c r="M12" t="s">
         <v>15</v>
@@ -2748,22 +2840,22 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>30.0</v>
+        <v>18.0</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D13">
         <f>$B$13+$C$13</f>
       </c>
       <c r="E13" t="n">
-        <v>380.0</v>
+        <v>175.0</v>
       </c>
       <c r="F13" t="n">
-        <v>69.0</v>
+        <v>40.0</v>
       </c>
       <c r="G13" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H13" t="n">
         <v>1.0</v>
@@ -2772,10 +2864,10 @@
         <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="K13" t="n">
-        <v>6812.714285714285</v>
+        <v>11963.0</v>
       </c>
       <c r="M13" t="s">
         <v>15</v>
@@ -2792,19 +2884,19 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D14">
         <f>$B$14+$C$14</f>
       </c>
       <c r="E14" t="n">
-        <v>178.0</v>
+        <v>237.0</v>
       </c>
       <c r="F14" t="n">
-        <v>47.0</v>
+        <v>32.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -2819,7 +2911,7 @@
         <v>6.0</v>
       </c>
       <c r="K14" t="n">
-        <v>11702.833333333334</v>
+        <v>10971.5</v>
       </c>
       <c r="M14" t="s">
         <v>15</v>
@@ -2836,22 +2928,22 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>32.0</v>
+        <v>19.0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="D15">
         <f>$B$15+$C$15</f>
       </c>
       <c r="E15" t="n">
-        <v>560.0</v>
+        <v>66.0</v>
       </c>
       <c r="F15" t="n">
-        <v>428.0</v>
+        <v>36.0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H15" t="n">
         <v>1.0</v>
@@ -2860,10 +2952,10 @@
         <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="K15" t="n">
-        <v>24527.166666666668</v>
+        <v>20647.428571428572</v>
       </c>
       <c r="M15" t="s">
         <v>15</v>
@@ -2880,7 +2972,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>42.0</v>
+        <v>20.0</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -2889,13 +2981,13 @@
         <f>$B$16+$C$16</f>
       </c>
       <c r="E16" t="n">
-        <v>216.0</v>
+        <v>140.0</v>
       </c>
       <c r="F16" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H16" t="n">
         <v>1.0</v>
@@ -2907,7 +2999,7 @@
         <v>6.0</v>
       </c>
       <c r="K16" t="n">
-        <v>13897.166666666666</v>
+        <v>9557.333333333334</v>
       </c>
       <c r="M16" t="s">
         <v>15</v>
@@ -2924,7 +3016,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>43.0</v>
+        <v>21.0</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
@@ -2933,13 +3025,13 @@
         <f>$B$17+$C$17</f>
       </c>
       <c r="E17" t="n">
-        <v>99.0</v>
+        <v>126.0</v>
       </c>
       <c r="F17" t="n">
-        <v>55.0</v>
+        <v>73.0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H17" t="n">
         <v>1.0</v>
@@ -2948,10 +3040,10 @@
         <v>0.0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="K17" t="n">
-        <v>13360.666666666666</v>
+        <v>18900.2</v>
       </c>
       <c r="M17" t="s">
         <v>15</v>
@@ -2968,7 +3060,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>43.0</v>
+        <v>21.0</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
@@ -2977,10 +3069,10 @@
         <f>$B$18+$C$18</f>
       </c>
       <c r="E18" t="n">
-        <v>211.0</v>
+        <v>178.0</v>
       </c>
       <c r="F18" t="n">
-        <v>12.0</v>
+        <v>24.0</v>
       </c>
       <c r="G18" t="n">
         <v>2.0</v>
@@ -2992,10 +3084,10 @@
         <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="K18" t="n">
-        <v>13458.25</v>
+        <v>9362.42857142857</v>
       </c>
       <c r="M18" t="s">
         <v>15</v>
@@ -3012,22 +3104,22 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>44.0</v>
+        <v>21.0</v>
       </c>
       <c r="C19" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="D19">
         <f>$B$19+$C$19</f>
       </c>
       <c r="E19" t="n">
-        <v>530.0</v>
+        <v>153.0</v>
       </c>
       <c r="F19" t="n">
-        <v>47.0</v>
+        <v>15.0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H19" t="n">
         <v>1.0</v>
@@ -3039,7 +3131,7 @@
         <v>6.0</v>
       </c>
       <c r="K19" t="n">
-        <v>13848.333333333334</v>
+        <v>6290.333333333333</v>
       </c>
       <c r="M19" t="s">
         <v>15</v>
@@ -3056,19 +3148,19 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>45.0</v>
+        <v>22.0</v>
       </c>
       <c r="C20" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D20">
         <f>$B$20+$C$20</f>
       </c>
       <c r="E20" t="n">
-        <v>131.0</v>
+        <v>117.0</v>
       </c>
       <c r="F20" t="n">
-        <v>24.0</v>
+        <v>10.0</v>
       </c>
       <c r="G20" t="n">
         <v>3.0</v>
@@ -3083,7 +3175,7 @@
         <v>7.0</v>
       </c>
       <c r="K20" t="n">
-        <v>6980.0</v>
+        <v>9237.0</v>
       </c>
       <c r="M20" t="s">
         <v>15</v>
@@ -3100,7 +3192,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>45.0</v>
+        <v>23.0</v>
       </c>
       <c r="C21" t="n">
         <v>1.0</v>
@@ -3109,13 +3201,13 @@
         <f>$B$21+$C$21</f>
       </c>
       <c r="E21" t="n">
-        <v>149.0</v>
+        <v>275.0</v>
       </c>
       <c r="F21" t="n">
-        <v>18.0</v>
+        <v>31.0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H21" t="n">
         <v>1.0</v>
@@ -3127,7 +3219,7 @@
         <v>6.0</v>
       </c>
       <c r="K21" t="n">
-        <v>14969.833333333334</v>
+        <v>8582.166666666666</v>
       </c>
       <c r="M21" t="s">
         <v>15</v>
@@ -3144,22 +3236,22 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>49.0</v>
+        <v>24.0</v>
       </c>
       <c r="C22" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="D22">
         <f>$B$22+$C$22</f>
       </c>
       <c r="E22" t="n">
-        <v>460.0</v>
+        <v>424.0</v>
       </c>
       <c r="F22" t="n">
-        <v>325.0</v>
+        <v>225.0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H22" t="n">
         <v>1.0</v>
@@ -3171,7 +3263,7 @@
         <v>12.0</v>
       </c>
       <c r="K22" t="n">
-        <v>36083.916666666664</v>
+        <v>24405.25</v>
       </c>
     </row>
     <row r="23">
@@ -3179,22 +3271,22 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>52.0</v>
+        <v>27.0</v>
       </c>
       <c r="C23" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D23">
         <f>$B$23+$C$23</f>
       </c>
       <c r="E23" t="n">
-        <v>354.0</v>
+        <v>163.0</v>
       </c>
       <c r="F23" t="n">
-        <v>52.0</v>
+        <v>29.0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H23" t="n">
         <v>1.0</v>
@@ -3206,7 +3298,7 @@
         <v>7.0</v>
       </c>
       <c r="K23" t="n">
-        <v>12705.57142857143</v>
+        <v>6561.857142857143</v>
       </c>
     </row>
     <row r="24">
@@ -3214,19 +3306,19 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>55.0</v>
+        <v>27.0</v>
       </c>
       <c r="C24" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="D24">
         <f>$B$24+$C$24</f>
       </c>
       <c r="E24" t="n">
-        <v>146.0</v>
+        <v>211.0</v>
       </c>
       <c r="F24" t="n">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
       <c r="G24" t="n">
         <v>0.0</v>
@@ -3241,7 +3333,7 @@
         <v>6.0</v>
       </c>
       <c r="K24" t="n">
-        <v>16383.833333333334</v>
+        <v>17505.666666666668</v>
       </c>
     </row>
     <row r="25">
@@ -3249,7 +3341,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>54.0</v>
+        <v>28.0</v>
       </c>
       <c r="C25" t="n">
         <v>1.0</v>
@@ -3258,13 +3350,13 @@
         <f>$B$25+$C$25</f>
       </c>
       <c r="E25" t="n">
-        <v>164.0</v>
+        <v>149.0</v>
       </c>
       <c r="F25" t="n">
-        <v>33.0</v>
+        <v>18.0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H25" t="n">
         <v>1.0</v>
@@ -3276,7 +3368,7 @@
         <v>6.0</v>
       </c>
       <c r="K25" t="n">
-        <v>10922.5</v>
+        <v>5851.666666666667</v>
       </c>
     </row>
     <row r="26">
@@ -3284,19 +3376,19 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>54.0</v>
+        <v>28.0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D26">
         <f>$B$26+$C$26</f>
       </c>
       <c r="E26" t="n">
-        <v>123.0</v>
+        <v>91.0</v>
       </c>
       <c r="F26" t="n">
-        <v>54.0</v>
+        <v>11.0</v>
       </c>
       <c r="G26" t="n">
         <v>1.0</v>
@@ -3311,7 +3403,7 @@
         <v>5.0</v>
       </c>
       <c r="K26" t="n">
-        <v>6846.2</v>
+        <v>20714.0</v>
       </c>
     </row>
     <row r="27">
@@ -3319,19 +3411,19 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>58.0</v>
+        <v>28.0</v>
       </c>
       <c r="C27" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="D27">
         <f>$B$27+$C$27</f>
       </c>
       <c r="E27" t="n">
-        <v>292.0</v>
+        <v>153.0</v>
       </c>
       <c r="F27" t="n">
-        <v>189.0</v>
+        <v>62.0</v>
       </c>
       <c r="G27" t="n">
         <v>1.0</v>
@@ -3346,7 +3438,7 @@
         <v>12.0</v>
       </c>
       <c r="K27" t="n">
-        <v>31646.5</v>
+        <v>17578.5</v>
       </c>
     </row>
     <row r="28">
@@ -3354,22 +3446,22 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>61.0</v>
+        <v>29.0</v>
       </c>
       <c r="C28" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D28">
         <f>$B$28+$C$28</f>
       </c>
       <c r="E28" t="n">
-        <v>200.0</v>
+        <v>236.0</v>
       </c>
       <c r="F28" t="n">
-        <v>60.0</v>
+        <v>16.0</v>
       </c>
       <c r="G28" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H28" t="n">
         <v>1.0</v>
@@ -3381,7 +3473,7 @@
         <v>6.0</v>
       </c>
       <c r="K28" t="n">
-        <v>10386.166666666666</v>
+        <v>5949.166666666667</v>
       </c>
     </row>
     <row r="29">
@@ -3389,7 +3481,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>62.0</v>
+        <v>30.0</v>
       </c>
       <c r="C29" t="n">
         <v>1.0</v>
@@ -3398,13 +3490,13 @@
         <f>$B$29+$C$29</f>
       </c>
       <c r="E29" t="n">
-        <v>198.0</v>
+        <v>201.0</v>
       </c>
       <c r="F29" t="n">
-        <v>14.0</v>
+        <v>18.0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H29" t="n">
         <v>1.0</v>
@@ -3416,7 +3508,7 @@
         <v>7.0</v>
       </c>
       <c r="K29" t="n">
-        <v>3803.1428571428573</v>
+        <v>9362.285714285714</v>
       </c>
     </row>
     <row r="30">
@@ -3424,7 +3516,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>63.0</v>
+        <v>30.0</v>
       </c>
       <c r="C30" t="n">
         <v>1.0</v>
@@ -3433,10 +3525,10 @@
         <f>$B$30+$C$30</f>
       </c>
       <c r="E30" t="n">
-        <v>169.0</v>
+        <v>159.0</v>
       </c>
       <c r="F30" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="G30" t="n">
         <v>0.0</v>
@@ -3448,10 +3540,10 @@
         <v>0.0</v>
       </c>
       <c r="J30" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="K30" t="n">
-        <v>14774.875</v>
+        <v>4437.333333333333</v>
       </c>
     </row>
     <row r="31">
@@ -3459,22 +3551,22 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>70.0</v>
+        <v>35.0</v>
       </c>
       <c r="C31" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="D31">
         <f>$B$31+$C$31</f>
       </c>
       <c r="E31" t="n">
-        <v>1165.0</v>
+        <v>598.0</v>
       </c>
       <c r="F31" t="n">
-        <v>902.0</v>
+        <v>576.0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H31" t="n">
         <v>1.0</v>
@@ -3483,10 +3575,10 @@
         <v>0.0</v>
       </c>
       <c r="J31" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="K31" t="n">
-        <v>13750.75</v>
+        <v>9460.0</v>
       </c>
     </row>
     <row r="32">
@@ -3605,19 +3697,19 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>703.0</v>
+        <v>2438.0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="D2">
         <f>$B$2+$C$2</f>
       </c>
       <c r="E2" t="n">
-        <v>235.0</v>
+        <v>807.0</v>
       </c>
       <c r="F2" t="n">
-        <v>106.0</v>
+        <v>678.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -3632,19 +3724,19 @@
         <v>6.0</v>
       </c>
       <c r="K2" t="n">
-        <v>4388.666666666667</v>
+        <v>4242.333333333333</v>
       </c>
       <c r="M2" t="n">
         <v>0.0</v>
       </c>
       <c r="N2" t="n">
-        <v>289.0</v>
+        <v>970.0</v>
       </c>
       <c r="O2" t="n">
-        <v>438.0</v>
+        <v>1687.0</v>
       </c>
       <c r="P2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -3652,19 +3744,19 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>414.0</v>
+        <v>1181.0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>46.0</v>
       </c>
       <c r="D3">
         <f>$B$3+$C$3</f>
       </c>
       <c r="E3" t="n">
-        <v>230.0</v>
+        <v>4082.0</v>
       </c>
       <c r="F3" t="n">
-        <v>96.0</v>
+        <v>3948.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -3679,7 +3771,7 @@
         <v>7.0</v>
       </c>
       <c r="K3" t="n">
-        <v>7983.0</v>
+        <v>2382.4285714285716</v>
       </c>
       <c r="M3" t="s">
         <v>4</v>
@@ -3696,19 +3788,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>335.0</v>
+        <v>211.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>95.0</v>
       </c>
       <c r="D4">
         <f>$B$4+$C$4</f>
       </c>
       <c r="E4" t="n">
-        <v>156.0</v>
+        <v>10910.0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.0</v>
+        <v>10779.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -3723,7 +3815,7 @@
         <v>6.0</v>
       </c>
       <c r="K4" t="n">
-        <v>3315.6666666666665</v>
+        <v>2340.1666666666665</v>
       </c>
       <c r="M4" t="s">
         <v>15</v>
@@ -3740,19 +3832,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>383.0</v>
+        <v>826.0</v>
       </c>
       <c r="C5" t="n">
-        <v>28.0</v>
+        <v>279.0</v>
       </c>
       <c r="D5">
         <f>$B$5+$C$5</f>
       </c>
       <c r="E5" t="n">
-        <v>2441.0</v>
+        <v>30780.0</v>
       </c>
       <c r="F5" t="n">
-        <v>2362.0</v>
+        <v>30701.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -3767,7 +3859,7 @@
         <v>5.0</v>
       </c>
       <c r="K5" t="n">
-        <v>6729.2</v>
+        <v>11117.4</v>
       </c>
       <c r="M5" t="s">
         <v>15</v>
@@ -3784,19 +3876,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>684.0</v>
+        <v>2303.0</v>
       </c>
       <c r="C6" t="n">
-        <v>12.0</v>
+        <v>48.0</v>
       </c>
       <c r="D6">
         <f>$B$6+$C$6</f>
       </c>
       <c r="E6" t="n">
-        <v>695.0</v>
+        <v>5291.0</v>
       </c>
       <c r="F6" t="n">
-        <v>561.0</v>
+        <v>5157.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -3811,7 +3903,7 @@
         <v>7.0</v>
       </c>
       <c r="K6" t="n">
-        <v>4764.857142857143</v>
+        <v>4722.857142857143</v>
       </c>
       <c r="M6" t="s">
         <v>15</v>
@@ -3828,19 +3920,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>331.0</v>
+        <v>163.0</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D7">
         <f>$B$7+$C$7</f>
       </c>
       <c r="E7" t="n">
-        <v>148.0</v>
+        <v>367.0</v>
       </c>
       <c r="F7" t="n">
-        <v>17.0</v>
+        <v>236.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -3855,7 +3947,7 @@
         <v>6.0</v>
       </c>
       <c r="K7" t="n">
-        <v>13263.166666666666</v>
+        <v>5997.5</v>
       </c>
       <c r="M7" t="s">
         <v>15</v>
@@ -3872,19 +3964,19 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>377.0</v>
+        <v>829.0</v>
       </c>
       <c r="C8" t="n">
-        <v>22.0</v>
+        <v>275.0</v>
       </c>
       <c r="D8">
         <f>$B$8+$C$8</f>
       </c>
       <c r="E8" t="n">
-        <v>1923.0</v>
+        <v>30774.0</v>
       </c>
       <c r="F8" t="n">
-        <v>1844.0</v>
+        <v>30695.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
@@ -3899,7 +3991,7 @@
         <v>5.0</v>
       </c>
       <c r="K8" t="n">
-        <v>9011.0</v>
+        <v>5032.4</v>
       </c>
       <c r="M8" t="s">
         <v>15</v>
@@ -3916,19 +4008,19 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="C9" t="n">
-        <v>29.0</v>
+        <v>6.0</v>
       </c>
       <c r="D9">
         <f>$B$9+$C$9</f>
       </c>
       <c r="E9" t="n">
-        <v>794.0</v>
+        <v>603.0</v>
       </c>
       <c r="F9" t="n">
-        <v>715.0</v>
+        <v>524.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -3943,7 +4035,7 @@
         <v>5.0</v>
       </c>
       <c r="K9" t="n">
-        <v>16793.4</v>
+        <v>17905.6</v>
       </c>
       <c r="M9" t="s">
         <v>15</v>
@@ -3960,19 +4052,19 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>704.0</v>
+        <v>2445.0</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="D10">
         <f>$B$10+$C$10</f>
       </c>
       <c r="E10" t="n">
-        <v>287.0</v>
+        <v>1206.0</v>
       </c>
       <c r="F10" t="n">
-        <v>156.0</v>
+        <v>1075.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -3987,7 +4079,7 @@
         <v>6.0</v>
       </c>
       <c r="K10" t="n">
-        <v>4876.166666666667</v>
+        <v>3949.8333333333335</v>
       </c>
       <c r="M10" t="s">
         <v>15</v>
@@ -4004,19 +4096,19 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>58.0</v>
+        <v>33.0</v>
       </c>
       <c r="C11" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="D11">
         <f>$B$11+$C$11</f>
       </c>
       <c r="E11" t="n">
-        <v>219.0</v>
+        <v>782.0</v>
       </c>
       <c r="F11" t="n">
-        <v>85.0</v>
+        <v>648.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
@@ -4031,7 +4123,7 @@
         <v>7.0</v>
       </c>
       <c r="K11" t="n">
-        <v>7398.0</v>
+        <v>8025.0</v>
       </c>
       <c r="M11" t="s">
         <v>15</v>
@@ -4048,19 +4140,19 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>686.0</v>
+        <v>2339.0</v>
       </c>
       <c r="C12" t="n">
-        <v>12.0</v>
+        <v>71.0</v>
       </c>
       <c r="D12">
         <f>$B$12+$C$12</f>
       </c>
       <c r="E12" t="n">
-        <v>715.0</v>
+        <v>7466.0</v>
       </c>
       <c r="F12" t="n">
-        <v>586.0</v>
+        <v>7337.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
@@ -4075,7 +4167,7 @@
         <v>6.0</v>
       </c>
       <c r="K12" t="n">
-        <v>6485.333333333333</v>
+        <v>4632.333333333333</v>
       </c>
       <c r="M12" t="s">
         <v>15</v>
@@ -4092,19 +4184,19 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>115.0</v>
+        <v>58.0</v>
       </c>
       <c r="C13" t="n">
-        <v>62.0</v>
+        <v>10.0</v>
       </c>
       <c r="D13">
         <f>$B$13+$C$13</f>
       </c>
       <c r="E13" t="n">
-        <v>3082.0</v>
+        <v>1216.0</v>
       </c>
       <c r="F13" t="n">
-        <v>2947.0</v>
+        <v>1081.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -4119,7 +4211,7 @@
         <v>7.0</v>
       </c>
       <c r="K13" t="n">
-        <v>22486.285714285714</v>
+        <v>10031.0</v>
       </c>
       <c r="M13" t="s">
         <v>15</v>
@@ -4136,19 +4228,19 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>42.0</v>
+        <v>19.0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D14">
         <f>$B$14+$C$14</f>
       </c>
       <c r="E14" t="n">
-        <v>156.0</v>
+        <v>434.0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.0</v>
+        <v>303.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -4163,7 +4255,7 @@
         <v>6.0</v>
       </c>
       <c r="K14" t="n">
-        <v>7509.833333333333</v>
+        <v>5266.166666666667</v>
       </c>
       <c r="M14" t="s">
         <v>15</v>
@@ -4180,19 +4272,19 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>714.0</v>
+        <v>2542.0</v>
       </c>
       <c r="C15" t="n">
-        <v>11.0</v>
+        <v>114.0</v>
       </c>
       <c r="D15">
         <f>$B$15+$C$15</f>
       </c>
       <c r="E15" t="n">
-        <v>1141.0</v>
+        <v>13203.0</v>
       </c>
       <c r="F15" t="n">
-        <v>1076.0</v>
+        <v>13138.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -4207,7 +4299,7 @@
         <v>4.0</v>
       </c>
       <c r="K15" t="n">
-        <v>7972.25</v>
+        <v>6144.0</v>
       </c>
       <c r="M15" t="s">
         <v>15</v>
@@ -4224,7 +4316,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>400.0</v>
+        <v>1107.0</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -4233,10 +4325,10 @@
         <f>$B$16+$C$16</f>
       </c>
       <c r="E16" t="n">
-        <v>165.0</v>
+        <v>213.0</v>
       </c>
       <c r="F16" t="n">
-        <v>46.0</v>
+        <v>94.0</v>
       </c>
       <c r="G16" t="n">
         <v>0.0</v>
@@ -4251,7 +4343,7 @@
         <v>6.0</v>
       </c>
       <c r="K16" t="n">
-        <v>3120.8333333333335</v>
+        <v>2340.3333333333335</v>
       </c>
       <c r="M16" t="s">
         <v>15</v>
@@ -4268,19 +4360,19 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>213.0</v>
+        <v>101.0</v>
       </c>
       <c r="C17" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="D17">
         <f>$B$17+$C$17</f>
       </c>
       <c r="E17" t="n">
-        <v>985.0</v>
+        <v>1383.0</v>
       </c>
       <c r="F17" t="n">
-        <v>955.0</v>
+        <v>1353.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
@@ -4295,7 +4387,7 @@
         <v>3.0</v>
       </c>
       <c r="K17" t="n">
-        <v>20090.333333333332</v>
+        <v>5169.0</v>
       </c>
       <c r="M17" t="s">
         <v>15</v>
@@ -4312,19 +4404,19 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>421.0</v>
+        <v>1167.0</v>
       </c>
       <c r="C18" t="n">
-        <v>5.0</v>
+        <v>38.0</v>
       </c>
       <c r="D18">
         <f>$B$18+$C$18</f>
       </c>
       <c r="E18" t="n">
-        <v>618.0</v>
+        <v>3211.0</v>
       </c>
       <c r="F18" t="n">
-        <v>481.0</v>
+        <v>3074.0</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>
@@ -4339,7 +4431,7 @@
         <v>7.0</v>
       </c>
       <c r="K18" t="n">
-        <v>3552.714285714286</v>
+        <v>2925.8571428571427</v>
       </c>
       <c r="M18" t="s">
         <v>15</v>
@@ -4356,19 +4448,19 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>43.0</v>
+        <v>19.0</v>
       </c>
       <c r="C19" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D19">
         <f>$B$19+$C$19</f>
       </c>
       <c r="E19" t="n">
-        <v>208.0</v>
+        <v>426.0</v>
       </c>
       <c r="F19" t="n">
-        <v>77.0</v>
+        <v>295.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
@@ -4383,7 +4475,7 @@
         <v>6.0</v>
       </c>
       <c r="K19" t="n">
-        <v>8192.0</v>
+        <v>12336.833333333334</v>
       </c>
     </row>
     <row r="20">
@@ -4391,19 +4483,19 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>727.0</v>
+        <v>2658.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D20">
         <f>$B$20+$C$20</f>
       </c>
       <c r="E20" t="n">
-        <v>126.0</v>
+        <v>166.0</v>
       </c>
       <c r="F20" t="n">
-        <v>19.0</v>
+        <v>59.0</v>
       </c>
       <c r="G20" t="n">
         <v>0.0</v>
@@ -4418,7 +4510,7 @@
         <v>7.0</v>
       </c>
       <c r="K20" t="n">
-        <v>4221.285714285715</v>
+        <v>3092.8571428571427</v>
       </c>
     </row>
     <row r="21">
@@ -4426,19 +4518,19 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>709.0</v>
+        <v>2518.0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.0</v>
+        <v>32.0</v>
       </c>
       <c r="D21">
         <f>$B$21+$C$21</f>
       </c>
       <c r="E21" t="n">
-        <v>210.0</v>
+        <v>4101.0</v>
       </c>
       <c r="F21" t="n">
-        <v>79.0</v>
+        <v>3970.0</v>
       </c>
       <c r="G21" t="n">
         <v>0.0</v>
@@ -4453,7 +4545,7 @@
         <v>6.0</v>
       </c>
       <c r="K21" t="n">
-        <v>5997.833333333333</v>
+        <v>3608.5</v>
       </c>
     </row>
     <row r="22">
@@ -4461,19 +4553,19 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>527.0</v>
+        <v>1759.0</v>
       </c>
       <c r="C22" t="n">
-        <v>139.0</v>
+        <v>459.0</v>
       </c>
       <c r="D22">
         <f>$B$22+$C$22</f>
       </c>
       <c r="E22" t="n">
-        <v>10768.0</v>
+        <v>44625.0</v>
       </c>
       <c r="F22" t="n">
-        <v>10682.0</v>
+        <v>44539.0</v>
       </c>
       <c r="G22" t="n">
         <v>0.0</v>
@@ -4488,7 +4580,7 @@
         <v>5.0</v>
       </c>
       <c r="K22" t="n">
-        <v>5266.2</v>
+        <v>6319.6</v>
       </c>
     </row>
     <row r="23">
@@ -4496,7 +4588,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>51.0</v>
+        <v>29.0</v>
       </c>
       <c r="C23" t="n">
         <v>2.0</v>
@@ -4505,10 +4597,10 @@
         <f>$B$23+$C$23</f>
       </c>
       <c r="E23" t="n">
-        <v>180.0</v>
+        <v>379.0</v>
       </c>
       <c r="F23" t="n">
-        <v>46.0</v>
+        <v>245.0</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
@@ -4523,7 +4615,7 @@
         <v>7.0</v>
       </c>
       <c r="K23" t="n">
-        <v>5558.857142857143</v>
+        <v>2215.285714285714</v>
       </c>
     </row>
     <row r="24">
@@ -4531,7 +4623,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>402.0</v>
+        <v>1107.0</v>
       </c>
       <c r="C24" t="n">
         <v>1.0</v>
@@ -4540,10 +4632,10 @@
         <f>$B$24+$C$24</f>
       </c>
       <c r="E24" t="n">
-        <v>174.0</v>
+        <v>209.0</v>
       </c>
       <c r="F24" t="n">
-        <v>57.0</v>
+        <v>92.0</v>
       </c>
       <c r="G24" t="n">
         <v>0.0</v>
@@ -4558,7 +4650,7 @@
         <v>6.0</v>
       </c>
       <c r="K24" t="n">
-        <v>5364.0</v>
+        <v>3510.8333333333335</v>
       </c>
     </row>
     <row r="25">
@@ -4566,19 +4658,19 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>332.0</v>
+        <v>163.0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D25">
         <f>$B$25+$C$25</f>
       </c>
       <c r="E25" t="n">
-        <v>147.0</v>
+        <v>359.0</v>
       </c>
       <c r="F25" t="n">
-        <v>16.0</v>
+        <v>228.0</v>
       </c>
       <c r="G25" t="n">
         <v>0.0</v>
@@ -4593,7 +4685,7 @@
         <v>6.0</v>
       </c>
       <c r="K25" t="n">
-        <v>5217.333333333333</v>
+        <v>3510.8333333333335</v>
       </c>
     </row>
     <row r="26">
@@ -4601,19 +4693,19 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>76.0</v>
+        <v>52.0</v>
       </c>
       <c r="C26" t="n">
-        <v>14.0</v>
+        <v>6.0</v>
       </c>
       <c r="D26">
         <f>$B$26+$C$26</f>
       </c>
       <c r="E26" t="n">
-        <v>104.0</v>
+        <v>631.0</v>
       </c>
       <c r="F26" t="n">
-        <v>35.0</v>
+        <v>562.0</v>
       </c>
       <c r="G26" t="n">
         <v>0.0</v>
@@ -4628,7 +4720,7 @@
         <v>5.0</v>
       </c>
       <c r="K26" t="n">
-        <v>6436.4</v>
+        <v>2925.8</v>
       </c>
     </row>
     <row r="27">
@@ -4636,19 +4728,19 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>468.0</v>
+        <v>1720.0</v>
       </c>
       <c r="C27" t="n">
-        <v>21.0</v>
+        <v>299.0</v>
       </c>
       <c r="D27">
         <f>$B$27+$C$27</f>
       </c>
       <c r="E27" t="n">
-        <v>1640.0</v>
+        <v>28977.0</v>
       </c>
       <c r="F27" t="n">
-        <v>1589.0</v>
+        <v>28926.0</v>
       </c>
       <c r="G27" t="n">
         <v>0.0</v>
@@ -4663,7 +4755,7 @@
         <v>4.0</v>
       </c>
       <c r="K27" t="n">
-        <v>9947.5</v>
+        <v>5339.5</v>
       </c>
     </row>
     <row r="28">
@@ -4671,19 +4763,19 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>102.0</v>
+        <v>59.0</v>
       </c>
       <c r="C28" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="D28">
         <f>$B$28+$C$28</f>
       </c>
       <c r="E28" t="n">
-        <v>404.0</v>
+        <v>167.0</v>
       </c>
       <c r="F28" t="n">
-        <v>275.0</v>
+        <v>38.0</v>
       </c>
       <c r="G28" t="n">
         <v>0.0</v>
@@ -4698,7 +4790,7 @@
         <v>6.0</v>
       </c>
       <c r="K28" t="n">
-        <v>9508.666666666666</v>
+        <v>5363.666666666667</v>
       </c>
     </row>
     <row r="29">
@@ -4706,19 +4798,19 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>697.0</v>
+        <v>2393.0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0</v>
+        <v>30.0</v>
       </c>
       <c r="D29">
         <f>$B$29+$C$29</f>
       </c>
       <c r="E29" t="n">
-        <v>184.0</v>
+        <v>3161.0</v>
       </c>
       <c r="F29" t="n">
-        <v>49.0</v>
+        <v>3026.0</v>
       </c>
       <c r="G29" t="n">
         <v>0.0</v>
@@ -4733,7 +4825,7 @@
         <v>7.0</v>
       </c>
       <c r="K29" t="n">
-        <v>4179.714285714285</v>
+        <v>20062.0</v>
       </c>
     </row>
     <row r="30">
@@ -4741,19 +4833,19 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>727.0</v>
+        <v>2657.0</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D30">
         <f>$B$30+$C$30</f>
       </c>
       <c r="E30" t="n">
-        <v>146.0</v>
+        <v>185.0</v>
       </c>
       <c r="F30" t="n">
-        <v>15.0</v>
+        <v>54.0</v>
       </c>
       <c r="G30" t="n">
         <v>0.0</v>
@@ -4768,7 +4860,7 @@
         <v>6.0</v>
       </c>
       <c r="K30" t="n">
-        <v>6290.0</v>
+        <v>2194.1666666666665</v>
       </c>
     </row>
     <row r="31">
@@ -4776,19 +4868,19 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>245.0</v>
+        <v>117.0</v>
       </c>
       <c r="C31" t="n">
-        <v>84.0</v>
+        <v>40.0</v>
       </c>
       <c r="D31">
         <f>$B$31+$C$31</f>
       </c>
       <c r="E31" t="n">
-        <v>5612.0</v>
+        <v>4581.0</v>
       </c>
       <c r="F31" t="n">
-        <v>5540.0</v>
+        <v>4509.0</v>
       </c>
       <c r="G31" t="n">
         <v>0.0</v>
@@ -4803,7 +4895,7 @@
         <v>5.0</v>
       </c>
       <c r="K31" t="n">
-        <v>9128.4</v>
+        <v>17320.4</v>
       </c>
     </row>
     <row r="32">
@@ -4922,22 +5014,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2">
         <f>$B$2+$C$2</f>
       </c>
       <c r="E2" t="n">
-        <v>156.0</v>
+        <v>171.0</v>
       </c>
       <c r="F2" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H2" t="n">
         <v>1.0</v>
@@ -4949,19 +5041,19 @@
         <v>6.0</v>
       </c>
       <c r="K2" t="n">
-        <v>7948.333333333333</v>
+        <v>9996.166666666666</v>
       </c>
       <c r="M2" t="n">
         <v>0.0</v>
       </c>
       <c r="N2" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -4969,7 +5061,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -4978,13 +5070,13 @@
         <f>$B$3+$C$3</f>
       </c>
       <c r="E3" t="n">
-        <v>164.0</v>
+        <v>252.0</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0</v>
+        <v>83.0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H3" t="n">
         <v>1.0</v>
@@ -4996,19 +5088,19 @@
         <v>7.0</v>
       </c>
       <c r="K3" t="n">
-        <v>10825.285714285714</v>
+        <v>11368.57142857143</v>
       </c>
       <c r="M3" t="n">
         <v>1.0</v>
       </c>
       <c r="N3" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O3" t="n">
-        <v>19.0</v>
+        <v>23.0</v>
       </c>
       <c r="P3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -5016,7 +5108,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -5025,13 +5117,13 @@
         <f>$B$4+$C$4</f>
       </c>
       <c r="E4" t="n">
-        <v>209.0</v>
+        <v>214.0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H4" t="n">
         <v>1.0</v>
@@ -5043,19 +5135,19 @@
         <v>6.0</v>
       </c>
       <c r="K4" t="n">
-        <v>13117.0</v>
+        <v>13312.166666666666</v>
       </c>
       <c r="M4" t="n">
         <v>2.0</v>
       </c>
       <c r="N4" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="O4" t="n">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="P4" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -5063,7 +5155,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -5072,13 +5164,13 @@
         <f>$B$5+$C$5</f>
       </c>
       <c r="E5" t="n">
-        <v>340.0</v>
+        <v>363.0</v>
       </c>
       <c r="F5" t="n">
-        <v>192.0</v>
+        <v>241.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H5" t="n">
         <v>1.0</v>
@@ -5087,10 +5179,10 @@
         <v>0.0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K5" t="n">
-        <v>17075.727272727272</v>
+        <v>23844.5</v>
       </c>
       <c r="M5" t="n">
         <v>3.0</v>
@@ -5099,10 +5191,10 @@
         <v>7.0</v>
       </c>
       <c r="O5" t="n">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
       <c r="P5" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
@@ -5110,7 +5202,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -5119,13 +5211,13 @@
         <f>$B$6+$C$6</f>
       </c>
       <c r="E6" t="n">
-        <v>149.0</v>
+        <v>198.0</v>
       </c>
       <c r="F6" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H6" t="n">
         <v>1.0</v>
@@ -5137,7 +5229,7 @@
         <v>7.0</v>
       </c>
       <c r="K6" t="n">
-        <v>7565.0</v>
+        <v>9027.857142857143</v>
       </c>
       <c r="M6" t="s">
         <v>4</v>
@@ -5154,22 +5246,22 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D7">
         <f>$B$7+$C$7</f>
       </c>
       <c r="E7" t="n">
-        <v>352.0</v>
+        <v>174.0</v>
       </c>
       <c r="F7" t="n">
-        <v>45.0</v>
+        <v>43.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -5178,10 +5270,10 @@
         <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="K7" t="n">
-        <v>20714.1</v>
+        <v>3120.5</v>
       </c>
       <c r="M7" t="s">
         <v>15</v>
@@ -5198,19 +5290,19 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>14.0</v>
+        <v>18.0</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D8">
         <f>$B$8+$C$8</f>
       </c>
       <c r="E8" t="n">
-        <v>431.0</v>
+        <v>436.0</v>
       </c>
       <c r="F8" t="n">
-        <v>280.0</v>
+        <v>268.0</v>
       </c>
       <c r="G8" t="n">
         <v>1.0</v>
@@ -5222,10 +5314,10 @@
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="K8" t="n">
-        <v>20547.384615384617</v>
+        <v>20065.5</v>
       </c>
       <c r="M8" t="s">
         <v>15</v>
@@ -5242,19 +5334,19 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D9">
         <f>$B$9+$C$9</f>
       </c>
       <c r="E9" t="n">
-        <v>141.0</v>
+        <v>457.0</v>
       </c>
       <c r="F9" t="n">
-        <v>70.0</v>
+        <v>291.0</v>
       </c>
       <c r="G9" t="n">
         <v>3.0</v>
@@ -5266,10 +5358,10 @@
         <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="K9" t="n">
-        <v>18627.333333333332</v>
+        <v>52865.38461538462</v>
       </c>
       <c r="M9" t="s">
         <v>15</v>
@@ -5286,19 +5378,19 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>26.0</v>
+        <v>30.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D10">
         <f>$B$10+$C$10</f>
       </c>
       <c r="E10" t="n">
-        <v>148.0</v>
+        <v>164.0</v>
       </c>
       <c r="F10" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="G10" t="n">
         <v>1.0</v>
@@ -5313,7 +5405,7 @@
         <v>6.0</v>
       </c>
       <c r="K10" t="n">
-        <v>10191.166666666666</v>
+        <v>14677.166666666666</v>
       </c>
       <c r="M10" t="s">
         <v>15</v>
@@ -5330,7 +5422,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -5339,13 +5431,13 @@
         <f>$B$11+$C$11</f>
       </c>
       <c r="E11" t="n">
-        <v>186.0</v>
+        <v>166.0</v>
       </c>
       <c r="F11" t="n">
-        <v>52.0</v>
+        <v>15.0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H11" t="n">
         <v>1.0</v>
@@ -5357,7 +5449,7 @@
         <v>7.0</v>
       </c>
       <c r="K11" t="n">
-        <v>5433.428571428572</v>
+        <v>36404.28571428572</v>
       </c>
       <c r="M11" t="s">
         <v>15</v>
@@ -5374,7 +5466,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -5383,13 +5475,13 @@
         <f>$B$12+$C$12</f>
       </c>
       <c r="E12" t="n">
-        <v>256.0</v>
+        <v>199.0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H12" t="n">
         <v>1.0</v>
@@ -5401,7 +5493,7 @@
         <v>6.0</v>
       </c>
       <c r="K12" t="n">
-        <v>8143.333333333333</v>
+        <v>23308.166666666668</v>
       </c>
       <c r="M12" t="s">
         <v>15</v>
@@ -5418,7 +5510,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -5427,13 +5519,13 @@
         <f>$B$13+$C$13</f>
       </c>
       <c r="E13" t="n">
-        <v>304.0</v>
+        <v>147.0</v>
       </c>
       <c r="F13" t="n">
-        <v>32.0</v>
+        <v>12.0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H13" t="n">
         <v>1.0</v>
@@ -5445,7 +5537,7 @@
         <v>7.0</v>
       </c>
       <c r="K13" t="n">
-        <v>5182.714285714285</v>
+        <v>20020.0</v>
       </c>
       <c r="M13" t="s">
         <v>15</v>
@@ -5462,7 +5554,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -5471,13 +5563,13 @@
         <f>$B$14+$C$14</f>
       </c>
       <c r="E14" t="n">
-        <v>215.0</v>
+        <v>188.0</v>
       </c>
       <c r="F14" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H14" t="n">
         <v>1.0</v>
@@ -5489,7 +5581,7 @@
         <v>6.0</v>
       </c>
       <c r="K14" t="n">
-        <v>11800.5</v>
+        <v>54320.666666666664</v>
       </c>
       <c r="M14" t="s">
         <v>15</v>
@@ -5506,19 +5598,19 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>27.0</v>
+        <v>31.0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D15">
         <f>$B$15+$C$15</f>
       </c>
       <c r="E15" t="n">
+        <v>339.0</v>
+      </c>
+      <c r="F15" t="n">
         <v>245.0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>135.0</v>
       </c>
       <c r="G15" t="n">
         <v>1.0</v>
@@ -5533,7 +5625,7 @@
         <v>12.0</v>
       </c>
       <c r="K15" t="n">
-        <v>28403.666666666668</v>
+        <v>20918.916666666668</v>
       </c>
       <c r="M15" t="s">
         <v>15</v>
@@ -5550,7 +5642,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -5559,13 +5651,13 @@
         <f>$B$16+$C$16</f>
       </c>
       <c r="E16" t="n">
-        <v>183.0</v>
+        <v>144.0</v>
       </c>
       <c r="F16" t="n">
-        <v>52.0</v>
+        <v>20.0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H16" t="n">
         <v>1.0</v>
@@ -5577,7 +5669,7 @@
         <v>6.0</v>
       </c>
       <c r="K16" t="n">
-        <v>11654.333333333334</v>
+        <v>9606.333333333334</v>
       </c>
       <c r="M16" t="s">
         <v>15</v>
@@ -5594,22 +5686,22 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D17">
         <f>$B$17+$C$17</f>
       </c>
       <c r="E17" t="n">
-        <v>68.0</v>
+        <v>133.0</v>
       </c>
       <c r="F17" t="n">
-        <v>38.0</v>
+        <v>83.0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H17" t="n">
         <v>1.0</v>
@@ -5618,10 +5710,10 @@
         <v>0.0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="K17" t="n">
-        <v>13848.333333333334</v>
+        <v>20001.18181818182</v>
       </c>
       <c r="M17" t="s">
         <v>15</v>
@@ -5638,7 +5730,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
@@ -5647,13 +5739,13 @@
         <f>$B$18+$C$18</f>
       </c>
       <c r="E18" t="n">
-        <v>211.0</v>
+        <v>207.0</v>
       </c>
       <c r="F18" t="n">
-        <v>32.0</v>
+        <v>18.0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H18" t="n">
         <v>1.0</v>
@@ -5665,7 +5757,7 @@
         <v>7.0</v>
       </c>
       <c r="K18" t="n">
-        <v>13750.57142857143</v>
+        <v>14754.142857142857</v>
       </c>
       <c r="M18" t="s">
         <v>15</v>
@@ -5682,7 +5774,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
@@ -5691,10 +5783,10 @@
         <f>$B$19+$C$19</f>
       </c>
       <c r="E19" t="n">
-        <v>158.0</v>
+        <v>238.0</v>
       </c>
       <c r="F19" t="n">
-        <v>21.0</v>
+        <v>39.0</v>
       </c>
       <c r="G19" t="n">
         <v>1.0</v>
@@ -5706,10 +5798,10 @@
         <v>0.0</v>
       </c>
       <c r="J19" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="K19" t="n">
-        <v>18676.0</v>
+        <v>41281.8</v>
       </c>
       <c r="M19" t="s">
         <v>15</v>
@@ -5726,22 +5818,22 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>28.0</v>
+        <v>33.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D20">
         <f>$B$20+$C$20</f>
       </c>
       <c r="E20" t="n">
-        <v>440.0</v>
+        <v>140.0</v>
       </c>
       <c r="F20" t="n">
-        <v>50.0</v>
+        <v>33.0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H20" t="n">
         <v>1.0</v>
@@ -5750,10 +5842,10 @@
         <v>0.0</v>
       </c>
       <c r="J20" t="n">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="K20" t="n">
-        <v>15268.5625</v>
+        <v>8317.42857142857</v>
       </c>
       <c r="M20" t="s">
         <v>15</v>
@@ -5770,22 +5862,22 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D21">
         <f>$B$21+$C$21</f>
       </c>
       <c r="E21" t="n">
-        <v>157.0</v>
+        <v>163.0</v>
       </c>
       <c r="F21" t="n">
-        <v>17.0</v>
+        <v>32.0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H21" t="n">
         <v>1.0</v>
@@ -5797,7 +5889,7 @@
         <v>6.0</v>
       </c>
       <c r="K21" t="n">
-        <v>9509.0</v>
+        <v>10386.166666666666</v>
       </c>
       <c r="M21" t="s">
         <v>15</v>
@@ -5814,7 +5906,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="C22" t="n">
         <v>3.0</v>
@@ -5823,13 +5915,13 @@
         <f>$B$22+$C$22</f>
       </c>
       <c r="E22" t="n">
-        <v>504.0</v>
+        <v>479.0</v>
       </c>
       <c r="F22" t="n">
-        <v>306.0</v>
+        <v>326.0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="H22" t="n">
         <v>1.0</v>
@@ -5838,10 +5930,10 @@
         <v>0.0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="K22" t="n">
-        <v>17285.916666666668</v>
+        <v>17982.0</v>
       </c>
     </row>
     <row r="23">
@@ -5849,19 +5941,19 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="C23" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D23">
         <f>$B$23+$C$23</f>
       </c>
       <c r="E23" t="n">
-        <v>218.0</v>
+        <v>167.0</v>
       </c>
       <c r="F23" t="n">
-        <v>27.0</v>
+        <v>15.0</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
@@ -5876,7 +5968,7 @@
         <v>7.0</v>
       </c>
       <c r="K23" t="n">
-        <v>6645.571428571428</v>
+        <v>34189.142857142855</v>
       </c>
     </row>
     <row r="24">
@@ -5884,7 +5976,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="C24" t="n">
         <v>0.0</v>
@@ -5893,10 +5985,10 @@
         <f>$B$24+$C$24</f>
       </c>
       <c r="E24" t="n">
-        <v>128.0</v>
+        <v>136.0</v>
       </c>
       <c r="F24" t="n">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
       <c r="G24" t="n">
         <v>0.0</v>
@@ -5911,7 +6003,7 @@
         <v>6.0</v>
       </c>
       <c r="K24" t="n">
-        <v>13068.166666666666</v>
+        <v>13458.166666666666</v>
       </c>
     </row>
     <row r="25">
@@ -5919,7 +6011,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="C25" t="n">
         <v>1.0</v>
@@ -5928,10 +6020,10 @@
         <f>$B$25+$C$25</f>
       </c>
       <c r="E25" t="n">
-        <v>222.0</v>
+        <v>317.0</v>
       </c>
       <c r="F25" t="n">
-        <v>22.0</v>
+        <v>41.0</v>
       </c>
       <c r="G25" t="n">
         <v>1.0</v>
@@ -5943,10 +6035,10 @@
         <v>0.0</v>
       </c>
       <c r="J25" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="K25" t="n">
-        <v>11702.833333333334</v>
+        <v>18757.0</v>
       </c>
     </row>
     <row r="26">
@@ -5954,7 +6046,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="C26" t="n">
         <v>0.0</v>
@@ -5963,13 +6055,13 @@
         <f>$B$26+$C$26</f>
       </c>
       <c r="E26" t="n">
-        <v>78.0</v>
+        <v>132.0</v>
       </c>
       <c r="F26" t="n">
-        <v>9.0</v>
+        <v>21.0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H26" t="n">
         <v>1.0</v>
@@ -5978,10 +6070,10 @@
         <v>0.0</v>
       </c>
       <c r="J26" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="K26" t="n">
-        <v>16593.0</v>
+        <v>48625.6</v>
       </c>
     </row>
     <row r="27">
@@ -5989,7 +6081,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>19.0</v>
+        <v>24.0</v>
       </c>
       <c r="C27" t="n">
         <v>2.0</v>
@@ -5998,13 +6090,13 @@
         <f>$B$27+$C$27</f>
       </c>
       <c r="E27" t="n">
-        <v>371.0</v>
+        <v>402.0</v>
       </c>
       <c r="F27" t="n">
-        <v>205.0</v>
+        <v>282.0</v>
       </c>
       <c r="G27" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H27" t="n">
         <v>1.0</v>
@@ -6016,7 +6108,7 @@
         <v>12.0</v>
       </c>
       <c r="K27" t="n">
-        <v>22040.25</v>
+        <v>16335.083333333334</v>
       </c>
     </row>
     <row r="28">
@@ -6024,7 +6116,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="C28" t="n">
         <v>1.0</v>
@@ -6033,13 +6125,13 @@
         <f>$B$28+$C$28</f>
       </c>
       <c r="E28" t="n">
-        <v>165.0</v>
+        <v>279.0</v>
       </c>
       <c r="F28" t="n">
-        <v>17.0</v>
+        <v>35.0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H28" t="n">
         <v>1.0</v>
@@ -6051,7 +6143,7 @@
         <v>6.0</v>
       </c>
       <c r="K28" t="n">
-        <v>16432.833333333332</v>
+        <v>37497.833333333336</v>
       </c>
     </row>
     <row r="29">
@@ -6059,7 +6151,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
       <c r="C29" t="n">
         <v>1.0</v>
@@ -6068,10 +6160,10 @@
         <f>$B$29+$C$29</f>
       </c>
       <c r="E29" t="n">
-        <v>207.0</v>
+        <v>147.0</v>
       </c>
       <c r="F29" t="n">
-        <v>22.0</v>
+        <v>12.0</v>
       </c>
       <c r="G29" t="n">
         <v>2.0</v>
@@ -6086,7 +6178,7 @@
         <v>7.0</v>
       </c>
       <c r="K29" t="n">
-        <v>10616.285714285714</v>
+        <v>24701.428571428572</v>
       </c>
     </row>
     <row r="30">
@@ -6094,22 +6186,22 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>29.0</v>
+        <v>33.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D30">
         <f>$B$30+$C$30</f>
       </c>
       <c r="E30" t="n">
-        <v>143.0</v>
+        <v>325.0</v>
       </c>
       <c r="F30" t="n">
-        <v>12.0</v>
+        <v>56.0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H30" t="n">
         <v>1.0</v>
@@ -6121,7 +6213,7 @@
         <v>6.0</v>
       </c>
       <c r="K30" t="n">
-        <v>6728.833333333333</v>
+        <v>6924.166666666667</v>
       </c>
     </row>
     <row r="31">
@@ -6129,22 +6221,22 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D31">
         <f>$B$31+$C$31</f>
       </c>
       <c r="E31" t="n">
-        <v>71.0</v>
+        <v>159.0</v>
       </c>
       <c r="F31" t="n">
-        <v>48.0</v>
+        <v>75.0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H31" t="n">
         <v>1.0</v>
@@ -6153,10 +6245,10 @@
         <v>0.0</v>
       </c>
       <c r="J31" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="K31" t="n">
-        <v>26819.0</v>
+        <v>29230.454545454544</v>
       </c>
     </row>
     <row r="32">
@@ -6275,19 +6367,19 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>862.0</v>
+        <v>76.0</v>
       </c>
       <c r="C2" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2">
         <f>$B$2+$C$2</f>
       </c>
       <c r="E2" t="n">
-        <v>1196.0</v>
+        <v>191.0</v>
       </c>
       <c r="F2" t="n">
-        <v>1067.0</v>
+        <v>62.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -6302,19 +6394,19 @@
         <v>6.0</v>
       </c>
       <c r="K2" t="n">
-        <v>5510.0</v>
+        <v>23942.166666666668</v>
       </c>
       <c r="M2" t="n">
         <v>0.0</v>
       </c>
       <c r="N2" t="n">
-        <v>568.0</v>
+        <v>304.0</v>
       </c>
       <c r="O2" t="n">
-        <v>776.0</v>
+        <v>580.0</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -6322,19 +6414,19 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>1133.0</v>
+        <v>371.0</v>
       </c>
       <c r="C3" t="n">
-        <v>17.0</v>
+        <v>66.0</v>
       </c>
       <c r="D3">
         <f>$B$3+$C$3</f>
       </c>
       <c r="E3" t="n">
-        <v>2102.0</v>
+        <v>5490.0</v>
       </c>
       <c r="F3" t="n">
-        <v>1968.0</v>
+        <v>5356.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -6349,7 +6441,7 @@
         <v>7.0</v>
       </c>
       <c r="K3" t="n">
-        <v>3719.714285714286</v>
+        <v>1755.4285714285713</v>
       </c>
       <c r="M3" t="s">
         <v>4</v>
@@ -6366,19 +6458,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>958.0</v>
+        <v>147.0</v>
       </c>
       <c r="C4" t="n">
-        <v>13.0</v>
+        <v>51.0</v>
       </c>
       <c r="D4">
         <f>$B$4+$C$4</f>
       </c>
       <c r="E4" t="n">
-        <v>1435.0</v>
+        <v>6216.0</v>
       </c>
       <c r="F4" t="n">
-        <v>1304.0</v>
+        <v>6085.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -6393,7 +6485,7 @@
         <v>6.0</v>
       </c>
       <c r="K4" t="n">
-        <v>6680.5</v>
+        <v>11995.166666666666</v>
       </c>
       <c r="M4" t="s">
         <v>15</v>
@@ -6410,19 +6502,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="D5">
         <f>$B$5+$C$5</f>
       </c>
       <c r="E5" t="n">
-        <v>1378.0</v>
+        <v>473.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1299.0</v>
+        <v>395.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -6437,7 +6529,7 @@
         <v>5.0</v>
       </c>
       <c r="K5" t="n">
-        <v>13809.2</v>
+        <v>12814.6</v>
       </c>
       <c r="M5" t="s">
         <v>15</v>
@@ -6454,19 +6546,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>1156.0</v>
+        <v>440.0</v>
       </c>
       <c r="C6" t="n">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="D6">
         <f>$B$6+$C$6</f>
       </c>
       <c r="E6" t="n">
-        <v>2139.0</v>
+        <v>888.0</v>
       </c>
       <c r="F6" t="n">
-        <v>2005.0</v>
+        <v>754.0</v>
       </c>
       <c r="G6" t="n">
         <v>0.0</v>
@@ -6481,7 +6573,7 @@
         <v>7.0</v>
       </c>
       <c r="K6" t="n">
-        <v>3093.0</v>
+        <v>2633.285714285714</v>
       </c>
       <c r="M6" t="s">
         <v>15</v>
@@ -6498,19 +6590,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>976.0</v>
+        <v>204.0</v>
       </c>
       <c r="C7" t="n">
-        <v>12.0</v>
+        <v>23.0</v>
       </c>
       <c r="D7">
         <f>$B$7+$C$7</f>
       </c>
       <c r="E7" t="n">
-        <v>1557.0</v>
+        <v>2363.0</v>
       </c>
       <c r="F7" t="n">
-        <v>1426.0</v>
+        <v>2232.0</v>
       </c>
       <c r="G7" t="n">
         <v>0.0</v>
@@ -6525,7 +6617,7 @@
         <v>6.0</v>
       </c>
       <c r="K7" t="n">
-        <v>4388.166666666667</v>
+        <v>1950.3333333333333</v>
       </c>
       <c r="M7" t="s">
         <v>15</v>
@@ -6542,19 +6634,19 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>41.0</v>
+        <v>16.0</v>
       </c>
       <c r="C8" t="n">
-        <v>43.0</v>
+        <v>15.0</v>
       </c>
       <c r="D8">
         <f>$B$8+$C$8</f>
       </c>
       <c r="E8" t="n">
-        <v>4193.0</v>
+        <v>2063.0</v>
       </c>
       <c r="F8" t="n">
-        <v>4114.0</v>
+        <v>1984.0</v>
       </c>
       <c r="G8" t="n">
         <v>0.0</v>
@@ -6569,7 +6661,7 @@
         <v>5.0</v>
       </c>
       <c r="K8" t="n">
-        <v>14569.8</v>
+        <v>16208.4</v>
       </c>
       <c r="M8" t="s">
         <v>15</v>
@@ -6586,19 +6678,19 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>100.0</v>
+        <v>33.0</v>
       </c>
       <c r="C9" t="n">
-        <v>38.0</v>
+        <v>1.0</v>
       </c>
       <c r="D9">
         <f>$B$9+$C$9</f>
       </c>
       <c r="E9" t="n">
-        <v>3656.0</v>
+        <v>287.0</v>
       </c>
       <c r="F9" t="n">
-        <v>3577.0</v>
+        <v>208.0</v>
       </c>
       <c r="G9" t="n">
         <v>0.0</v>
@@ -6613,7 +6705,7 @@
         <v>5.0</v>
       </c>
       <c r="K9" t="n">
-        <v>17671.2</v>
+        <v>7197.4</v>
       </c>
       <c r="M9" t="s">
         <v>15</v>
@@ -6630,19 +6722,19 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>992.0</v>
+        <v>229.0</v>
       </c>
       <c r="C10" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="D10">
         <f>$B$10+$C$10</f>
       </c>
       <c r="E10" t="n">
-        <v>1319.0</v>
+        <v>486.0</v>
       </c>
       <c r="F10" t="n">
-        <v>1188.0</v>
+        <v>355.0</v>
       </c>
       <c r="G10" t="n">
         <v>0.0</v>
@@ -6657,7 +6749,7 @@
         <v>6.0</v>
       </c>
       <c r="K10" t="n">
-        <v>2974.5</v>
+        <v>2584.5</v>
       </c>
       <c r="M10" t="s">
         <v>15</v>
@@ -6674,19 +6766,19 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1186.0</v>
+        <v>489.0</v>
       </c>
       <c r="C11" t="n">
-        <v>35.0</v>
+        <v>69.0</v>
       </c>
       <c r="D11">
         <f>$B$11+$C$11</f>
       </c>
       <c r="E11" t="n">
-        <v>3918.0</v>
+        <v>5425.0</v>
       </c>
       <c r="F11" t="n">
-        <v>3784.0</v>
+        <v>5291.0</v>
       </c>
       <c r="G11" t="n">
         <v>0.0</v>
@@ -6701,7 +6793,7 @@
         <v>7.0</v>
       </c>
       <c r="K11" t="n">
-        <v>2340.4285714285716</v>
+        <v>3051.1428571428573</v>
       </c>
       <c r="M11" t="s">
         <v>15</v>
@@ -6718,19 +6810,19 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>873.0</v>
+        <v>77.0</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="D12">
         <f>$B$12+$C$12</f>
       </c>
       <c r="E12" t="n">
-        <v>456.0</v>
+        <v>262.0</v>
       </c>
       <c r="F12" t="n">
-        <v>327.0</v>
+        <v>133.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
@@ -6745,7 +6837,7 @@
         <v>6.0</v>
       </c>
       <c r="K12" t="n">
-        <v>5266.166666666667</v>
+        <v>3803.3333333333335</v>
       </c>
       <c r="M12" t="s">
         <v>15</v>
@@ -6762,19 +6854,19 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>1223.0</v>
+        <v>607.0</v>
       </c>
       <c r="C13" t="n">
-        <v>5.0</v>
+        <v>224.0</v>
       </c>
       <c r="D13">
         <f>$B$13+$C$13</f>
       </c>
       <c r="E13" t="n">
-        <v>617.0</v>
+        <v>17747.0</v>
       </c>
       <c r="F13" t="n">
-        <v>482.0</v>
+        <v>17612.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -6789,7 +6881,7 @@
         <v>7.0</v>
       </c>
       <c r="K13" t="n">
-        <v>6478.285714285715</v>
+        <v>3469.1428571428573</v>
       </c>
       <c r="M13" t="s">
         <v>15</v>
@@ -6806,19 +6898,19 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1014.0</v>
+        <v>235.0</v>
       </c>
       <c r="C14" t="n">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="D14">
         <f>$B$14+$C$14</f>
       </c>
       <c r="E14" t="n">
-        <v>3440.0</v>
+        <v>834.0</v>
       </c>
       <c r="F14" t="n">
-        <v>3309.0</v>
+        <v>703.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -6833,7 +6925,7 @@
         <v>6.0</v>
       </c>
       <c r="K14" t="n">
-        <v>3754.6666666666665</v>
+        <v>1121.5</v>
       </c>
       <c r="M14" t="s">
         <v>15</v>
@@ -6850,19 +6942,19 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>192.0</v>
+        <v>38.0</v>
       </c>
       <c r="C15" t="n">
-        <v>138.0</v>
+        <v>5.0</v>
       </c>
       <c r="D15">
         <f>$B$15+$C$15</f>
       </c>
       <c r="E15" t="n">
-        <v>13616.0</v>
+        <v>816.0</v>
       </c>
       <c r="F15" t="n">
-        <v>13551.0</v>
+        <v>751.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -6877,7 +6969,7 @@
         <v>4.0</v>
       </c>
       <c r="K15" t="n">
-        <v>10532.75</v>
+        <v>8850.0</v>
       </c>
       <c r="M15" t="s">
         <v>15</v>
@@ -6894,19 +6986,19 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>1047.0</v>
+        <v>243.0</v>
       </c>
       <c r="C16" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="D16">
         <f>$B$16+$C$16</f>
       </c>
       <c r="E16" t="n">
-        <v>1582.0</v>
+        <v>212.0</v>
       </c>
       <c r="F16" t="n">
-        <v>1463.0</v>
+        <v>93.0</v>
       </c>
       <c r="G16" t="n">
         <v>0.0</v>
@@ -6921,7 +7013,7 @@
         <v>6.0</v>
       </c>
       <c r="K16" t="n">
-        <v>3364.6666666666665</v>
+        <v>3023.1666666666665</v>
       </c>
       <c r="M16" t="s">
         <v>15</v>
@@ -6938,19 +7030,19 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>346.0</v>
+        <v>46.0</v>
       </c>
       <c r="C17" t="n">
-        <v>52.0</v>
+        <v>3.0</v>
       </c>
       <c r="D17">
         <f>$B$17+$C$17</f>
       </c>
       <c r="E17" t="n">
-        <v>4170.0</v>
+        <v>541.0</v>
       </c>
       <c r="F17" t="n">
-        <v>4140.0</v>
+        <v>511.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
@@ -6965,7 +7057,7 @@
         <v>3.0</v>
       </c>
       <c r="K17" t="n">
-        <v>8191.666666666667</v>
+        <v>8289.333333333334</v>
       </c>
       <c r="M17" t="s">
         <v>15</v>
@@ -6982,19 +7074,19 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>1237.0</v>
+        <v>833.0</v>
       </c>
       <c r="C18" t="n">
-        <v>23.0</v>
+        <v>6.0</v>
       </c>
       <c r="D18">
         <f>$B$18+$C$18</f>
       </c>
       <c r="E18" t="n">
-        <v>2752.0</v>
+        <v>661.0</v>
       </c>
       <c r="F18" t="n">
-        <v>2615.0</v>
+        <v>524.0</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>
@@ -7009,7 +7101,7 @@
         <v>7.0</v>
       </c>
       <c r="K18" t="n">
-        <v>4263.285714285715</v>
+        <v>2591.4285714285716</v>
       </c>
       <c r="M18" t="s">
         <v>15</v>
@@ -7026,19 +7118,19 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1064.0</v>
+        <v>245.0</v>
       </c>
       <c r="C19" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="D19">
         <f>$B$19+$C$19</f>
       </c>
       <c r="E19" t="n">
-        <v>699.0</v>
+        <v>451.0</v>
       </c>
       <c r="F19" t="n">
-        <v>568.0</v>
+        <v>320.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
@@ -7053,7 +7145,7 @@
         <v>6.0</v>
       </c>
       <c r="K19" t="n">
-        <v>3949.6666666666665</v>
+        <v>3072.0</v>
       </c>
     </row>
     <row r="20">
@@ -7061,19 +7153,19 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>1267.0</v>
+        <v>842.0</v>
       </c>
       <c r="C20" t="n">
-        <v>21.0</v>
+        <v>13.0</v>
       </c>
       <c r="D20">
         <f>$B$20+$C$20</f>
       </c>
       <c r="E20" t="n">
-        <v>2288.0</v>
+        <v>1080.0</v>
       </c>
       <c r="F20" t="n">
-        <v>2181.0</v>
+        <v>973.0</v>
       </c>
       <c r="G20" t="n">
         <v>0.0</v>
@@ -7088,7 +7180,7 @@
         <v>7.0</v>
       </c>
       <c r="K20" t="n">
-        <v>2466.0</v>
+        <v>2800.1428571428573</v>
       </c>
     </row>
     <row r="21">
@@ -7096,19 +7188,19 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>1074.0</v>
+        <v>259.0</v>
       </c>
       <c r="C21" t="n">
-        <v>9.0</v>
+        <v>35.0</v>
       </c>
       <c r="D21">
         <f>$B$21+$C$21</f>
       </c>
       <c r="E21" t="n">
-        <v>845.0</v>
+        <v>3532.0</v>
       </c>
       <c r="F21" t="n">
-        <v>714.0</v>
+        <v>3401.0</v>
       </c>
       <c r="G21" t="n">
         <v>0.0</v>
@@ -7123,7 +7215,7 @@
         <v>6.0</v>
       </c>
       <c r="K21" t="n">
-        <v>3072.0</v>
+        <v>3315.8333333333335</v>
       </c>
     </row>
     <row r="22">
@@ -7131,19 +7223,19 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>465.0</v>
+        <v>58.0</v>
       </c>
       <c r="C22" t="n">
-        <v>190.0</v>
+        <v>8.0</v>
       </c>
       <c r="D22">
         <f>$B$22+$C$22</f>
       </c>
       <c r="E22" t="n">
-        <v>15976.0</v>
+        <v>1092.0</v>
       </c>
       <c r="F22" t="n">
-        <v>15890.0</v>
+        <v>1006.0</v>
       </c>
       <c r="G22" t="n">
         <v>0.0</v>
@@ -7158,7 +7250,7 @@
         <v>5.0</v>
       </c>
       <c r="K22" t="n">
-        <v>11234.6</v>
+        <v>8601.6</v>
       </c>
     </row>
     <row r="23">
@@ -7166,19 +7258,19 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>1293.0</v>
+        <v>855.0</v>
       </c>
       <c r="C23" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="D23">
         <f>$B$23+$C$23</f>
       </c>
       <c r="E23" t="n">
-        <v>1445.0</v>
+        <v>157.0</v>
       </c>
       <c r="F23" t="n">
-        <v>1311.0</v>
+        <v>23.0</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
@@ -7193,7 +7285,7 @@
         <v>7.0</v>
       </c>
       <c r="K23" t="n">
-        <v>3301.8571428571427</v>
+        <v>4179.714285714285</v>
       </c>
     </row>
     <row r="24">
@@ -7201,19 +7293,19 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>882.0</v>
+        <v>80.0</v>
       </c>
       <c r="C24" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="D24">
         <f>$B$24+$C$24</f>
       </c>
       <c r="E24" t="n">
-        <v>1335.0</v>
+        <v>557.0</v>
       </c>
       <c r="F24" t="n">
-        <v>1218.0</v>
+        <v>440.0</v>
       </c>
       <c r="G24" t="n">
         <v>0.0</v>
@@ -7228,7 +7320,7 @@
         <v>6.0</v>
       </c>
       <c r="K24" t="n">
-        <v>2048.0</v>
+        <v>2584.5</v>
       </c>
     </row>
     <row r="25">
@@ -7236,19 +7328,19 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>1087.0</v>
+        <v>302.0</v>
       </c>
       <c r="C25" t="n">
-        <v>12.0</v>
+        <v>34.0</v>
       </c>
       <c r="D25">
         <f>$B$25+$C$25</f>
       </c>
       <c r="E25" t="n">
-        <v>1099.0</v>
+        <v>2798.0</v>
       </c>
       <c r="F25" t="n">
-        <v>968.0</v>
+        <v>2667.0</v>
       </c>
       <c r="G25" t="n">
         <v>0.0</v>
@@ -7263,7 +7355,7 @@
         <v>6.0</v>
       </c>
       <c r="K25" t="n">
-        <v>3900.8333333333335</v>
+        <v>1804.1666666666667</v>
       </c>
     </row>
     <row r="26">
@@ -7271,19 +7363,19 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>902.0</v>
+        <v>85.0</v>
       </c>
       <c r="C26" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="D26">
         <f>$B$26+$C$26</f>
       </c>
       <c r="E26" t="n">
-        <v>1948.0</v>
+        <v>107.0</v>
       </c>
       <c r="F26" t="n">
-        <v>1879.0</v>
+        <v>38.0</v>
       </c>
       <c r="G26" t="n">
         <v>0.0</v>
@@ -7298,7 +7390,7 @@
         <v>5.0</v>
       </c>
       <c r="K26" t="n">
-        <v>5032.2</v>
+        <v>3510.8</v>
       </c>
     </row>
     <row r="27">
@@ -7306,19 +7398,19 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>689.0</v>
+        <v>64.0</v>
       </c>
       <c r="C27" t="n">
-        <v>77.0</v>
+        <v>2.0</v>
       </c>
       <c r="D27">
         <f>$B$27+$C$27</f>
       </c>
       <c r="E27" t="n">
-        <v>7370.0</v>
+        <v>322.0</v>
       </c>
       <c r="F27" t="n">
-        <v>7319.0</v>
+        <v>271.0</v>
       </c>
       <c r="G27" t="n">
         <v>0.0</v>
@@ -7333,7 +7425,7 @@
         <v>4.0</v>
       </c>
       <c r="K27" t="n">
-        <v>7899.25</v>
+        <v>4974.0</v>
       </c>
     </row>
     <row r="28">
@@ -7341,19 +7433,19 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>929.0</v>
+        <v>95.0</v>
       </c>
       <c r="C28" t="n">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
       <c r="D28">
         <f>$B$28+$C$28</f>
       </c>
       <c r="E28" t="n">
-        <v>2238.0</v>
+        <v>3791.0</v>
       </c>
       <c r="F28" t="n">
-        <v>2109.0</v>
+        <v>3662.0</v>
       </c>
       <c r="G28" t="n">
         <v>0.0</v>
@@ -7368,7 +7460,7 @@
         <v>6.0</v>
       </c>
       <c r="K28" t="n">
-        <v>2194.0</v>
+        <v>4729.5</v>
       </c>
     </row>
     <row r="29">
@@ -7376,19 +7468,19 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>1316.0</v>
+        <v>861.0</v>
       </c>
       <c r="C29" t="n">
-        <v>28.0</v>
+        <v>23.0</v>
       </c>
       <c r="D29">
         <f>$B$29+$C$29</f>
       </c>
       <c r="E29" t="n">
-        <v>3393.0</v>
+        <v>2026.0</v>
       </c>
       <c r="F29" t="n">
-        <v>3258.0</v>
+        <v>1891.0</v>
       </c>
       <c r="G29" t="n">
         <v>0.0</v>
@@ -7403,7 +7495,7 @@
         <v>7.0</v>
       </c>
       <c r="K29" t="n">
-        <v>3385.4285714285716</v>
+        <v>3050.8571428571427</v>
       </c>
     </row>
     <row r="30">
@@ -7411,19 +7503,19 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>1103.0</v>
+        <v>340.0</v>
       </c>
       <c r="C30" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="D30">
         <f>$B$30+$C$30</f>
       </c>
       <c r="E30" t="n">
-        <v>1690.0</v>
+        <v>1280.0</v>
       </c>
       <c r="F30" t="n">
-        <v>1559.0</v>
+        <v>1149.0</v>
       </c>
       <c r="G30" t="n">
         <v>0.0</v>
@@ -7438,7 +7530,7 @@
         <v>6.0</v>
       </c>
       <c r="K30" t="n">
-        <v>3559.3333333333335</v>
+        <v>2925.8333333333335</v>
       </c>
     </row>
     <row r="31">
@@ -7446,19 +7538,19 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>790.0</v>
+        <v>69.0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.0</v>
+        <v>5.0</v>
       </c>
       <c r="D31">
         <f>$B$31+$C$31</f>
       </c>
       <c r="E31" t="n">
-        <v>7220.0</v>
+        <v>691.0</v>
       </c>
       <c r="F31" t="n">
-        <v>7148.0</v>
+        <v>619.0</v>
       </c>
       <c r="G31" t="n">
         <v>0.0</v>
@@ -7473,7 +7565,7 @@
         <v>5.0</v>
       </c>
       <c r="K31" t="n">
-        <v>5851.2</v>
+        <v>7372.8</v>
       </c>
     </row>
     <row r="32">
@@ -7592,7 +7684,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>36.0</v>
+        <v>18.0</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -7601,13 +7693,13 @@
         <f>$B$2+$C$2</f>
       </c>
       <c r="E2" t="n">
-        <v>159.0</v>
+        <v>499.0</v>
       </c>
       <c r="F2" t="n">
-        <v>18.0</v>
+        <v>138.0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H2" t="n">
         <v>1.0</v>
@@ -7616,22 +7708,22 @@
         <v>0.0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="K2" t="n">
-        <v>19309.875</v>
+        <v>17924.933333333334</v>
       </c>
       <c r="M2" t="n">
         <v>0.0</v>
       </c>
       <c r="N2" t="n">
-        <v>20.0</v>
+        <v>11.0</v>
       </c>
       <c r="O2" t="n">
-        <v>28.0</v>
+        <v>17.0</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -7639,22 +7731,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>45.0</v>
+        <v>28.0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
         <f>$B$3+$C$3</f>
       </c>
       <c r="E3" t="n">
-        <v>160.0</v>
+        <v>153.0</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H3" t="n">
         <v>1.0</v>
@@ -7663,22 +7755,22 @@
         <v>0.0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="K3" t="n">
-        <v>18724.428571428572</v>
+        <v>9752.555555555555</v>
       </c>
       <c r="M3" t="n">
         <v>1.0</v>
       </c>
       <c r="N3" t="n">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
       <c r="O3" t="n">
-        <v>33.0</v>
+        <v>20.0</v>
       </c>
       <c r="P3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -7686,19 +7778,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>39.0</v>
+        <v>22.0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4">
         <f>$B$4+$C$4</f>
       </c>
       <c r="E4" t="n">
-        <v>149.0</v>
+        <v>156.0</v>
       </c>
       <c r="F4" t="n">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -7713,19 +7805,19 @@
         <v>6.0</v>
       </c>
       <c r="K4" t="n">
-        <v>9069.666666666666</v>
+        <v>13702.0</v>
       </c>
       <c r="M4" t="n">
         <v>2.0</v>
       </c>
       <c r="N4" t="n">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.0</v>
+        <v>21.0</v>
       </c>
       <c r="P4" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -7733,22 +7825,22 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="D5">
         <f>$B$5+$C$5</f>
       </c>
       <c r="E5" t="n">
-        <v>580.0</v>
+        <v>71.0</v>
       </c>
       <c r="F5" t="n">
-        <v>361.0</v>
+        <v>42.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H5" t="n">
         <v>1.0</v>
@@ -7757,22 +7849,22 @@
         <v>0.0</v>
       </c>
       <c r="J5" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="K5" t="n">
-        <v>36908.92307692308</v>
+        <v>36837.36363636364</v>
       </c>
       <c r="M5" t="n">
         <v>3.0</v>
       </c>
       <c r="N5" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="O5" t="n">
-        <v>37.0</v>
+        <v>22.0</v>
       </c>
       <c r="P5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -7780,22 +7872,22 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>46.0</v>
+        <v>28.0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D6">
         <f>$B$6+$C$6</f>
       </c>
       <c r="E6" t="n">
-        <v>182.0</v>
+        <v>150.0</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0</v>
+        <v>16.0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H6" t="n">
         <v>1.0</v>
@@ -7807,7 +7899,7 @@
         <v>7.0</v>
       </c>
       <c r="K6" t="n">
-        <v>7397.857142857143</v>
+        <v>7607.0</v>
       </c>
       <c r="M6" t="s">
         <v>4</v>
@@ -7824,7 +7916,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>43.0</v>
+        <v>22.0</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -7833,13 +7925,13 @@
         <f>$B$7+$C$7</f>
       </c>
       <c r="E7" t="n">
-        <v>144.0</v>
+        <v>157.0</v>
       </c>
       <c r="F7" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -7851,7 +7943,7 @@
         <v>6.0</v>
       </c>
       <c r="K7" t="n">
-        <v>10971.166666666666</v>
+        <v>6290.333333333333</v>
       </c>
       <c r="M7" t="s">
         <v>15</v>
@@ -7868,7 +7960,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -7877,10 +7969,10 @@
         <f>$B$8+$C$8</f>
       </c>
       <c r="E8" t="n">
-        <v>175.0</v>
+        <v>386.0</v>
       </c>
       <c r="F8" t="n">
-        <v>104.0</v>
+        <v>212.0</v>
       </c>
       <c r="G8" t="n">
         <v>3.0</v>
@@ -7892,10 +7984,10 @@
         <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K8" t="n">
-        <v>24363.454545454544</v>
+        <v>25478.0</v>
       </c>
       <c r="M8" t="s">
         <v>15</v>
@@ -7912,7 +8004,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -7921,13 +8013,13 @@
         <f>$B$9+$C$9</f>
       </c>
       <c r="E9" t="n">
-        <v>256.0</v>
+        <v>462.0</v>
       </c>
       <c r="F9" t="n">
-        <v>182.0</v>
+        <v>289.0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H9" t="n">
         <v>1.0</v>
@@ -7936,10 +8028,10 @@
         <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="K9" t="n">
-        <v>30746.636363636364</v>
+        <v>21728.466666666667</v>
       </c>
       <c r="M9" t="s">
         <v>15</v>
@@ -7956,22 +8048,22 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>40.0</v>
+        <v>21.0</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D10">
         <f>$B$10+$C$10</f>
       </c>
       <c r="E10" t="n">
-        <v>151.0</v>
+        <v>147.0</v>
       </c>
       <c r="F10" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H10" t="n">
         <v>1.0</v>
@@ -7980,10 +8072,10 @@
         <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="K10" t="n">
-        <v>62025.166666666664</v>
+        <v>11995.444444444445</v>
       </c>
       <c r="M10" t="s">
         <v>15</v>
@@ -8000,7 +8092,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>48.0</v>
+        <v>26.0</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -8009,13 +8101,13 @@
         <f>$B$11+$C$11</f>
       </c>
       <c r="E11" t="n">
-        <v>249.0</v>
+        <v>332.0</v>
       </c>
       <c r="F11" t="n">
-        <v>18.0</v>
+        <v>53.0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H11" t="n">
         <v>1.0</v>
@@ -8024,10 +8116,10 @@
         <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="K11" t="n">
-        <v>37221.444444444445</v>
+        <v>13413.307692307691</v>
       </c>
       <c r="M11" t="s">
         <v>15</v>
@@ -8044,19 +8136,19 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>37.0</v>
+        <v>20.0</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D12">
         <f>$B$12+$C$12</f>
       </c>
       <c r="E12" t="n">
-        <v>209.0</v>
+        <v>149.0</v>
       </c>
       <c r="F12" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="G12" t="n">
         <v>1.0</v>
@@ -8071,7 +8163,7 @@
         <v>6.0</v>
       </c>
       <c r="K12" t="n">
-        <v>7314.333333333333</v>
+        <v>4486.166666666667</v>
       </c>
       <c r="M12" t="s">
         <v>15</v>
@@ -8088,7 +8180,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>46.0</v>
+        <v>27.0</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -8097,13 +8189,13 @@
         <f>$B$13+$C$13</f>
       </c>
       <c r="E13" t="n">
-        <v>152.0</v>
+        <v>168.0</v>
       </c>
       <c r="F13" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H13" t="n">
         <v>1.0</v>
@@ -8115,7 +8207,7 @@
         <v>7.0</v>
       </c>
       <c r="K13" t="n">
-        <v>7941.142857142857</v>
+        <v>8776.857142857143</v>
       </c>
       <c r="M13" t="s">
         <v>15</v>
@@ -8132,19 +8224,19 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>42.0</v>
+        <v>21.0</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D14">
         <f>$B$14+$C$14</f>
       </c>
       <c r="E14" t="n">
-        <v>167.0</v>
+        <v>187.0</v>
       </c>
       <c r="F14" t="n">
-        <v>18.0</v>
+        <v>24.0</v>
       </c>
       <c r="G14" t="n">
         <v>1.0</v>
@@ -8159,7 +8251,7 @@
         <v>6.0</v>
       </c>
       <c r="K14" t="n">
-        <v>7314.5</v>
+        <v>7850.666666666667</v>
       </c>
       <c r="M14" t="s">
         <v>15</v>
@@ -8176,22 +8268,22 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D15">
         <f>$B$15+$C$15</f>
       </c>
       <c r="E15" t="n">
-        <v>108.0</v>
+        <v>62.0</v>
       </c>
       <c r="F15" t="n">
-        <v>64.0</v>
+        <v>36.0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H15" t="n">
         <v>1.0</v>
@@ -8200,10 +8292,10 @@
         <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="K15" t="n">
-        <v>45481.63636363636</v>
+        <v>53443.0</v>
       </c>
       <c r="M15" t="s">
         <v>15</v>
@@ -8220,22 +8312,22 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>42.0</v>
+        <v>22.0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D16">
         <f>$B$16+$C$16</f>
       </c>
       <c r="E16" t="n">
-        <v>198.0</v>
+        <v>132.0</v>
       </c>
       <c r="F16" t="n">
-        <v>22.0</v>
+        <v>14.0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H16" t="n">
         <v>1.0</v>
@@ -8244,10 +8336,10 @@
         <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="K16" t="n">
-        <v>12141.8</v>
+        <v>9020.833333333334</v>
       </c>
       <c r="M16" t="s">
         <v>15</v>
@@ -8264,22 +8356,22 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D17">
         <f>$B$17+$C$17</f>
       </c>
       <c r="E17" t="n">
-        <v>122.0</v>
+        <v>114.0</v>
       </c>
       <c r="F17" t="n">
-        <v>83.0</v>
+        <v>46.0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H17" t="n">
         <v>1.0</v>
@@ -8288,10 +8380,10 @@
         <v>0.0</v>
       </c>
       <c r="J17" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="K17" t="n">
-        <v>35962.083333333336</v>
+        <v>35587.27272727273</v>
       </c>
       <c r="M17" t="s">
         <v>15</v>
@@ -8308,22 +8400,22 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>46.0</v>
+        <v>26.0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D18">
         <f>$B$18+$C$18</f>
       </c>
       <c r="E18" t="n">
-        <v>215.0</v>
+        <v>148.0</v>
       </c>
       <c r="F18" t="n">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H18" t="n">
         <v>1.0</v>
@@ -8335,7 +8427,7 @@
         <v>7.0</v>
       </c>
       <c r="K18" t="n">
-        <v>19894.714285714286</v>
+        <v>5350.0</v>
       </c>
       <c r="M18" t="s">
         <v>15</v>
@@ -8352,22 +8444,22 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>39.0</v>
+        <v>22.0</v>
       </c>
       <c r="C19" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D19">
         <f>$B$19+$C$19</f>
       </c>
       <c r="E19" t="n">
-        <v>228.0</v>
+        <v>258.0</v>
       </c>
       <c r="F19" t="n">
-        <v>40.0</v>
+        <v>32.0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H19" t="n">
         <v>1.0</v>
@@ -8379,7 +8471,7 @@
         <v>6.0</v>
       </c>
       <c r="K19" t="n">
-        <v>18432.0</v>
+        <v>8972.333333333334</v>
       </c>
       <c r="M19" t="s">
         <v>15</v>
@@ -8396,22 +8488,22 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>44.0</v>
+        <v>26.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D20">
         <f>$B$20+$C$20</f>
       </c>
       <c r="E20" t="n">
-        <v>119.0</v>
+        <v>175.0</v>
       </c>
       <c r="F20" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H20" t="n">
         <v>1.0</v>
@@ -8423,7 +8515,7 @@
         <v>7.0</v>
       </c>
       <c r="K20" t="n">
-        <v>22862.428571428572</v>
+        <v>1755.2857142857142</v>
       </c>
       <c r="M20" t="s">
         <v>15</v>
@@ -8440,19 +8532,19 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>39.0</v>
+        <v>23.0</v>
       </c>
       <c r="C21" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D21">
         <f>$B$21+$C$21</f>
       </c>
       <c r="E21" t="n">
-        <v>149.0</v>
+        <v>150.0</v>
       </c>
       <c r="F21" t="n">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="G21" t="n">
         <v>2.0</v>
@@ -8467,7 +8559,7 @@
         <v>6.0</v>
       </c>
       <c r="K21" t="n">
-        <v>7704.5</v>
+        <v>4730.0</v>
       </c>
       <c r="M21" t="s">
         <v>15</v>
@@ -8484,22 +8576,22 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="C22" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D22">
         <f>$B$22+$C$22</f>
       </c>
       <c r="E22" t="n">
-        <v>471.0</v>
+        <v>522.0</v>
       </c>
       <c r="F22" t="n">
-        <v>284.0</v>
+        <v>297.0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H22" t="n">
         <v>1.0</v>
@@ -8511,7 +8603,7 @@
         <v>13.0</v>
       </c>
       <c r="K22" t="n">
-        <v>39317.07692307692</v>
+        <v>37629.230769230766</v>
       </c>
     </row>
     <row r="23">
@@ -8519,22 +8611,22 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>46.0</v>
+        <v>27.0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D23">
         <f>$B$23+$C$23</f>
       </c>
       <c r="E23" t="n">
-        <v>150.0</v>
+        <v>173.0</v>
       </c>
       <c r="F23" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H23" t="n">
         <v>1.0</v>
@@ -8546,7 +8638,7 @@
         <v>7.0</v>
       </c>
       <c r="K23" t="n">
-        <v>5809.714285714285</v>
+        <v>7857.714285714285</v>
       </c>
     </row>
     <row r="24">
@@ -8554,22 +8646,22 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>34.0</v>
+        <v>19.0</v>
       </c>
       <c r="C24" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D24">
         <f>$B$24+$C$24</f>
       </c>
       <c r="E24" t="n">
-        <v>137.0</v>
+        <v>178.0</v>
       </c>
       <c r="F24" t="n">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H24" t="n">
         <v>1.0</v>
@@ -8581,7 +8673,7 @@
         <v>6.0</v>
       </c>
       <c r="K24" t="n">
-        <v>14726.333333333334</v>
+        <v>9070.0</v>
       </c>
     </row>
     <row r="25">
@@ -8589,7 +8681,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>43.0</v>
+        <v>23.0</v>
       </c>
       <c r="C25" t="n">
         <v>1.0</v>
@@ -8598,10 +8690,10 @@
         <f>$B$25+$C$25</f>
       </c>
       <c r="E25" t="n">
-        <v>152.0</v>
+        <v>424.0</v>
       </c>
       <c r="F25" t="n">
-        <v>15.0</v>
+        <v>40.0</v>
       </c>
       <c r="G25" t="n">
         <v>1.0</v>
@@ -8613,10 +8705,10 @@
         <v>0.0</v>
       </c>
       <c r="J25" t="n">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="K25" t="n">
-        <v>9655.0</v>
+        <v>14358.23076923077</v>
       </c>
     </row>
     <row r="26">
@@ -8624,22 +8716,22 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>36.0</v>
+        <v>20.0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D26">
         <f>$B$26+$C$26</f>
       </c>
       <c r="E26" t="n">
-        <v>138.0</v>
+        <v>92.0</v>
       </c>
       <c r="F26" t="n">
         <v>17.0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="H26" t="n">
         <v>1.0</v>
@@ -8651,7 +8743,7 @@
         <v>5.0</v>
       </c>
       <c r="K26" t="n">
-        <v>19894.8</v>
+        <v>11176.6</v>
       </c>
     </row>
     <row r="27">
@@ -8659,7 +8751,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="C27" t="n">
         <v>1.0</v>
@@ -8668,10 +8760,10 @@
         <f>$B$27+$C$27</f>
       </c>
       <c r="E27" t="n">
-        <v>29.0</v>
+        <v>245.0</v>
       </c>
       <c r="F27" t="n">
-        <v>11.0</v>
+        <v>154.0</v>
       </c>
       <c r="G27" t="n">
         <v>2.0</v>
@@ -8683,10 +8775,10 @@
         <v>0.0</v>
       </c>
       <c r="J27" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="K27" t="n">
-        <v>74118.33333333333</v>
+        <v>32694.916666666668</v>
       </c>
     </row>
     <row r="28">
@@ -8694,19 +8786,19 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>34.0</v>
+        <v>20.0</v>
       </c>
       <c r="C28" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D28">
         <f>$B$28+$C$28</f>
       </c>
       <c r="E28" t="n">
-        <v>149.0</v>
+        <v>318.0</v>
       </c>
       <c r="F28" t="n">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="G28" t="n">
         <v>0.0</v>
@@ -8718,10 +8810,10 @@
         <v>0.0</v>
       </c>
       <c r="J28" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="K28" t="n">
-        <v>21540.25</v>
+        <v>16150.0</v>
       </c>
     </row>
     <row r="29">
@@ -8729,7 +8821,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>48.0</v>
+        <v>28.0</v>
       </c>
       <c r="C29" t="n">
         <v>1.0</v>
@@ -8738,13 +8830,13 @@
         <f>$B$29+$C$29</f>
       </c>
       <c r="E29" t="n">
-        <v>167.0</v>
+        <v>341.0</v>
       </c>
       <c r="F29" t="n">
-        <v>14.0</v>
+        <v>51.0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H29" t="n">
         <v>1.0</v>
@@ -8753,10 +8845,10 @@
         <v>0.0</v>
       </c>
       <c r="J29" t="n">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="K29" t="n">
-        <v>7982.857142857143</v>
+        <v>79111.4</v>
       </c>
     </row>
     <row r="30">
@@ -8764,22 +8856,22 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>43.0</v>
+        <v>25.0</v>
       </c>
       <c r="C30" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D30">
         <f>$B$30+$C$30</f>
       </c>
       <c r="E30" t="n">
-        <v>258.0</v>
+        <v>326.0</v>
       </c>
       <c r="F30" t="n">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H30" t="n">
         <v>1.0</v>
@@ -8791,7 +8883,7 @@
         <v>6.0</v>
       </c>
       <c r="K30" t="n">
-        <v>2535.8333333333335</v>
+        <v>10435.0</v>
       </c>
     </row>
     <row r="31">
@@ -8799,22 +8891,22 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>23.0</v>
+        <v>13.0</v>
       </c>
       <c r="C31" t="n">
-        <v>10.0</v>
+        <v>2.0</v>
       </c>
       <c r="D31">
         <f>$B$31+$C$31</f>
       </c>
       <c r="E31" t="n">
-        <v>839.0</v>
+        <v>477.0</v>
       </c>
       <c r="F31" t="n">
-        <v>690.0</v>
+        <v>332.0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H31" t="n">
         <v>1.0</v>
@@ -8823,10 +8915,10 @@
         <v>0.0</v>
       </c>
       <c r="J31" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="K31" t="n">
-        <v>34028.46153846154</v>
+        <v>34401.5</v>
       </c>
     </row>
     <row r="32">
